--- a/starwars_worked.xlsx
+++ b/starwars_worked.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcool\workspace\excel\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcool\workspace\excel\data\starwars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9225B628-7465-4732-8949-2115CC728007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70FF73C-AD1E-4601-B38A-874D327165E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="starwars" sheetId="1" r:id="rId1"/>
     <sheet name="data_dictionary" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="StarwarsData">starwars!$A$2,starwars!$A$2:$Q$88</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="280">
   <si>
     <t>name</t>
   </si>
@@ -835,6 +838,45 @@
   </si>
   <si>
     <t>BMI</t>
+  </si>
+  <si>
+    <t>BMI_rank</t>
+  </si>
+  <si>
+    <t>AVG BMI not 0</t>
+  </si>
+  <si>
+    <t>age_in_days</t>
+  </si>
+  <si>
+    <t>birthdate</t>
+  </si>
+  <si>
+    <t>mass/height_m^2</t>
+  </si>
+  <si>
+    <t>age*365</t>
+  </si>
+  <si>
+    <t>first_movie</t>
+  </si>
+  <si>
+    <t>extracted first listed item from films column</t>
+  </si>
+  <si>
+    <t>Closest in age</t>
+  </si>
+  <si>
+    <t>Justin age in days</t>
+  </si>
+  <si>
+    <t>Height in m</t>
+  </si>
+  <si>
+    <t>Everyone's BMI compared to Darth Vader</t>
+  </si>
+  <si>
+    <t>Rank and score from all BMI available</t>
   </si>
 </sst>
 </file>
@@ -1329,10 +1371,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1688,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M88"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1699,17 +1743,21 @@
     <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="125.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.8984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="125.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1726,31 +1774,43 @@
         <v>266</v>
       </c>
       <c r="F1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" t="s">
         <v>265</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M1" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1765,41 +1825,54 @@
         <v>77</v>
       </c>
       <c r="E2">
-        <f>D2/B2^2</f>
+        <f>IF(OR(C2="NA",D2="NA"),0, D2/B2^2)</f>
         <v>26.027582477014604</v>
       </c>
       <c r="F2">
-        <f>E2-$E$5</f>
-        <v>-7.302483202820703</v>
-      </c>
-      <c r="G2" t="s">
+        <f>RANK(E2,$E$2:$E$88)</f>
+        <v>18</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IFERROR(IF($E$5&gt;E2, "Lighter", "Heavier"), "Missing Data")</f>
+        <v>Lighter</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2">
+        <f>IF(K2="NA", 0, K2*365)</f>
+        <v>6935</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P24" si="0">TRIM(IFERROR(LEFT(Q2,(FIND(",",Q2))-1), Q2))</f>
+        <v>Revenge of the Sith</v>
+      </c>
+      <c r="Q2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">C3/100</f>
+        <f t="shared" ref="B3:B66" si="1">C3/100</f>
         <v>1.67</v>
       </c>
       <c r="C3">
@@ -1809,41 +1882,53 @@
         <v>75</v>
       </c>
       <c r="E3">
-        <f>D3/B3^2</f>
+        <f t="shared" ref="E3:E66" si="2">IF(OR(C3="NA",D3="NA"),0, D3/B3^2)</f>
         <v>26.892323138154829</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">E3-$E$5</f>
-        <v>-6.4377425416804783</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
+        <f t="shared" ref="F3:F66" si="3">RANK(E3,$E$2:$E$88)</f>
+        <v>14</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="4">IFERROR(IF($E$5&gt;E3, "Lighter", "Heavier"), "Missing Data")</f>
+        <v>Lighter</v>
       </c>
       <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>112</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="5">IF(K3="NA", 0, K3*365)</f>
+        <v>40880</v>
+      </c>
+      <c r="N3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="str">
+        <f t="shared" si="0"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
       <c r="C4">
@@ -1853,41 +1938,53 @@
         <v>32</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E67" si="2">D4/B4^2</f>
+        <f t="shared" si="2"/>
         <v>34.722222222222221</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>1.392156542386914</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="4"/>
+        <v>Heavier</v>
       </c>
       <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>25</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>33</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4">
+        <f t="shared" si="5"/>
+        <v>12045</v>
+      </c>
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>21</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.02</v>
       </c>
       <c r="C5">
@@ -1901,37 +1998,49 @@
         <v>33.330065679835307</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="4"/>
+        <v>Heavier</v>
+      </c>
+      <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>41.9</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>15293.5</v>
+      </c>
+      <c r="N5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>15</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="str">
+        <f t="shared" si="0"/>
+        <v>Revenge of the Sith</v>
+      </c>
+      <c r="Q5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="C6">
@@ -1945,37 +2054,49 @@
         <v>21.777777777777779</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
-        <v>-11.552287902057529</v>
-      </c>
-      <c r="G6" t="s">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>19</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>6935</v>
+      </c>
+      <c r="N6" t="s">
         <v>35</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>15</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>Revenge of the Sith</v>
+      </c>
+      <c r="Q6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.78</v>
       </c>
       <c r="C7">
@@ -1989,37 +2110,49 @@
         <v>37.874005807347558</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
-        <v>4.5439401275122506</v>
-      </c>
-      <c r="G7" t="s">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="4"/>
+        <v>Heavier</v>
+      </c>
+      <c r="H7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>13</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>52</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>18980</v>
+      </c>
+      <c r="N7" t="s">
         <v>14</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>15</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.65</v>
       </c>
       <c r="C8">
@@ -2033,37 +2166,49 @@
         <v>27.548209366391188</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>-5.7818563134441199</v>
-      </c>
-      <c r="G8" t="s">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>34</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>13</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>47</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>17155</v>
+      </c>
+      <c r="N8" t="s">
         <v>14</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>15</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97</v>
       </c>
       <c r="C9">
@@ -2077,37 +2222,49 @@
         <v>34.009990434690195</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0.67992475485488768</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="4"/>
+        <v>Heavier</v>
       </c>
       <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
         <v>42</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>25</v>
       </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
       <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
         <v>14</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
         <v>21</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>A New Hope</v>
+      </c>
+      <c r="Q9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.83</v>
       </c>
       <c r="C10">
@@ -2121,37 +2278,49 @@
         <v>25.082863029651524</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>-8.2472026501837838</v>
-      </c>
-      <c r="G10" t="s">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H10" t="s">
         <v>45</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>33</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>24</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>8760</v>
+      </c>
+      <c r="N10" t="s">
         <v>14</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>15</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>A New Hope</v>
+      </c>
+      <c r="Q10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.82</v>
       </c>
       <c r="C11">
@@ -2165,37 +2334,49 @@
         <v>23.245984784446321</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>-10.084080895388986</v>
-      </c>
-      <c r="G11" t="s">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>12</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>48</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>57</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>20805</v>
+      </c>
+      <c r="N11" t="s">
         <v>49</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>15</v>
       </c>
-      <c r="M11" t="s">
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.88</v>
       </c>
       <c r="C12">
@@ -2209,37 +2390,49 @@
         <v>23.766410140334994</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
-        <v>-9.5636555395003136</v>
-      </c>
-      <c r="G12" t="s">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>12</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>13</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>41.9</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>15293.5</v>
+      </c>
+      <c r="N12" t="s">
         <v>14</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>15</v>
       </c>
-      <c r="M12" t="s">
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
       <c r="C13">
@@ -2248,42 +2441,54 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="e">
+      <c r="E13">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H13" t="s">
         <v>53</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>13</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>64</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>23360</v>
+      </c>
+      <c r="N13" t="s">
         <v>54</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O13" t="s">
         <v>15</v>
       </c>
-      <c r="M13" t="s">
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>Revenge of the Sith</v>
+      </c>
+      <c r="Q13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2799999999999998</v>
       </c>
       <c r="C14">
@@ -2297,37 +2502,49 @@
         <v>21.545090797168363</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
-        <v>-11.784974882666944</v>
-      </c>
-      <c r="G14" t="s">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H14" t="s">
         <v>33</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>57</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>13</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>200</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>73000</v>
+      </c>
+      <c r="N14" t="s">
         <v>58</v>
       </c>
-      <c r="L14" t="s">
+      <c r="O14" t="s">
         <v>59</v>
       </c>
-      <c r="M14" t="s">
+      <c r="P14" t="str">
+        <f t="shared" si="0"/>
+        <v>Revenge of the Sith</v>
+      </c>
+      <c r="Q14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
       <c r="C15">
@@ -2341,37 +2558,49 @@
         <v>24.691358024691358</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
-        <v>-8.6387076551439499</v>
-      </c>
-      <c r="G15" t="s">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H15" t="s">
         <v>33</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>12</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>33</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>29</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>10585</v>
+      </c>
+      <c r="N15" t="s">
         <v>61</v>
       </c>
-      <c r="L15" t="s">
+      <c r="O15" t="s">
         <v>15</v>
       </c>
-      <c r="M15" t="s">
+      <c r="P15" t="str">
+        <f t="shared" si="0"/>
+        <v>Return of the Jedi</v>
+      </c>
+      <c r="Q15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.73</v>
       </c>
       <c r="C16">
@@ -2385,37 +2614,49 @@
         <v>24.725182932941294</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
-        <v>-8.6048827468940132</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
       </c>
       <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
         <v>64</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>45</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>44</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>16060</v>
+      </c>
+      <c r="N16" t="s">
         <v>65</v>
       </c>
-      <c r="L16" t="s">
+      <c r="O16" t="s">
         <v>66</v>
       </c>
-      <c r="M16" t="s">
+      <c r="P16" t="str">
+        <f t="shared" si="0"/>
+        <v>A New Hope</v>
+      </c>
+      <c r="Q16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
       <c r="C17">
@@ -2429,37 +2670,49 @@
         <v>443.42857142857144</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
-        <v>410.09850574873616</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="4"/>
+        <v>Heavier</v>
       </c>
       <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
         <v>68</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>69</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>600</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>219000</v>
+      </c>
+      <c r="N17" t="s">
         <v>70</v>
       </c>
-      <c r="L17" t="s">
+      <c r="O17" t="s">
         <v>71</v>
       </c>
-      <c r="M17" t="s">
+      <c r="P17" t="str">
+        <f t="shared" si="0"/>
+        <v>The Phantom Menace</v>
+      </c>
+      <c r="Q17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>73</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
       <c r="C18">
@@ -2473,37 +2726,49 @@
         <v>26.643598615916957</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>-6.6864670639183501</v>
-      </c>
-      <c r="G18" t="s">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H18" t="s">
         <v>33</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>12</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>74</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>21</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>7665</v>
+      </c>
+      <c r="N18" t="s">
         <v>61</v>
       </c>
-      <c r="L18" t="s">
+      <c r="O18" t="s">
         <v>15</v>
       </c>
-      <c r="M18" t="s">
+      <c r="P18" t="str">
+        <f t="shared" si="0"/>
+        <v>Return of the Jedi</v>
+      </c>
+      <c r="Q18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
       <c r="C19">
@@ -2517,37 +2782,49 @@
         <v>33.950617283950614</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
-        <v>0.62055160411530608</v>
-      </c>
-      <c r="G19" t="s">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="4"/>
+        <v>Heavier</v>
+      </c>
+      <c r="H19" t="s">
         <v>33</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>12</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>13</v>
       </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
       <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
         <v>77</v>
       </c>
-      <c r="L19" t="s">
+      <c r="O19" t="s">
         <v>15</v>
       </c>
-      <c r="M19" t="s">
+      <c r="P19" t="str">
+        <f t="shared" si="0"/>
+        <v>A New Hope</v>
+      </c>
+      <c r="Q19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>78</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66</v>
       </c>
       <c r="C20">
@@ -2561,37 +2838,49 @@
         <v>39.026629935720841</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
-        <v>5.6965642558855336</v>
-      </c>
-      <c r="G20" t="s">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="4"/>
+        <v>Heavier</v>
+      </c>
+      <c r="H20" t="s">
         <v>30</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>64</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>33</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>896</v>
       </c>
-      <c r="K20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="L20">
+        <f>IF(K20="NA", 0, K20*365)</f>
+        <v>327040</v>
+      </c>
+      <c r="N20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" t="s">
         <v>79</v>
       </c>
-      <c r="M20" t="s">
+      <c r="P20" t="str">
+        <f t="shared" si="0"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>81</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
       <c r="C21">
@@ -2605,37 +2894,49 @@
         <v>25.95155709342561</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
-        <v>-7.3785085864096978</v>
-      </c>
-      <c r="G21" t="s">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H21" t="s">
         <v>82</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>83</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>20</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>82</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>29930</v>
+      </c>
+      <c r="N21" t="s">
         <v>26</v>
       </c>
-      <c r="L21" t="s">
+      <c r="O21" t="s">
         <v>15</v>
       </c>
-      <c r="M21" t="s">
+      <c r="P21" t="str">
+        <f t="shared" si="0"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>85</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.83</v>
       </c>
       <c r="C22">
@@ -2649,37 +2950,49 @@
         <v>23.350951058556539</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
-        <v>-9.979114621278768</v>
-      </c>
-      <c r="G22" t="s">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H22" t="s">
         <v>45</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>12</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>33</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>31.5</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>11497.5</v>
+      </c>
+      <c r="N22" t="s">
         <v>86</v>
       </c>
-      <c r="L22" t="s">
+      <c r="O22" t="s">
         <v>15</v>
       </c>
-      <c r="M22" t="s">
+      <c r="P22" t="str">
+        <f t="shared" si="0"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>88</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C23">
@@ -2693,37 +3006,49 @@
         <v>35</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
-        <v>1.6699343201646926</v>
-      </c>
-      <c r="G23" t="s">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="4"/>
+        <v>Heavier</v>
+      </c>
+      <c r="H23" t="s">
         <v>29</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>89</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>25</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>15</v>
       </c>
-      <c r="K23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>5475</v>
+      </c>
+      <c r="N23" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" t="s">
         <v>21</v>
       </c>
-      <c r="M23" t="s">
+      <c r="P23" t="str">
+        <f t="shared" si="0"/>
+        <v>The Empire Strikes Back</v>
+      </c>
+      <c r="Q23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>91</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
       <c r="C24">
@@ -2737,37 +3062,49 @@
         <v>31.301939058171747</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
-        <v>-2.0281266216635601</v>
-      </c>
-      <c r="G24" t="s">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H24" t="s">
         <v>29</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>64</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>25</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>53</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>19345</v>
+      </c>
+      <c r="N24" t="s">
         <v>92</v>
       </c>
-      <c r="L24" t="s">
+      <c r="O24" t="s">
         <v>93</v>
       </c>
-      <c r="M24" t="s">
+      <c r="P24" t="str">
+        <f t="shared" si="0"/>
+        <v>The Empire Strikes Back</v>
+      </c>
+      <c r="Q24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>94</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.77</v>
       </c>
       <c r="C25">
@@ -2781,37 +3118,49 @@
         <v>25.216253311628201</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
-        <v>-8.1138123682071068</v>
-      </c>
-      <c r="G25" t="s">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H25" t="s">
         <v>45</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>95</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>33</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>31</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>11315</v>
+      </c>
+      <c r="N25" t="s">
         <v>96</v>
       </c>
-      <c r="L25" t="s">
+      <c r="O25" t="s">
         <v>15</v>
       </c>
-      <c r="M25" t="s">
+      <c r="P25" t="str">
+        <f t="shared" ref="P22:P85" si="6">TRIM(IFERROR(LEFT(Q25,(FIND(",",Q25))-1), Q25))</f>
+        <v>Return of the Jedi</v>
+      </c>
+      <c r="Q25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>98</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
       <c r="C26">
@@ -2825,37 +3174,49 @@
         <v>25.795918367346939</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
-        <v>-7.5341473124883684</v>
-      </c>
-      <c r="G26" t="s">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H26" t="s">
         <v>29</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>34</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>13</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>37</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>13505</v>
+      </c>
+      <c r="N26" t="s">
         <v>99</v>
       </c>
-      <c r="L26" t="s">
+      <c r="O26" t="s">
         <v>15</v>
       </c>
-      <c r="M26" t="s">
+      <c r="P26" t="str">
+        <f t="shared" si="6"/>
+        <v>The Empire Strikes Back</v>
+      </c>
+      <c r="Q26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>100</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
       <c r="C27">
@@ -2869,37 +3230,49 @@
         <v>25.617283950617281</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
-        <v>-7.7127817292180261</v>
-      </c>
-      <c r="G27" t="s">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H27" t="s">
         <v>29</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>101</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>69</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>41</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>14965</v>
+      </c>
+      <c r="N27" t="s">
         <v>102</v>
       </c>
-      <c r="L27" t="s">
+      <c r="O27" t="s">
         <v>103</v>
       </c>
-      <c r="M27" t="s">
+      <c r="P27" t="str">
+        <f t="shared" si="6"/>
+        <v>Return of the Jedi</v>
+      </c>
+      <c r="Q27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>105</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="C28">
@@ -2908,86 +3281,110 @@
       <c r="D28" t="s">
         <v>18</v>
       </c>
-      <c r="E28" t="e">
+      <c r="E28">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F28" t="e">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28">
+        <v>48</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>17520</v>
+      </c>
+      <c r="N28" t="s">
+        <v>107</v>
+      </c>
+      <c r="O28" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="6"/>
+        <v>Return of the Jedi</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" t="s">
         <v>12</v>
       </c>
-      <c r="I28" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28">
-        <v>48</v>
-      </c>
-      <c r="K28" t="s">
-        <v>107</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="J29" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29" t="s">
         <v>15</v>
       </c>
-      <c r="M28" t="s">
+      <c r="P29" t="str">
+        <f t="shared" si="6"/>
+        <v>Return of the Jedi</v>
+      </c>
+      <c r="Q29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" t="s">
-        <v>15</v>
-      </c>
-      <c r="M29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>110</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
       <c r="C30">
@@ -3001,11 +3398,12 @@
         <v>25.826446280991735</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
-        <v>-7.503619398843572</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
       </c>
       <c r="H30" t="s">
         <v>33</v>
@@ -3013,25 +3411,36 @@
       <c r="I30" t="s">
         <v>33</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30">
         <v>8</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30">
+        <f t="shared" si="5"/>
+        <v>2920</v>
+      </c>
+      <c r="N30" t="s">
         <v>111</v>
       </c>
-      <c r="L30" t="s">
+      <c r="O30" t="s">
         <v>112</v>
       </c>
-      <c r="M30" t="s">
+      <c r="P30" t="str">
+        <f t="shared" si="6"/>
+        <v>Return of the Jedi</v>
+      </c>
+      <c r="Q30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>113</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
       <c r="C31">
@@ -3045,37 +3454,49 @@
         <v>26.562499999999996</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
-        <v>-6.767565679835311</v>
-      </c>
-      <c r="G31" t="s">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H31" t="s">
         <v>29</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>82</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>45</v>
       </c>
-      <c r="J31" t="s">
-        <v>18</v>
-      </c>
       <c r="K31" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
         <v>114</v>
       </c>
-      <c r="L31" t="s">
+      <c r="O31" t="s">
         <v>115</v>
       </c>
-      <c r="M31" t="s">
+      <c r="P31" t="str">
+        <f t="shared" si="6"/>
+        <v>Return of the Jedi</v>
+      </c>
+      <c r="Q31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>116</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.93</v>
       </c>
       <c r="C32">
@@ -3089,37 +3510,49 @@
         <v>23.893258879433006</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
-        <v>-9.4368068004023016</v>
-      </c>
-      <c r="G32" t="s">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
+      <c r="G32" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
       <c r="H32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" t="s">
         <v>12</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>13</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>92</v>
       </c>
-      <c r="K32" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>33580</v>
+      </c>
+      <c r="N32" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" t="s">
         <v>15</v>
       </c>
-      <c r="M32" t="s">
+      <c r="P32" t="str">
+        <f t="shared" si="6"/>
+        <v>The Phantom Menace</v>
+      </c>
+      <c r="Q32" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>118</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.91</v>
       </c>
       <c r="C33">
@@ -3133,37 +3566,49 @@
         <v>24.670376360297141</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
-        <v>-8.6596893195381668</v>
-      </c>
-      <c r="G33" t="s">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H33" t="s">
         <v>29</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>119</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>25</v>
       </c>
-      <c r="J33" t="s">
-        <v>18</v>
-      </c>
       <c r="K33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
         <v>120</v>
       </c>
-      <c r="L33" t="s">
+      <c r="O33" t="s">
         <v>121</v>
       </c>
-      <c r="M33" t="s">
+      <c r="P33" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>122</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
       <c r="C34">
@@ -3172,42 +3617,54 @@
       <c r="D34" t="s">
         <v>18</v>
       </c>
-      <c r="E34" t="e">
+      <c r="E34">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F34" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H34" t="s">
         <v>11</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>12</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>13</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>91</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>33215</v>
+      </c>
+      <c r="N34" t="s">
         <v>123</v>
       </c>
-      <c r="L34" t="s">
+      <c r="O34" t="s">
         <v>15</v>
       </c>
-      <c r="M34" t="s">
+      <c r="P34" t="str">
+        <f t="shared" si="6"/>
+        <v>The Phantom Menace</v>
+      </c>
+      <c r="Q34" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>124</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.96</v>
       </c>
       <c r="C35">
@@ -3221,37 +3678,49 @@
         <v>17.180341524364849</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
-        <v>-16.149724155470459</v>
-      </c>
-      <c r="G35" t="s">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H35" t="s">
         <v>29</v>
-      </c>
-      <c r="H35" t="s">
-        <v>69</v>
       </c>
       <c r="I35" t="s">
         <v>69</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35">
         <v>52</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>18980</v>
+      </c>
+      <c r="N35" t="s">
         <v>26</v>
       </c>
-      <c r="L35" t="s">
+      <c r="O35" t="s">
         <v>125</v>
       </c>
-      <c r="M35" t="s">
+      <c r="P35" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q35" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>127</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2400000000000002</v>
       </c>
       <c r="C36">
@@ -3265,37 +3734,49 @@
         <v>16.342474489795915</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>-16.987591190039392</v>
-      </c>
-      <c r="G36" t="s">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H36" t="s">
         <v>29</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>82</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>69</v>
       </c>
-      <c r="J36" t="s">
-        <v>18</v>
-      </c>
       <c r="K36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
         <v>26</v>
       </c>
-      <c r="L36" t="s">
+      <c r="O36" t="s">
         <v>125</v>
       </c>
-      <c r="M36" t="s">
+      <c r="P36" t="str">
+        <f t="shared" si="6"/>
+        <v>The Phantom Menace</v>
+      </c>
+      <c r="Q36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>128</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.06</v>
       </c>
       <c r="C37">
@@ -3304,42 +3785,54 @@
       <c r="D37" t="s">
         <v>18</v>
       </c>
-      <c r="E37" t="e">
+      <c r="E37">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F37" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H37" t="s">
         <v>29</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>64</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>69</v>
       </c>
-      <c r="J37" t="s">
-        <v>18</v>
-      </c>
       <c r="K37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
         <v>26</v>
       </c>
-      <c r="L37" t="s">
+      <c r="O37" t="s">
         <v>125</v>
       </c>
-      <c r="M37" t="s">
+      <c r="P37" t="str">
+        <f t="shared" si="6"/>
+        <v>The Phantom Menace</v>
+      </c>
+      <c r="Q37" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>129</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.83</v>
       </c>
       <c r="C38">
@@ -3348,42 +3841,54 @@
       <c r="D38" t="s">
         <v>18</v>
       </c>
-      <c r="E38" t="e">
+      <c r="E38">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F38" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H38" t="s">
         <v>33</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>12</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>13</v>
       </c>
-      <c r="J38" t="s">
-        <v>18</v>
-      </c>
       <c r="K38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
         <v>26</v>
       </c>
-      <c r="L38" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" t="s">
+      <c r="O38" t="s">
+        <v>18</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="6"/>
+        <v>The Phantom Menace</v>
+      </c>
+      <c r="Q38" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>130</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.37</v>
       </c>
       <c r="C39">
@@ -3392,42 +3897,54 @@
       <c r="D39" t="s">
         <v>18</v>
       </c>
-      <c r="E39" t="e">
+      <c r="E39">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F39" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H39" t="s">
         <v>45</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>131</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>20</v>
       </c>
-      <c r="J39" t="s">
-        <v>18</v>
-      </c>
       <c r="K39" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
         <v>132</v>
       </c>
-      <c r="L39" t="s">
+      <c r="O39" t="s">
         <v>133</v>
       </c>
-      <c r="M39" t="s">
+      <c r="P39" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q39" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>135</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="C40">
@@ -3441,37 +3958,49 @@
         <v>31.887755102040813</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
-        <v>-1.442310577794494</v>
-      </c>
-      <c r="G40" t="s">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H40" t="s">
         <v>29</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>136</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>69</v>
       </c>
-      <c r="J40" t="s">
-        <v>18</v>
-      </c>
       <c r="K40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
         <v>137</v>
       </c>
-      <c r="L40" t="s">
+      <c r="O40" t="s">
         <v>138</v>
       </c>
-      <c r="M40" t="s">
+      <c r="P40" t="str">
+        <f t="shared" si="6"/>
+        <v>The Phantom Menace</v>
+      </c>
+      <c r="Q40" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>139</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.83</v>
       </c>
       <c r="C41">
@@ -3480,42 +4009,54 @@
       <c r="D41" t="s">
         <v>18</v>
       </c>
-      <c r="E41" t="e">
+      <c r="E41">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F41" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H41" t="s">
         <v>45</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>95</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>33</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>62</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41">
+        <f t="shared" si="5"/>
+        <v>22630</v>
+      </c>
+      <c r="N41" t="s">
         <v>26</v>
       </c>
-      <c r="L41" t="s">
-        <v>18</v>
-      </c>
-      <c r="M41" t="s">
+      <c r="O41" t="s">
+        <v>18</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="6"/>
+        <v>The Phantom Menace</v>
+      </c>
+      <c r="Q41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>140</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.63</v>
       </c>
       <c r="C42">
@@ -3524,42 +4065,54 @@
       <c r="D42" t="s">
         <v>18</v>
       </c>
-      <c r="E42" t="e">
+      <c r="E42">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F42" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H42" t="s">
         <v>45</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>12</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>33</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>72</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42">
+        <f t="shared" si="5"/>
+        <v>26280</v>
+      </c>
+      <c r="N42" t="s">
         <v>14</v>
       </c>
-      <c r="L42" t="s">
+      <c r="O42" t="s">
         <v>15</v>
       </c>
-      <c r="M42" t="s">
+      <c r="P42" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q42" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>141</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
       <c r="C43">
@@ -3573,37 +4126,49 @@
         <v>26.122448979591837</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
-        <v>-7.2076167002434701</v>
-      </c>
-      <c r="G43" t="s">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H43" t="s">
         <v>29</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>25</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>20</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>54</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43">
+        <f t="shared" si="5"/>
+        <v>19710</v>
+      </c>
+      <c r="N43" t="s">
         <v>142</v>
       </c>
-      <c r="L43" t="s">
+      <c r="O43" t="s">
         <v>143</v>
       </c>
-      <c r="M43" t="s">
+      <c r="P43" t="str">
+        <f t="shared" si="6"/>
+        <v>The Phantom Menace</v>
+      </c>
+      <c r="Q43" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>144</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
       <c r="C44">
@@ -3612,42 +4177,54 @@
       <c r="D44" t="s">
         <v>18</v>
       </c>
-      <c r="E44" t="e">
+      <c r="E44">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F44" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H44" t="s">
         <v>29</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>83</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>145</v>
       </c>
-      <c r="J44" t="s">
-        <v>18</v>
-      </c>
       <c r="K44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
         <v>146</v>
       </c>
-      <c r="L44" t="s">
+      <c r="O44" t="s">
         <v>147</v>
       </c>
-      <c r="M44" t="s">
+      <c r="P44" t="str">
+        <f t="shared" si="6"/>
+        <v>Return of the Jedi</v>
+      </c>
+      <c r="Q44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>148</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.78</v>
       </c>
       <c r="C45">
@@ -3661,37 +4238,49 @@
         <v>17.35891932836763</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
-        <v>-15.971146351467677</v>
-      </c>
-      <c r="G45" t="s">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H45" t="s">
         <v>29</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>13</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>74</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>48</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45">
+        <f t="shared" si="5"/>
+        <v>17520</v>
+      </c>
+      <c r="N45" t="s">
         <v>146</v>
       </c>
-      <c r="L45" t="s">
+      <c r="O45" t="s">
         <v>147</v>
       </c>
-      <c r="M45" t="s">
+      <c r="P45" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q45" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>150</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94</v>
       </c>
       <c r="C46">
@@ -3705,37 +4294,49 @@
         <v>50.928021729289277</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
-        <v>17.59795604945397</v>
-      </c>
-      <c r="G46" t="s">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="4"/>
+        <v>Heavier</v>
+      </c>
+      <c r="H46" t="s">
         <v>29</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>131</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>20</v>
       </c>
-      <c r="J46" t="s">
-        <v>18</v>
-      </c>
       <c r="K46" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
         <v>151</v>
       </c>
-      <c r="L46" t="s">
+      <c r="O46" t="s">
         <v>152</v>
       </c>
-      <c r="M46" t="s">
+      <c r="P46" t="str">
+        <f t="shared" si="6"/>
+        <v>The Phantom Menace</v>
+      </c>
+      <c r="Q46" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>153</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.22</v>
       </c>
       <c r="C47">
@@ -3744,42 +4345,54 @@
       <c r="D47" t="s">
         <v>18</v>
       </c>
-      <c r="E47" t="e">
+      <c r="E47">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F47" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G47" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H47" t="s">
         <v>29</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>24</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>45</v>
       </c>
-      <c r="J47" t="s">
-        <v>18</v>
-      </c>
       <c r="K47" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
         <v>154</v>
       </c>
-      <c r="L47" t="s">
+      <c r="O47" t="s">
         <v>155</v>
       </c>
-      <c r="M47" t="s">
+      <c r="P47" t="str">
+        <f t="shared" si="6"/>
+        <v>The Phantom Menace</v>
+      </c>
+      <c r="Q47" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>156</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.63</v>
       </c>
       <c r="C48">
@@ -3793,37 +4406,49 @@
         <v>24.464601603372351</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
-        <v>-8.8654640764629562</v>
-      </c>
-      <c r="G48" t="s">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H48" t="s">
         <v>29</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>157</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>69</v>
       </c>
-      <c r="J48" t="s">
-        <v>18</v>
-      </c>
       <c r="K48" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
         <v>158</v>
       </c>
-      <c r="L48" t="s">
+      <c r="O48" t="s">
         <v>159</v>
       </c>
-      <c r="M48" t="s">
+      <c r="P48" t="str">
+        <f t="shared" si="6"/>
+        <v>The Phantom Menace</v>
+      </c>
+      <c r="Q48" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>160</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.88</v>
       </c>
       <c r="C49">
@@ -3837,37 +4462,49 @@
         <v>23.766410140334994</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
-        <v>-9.5636555395003136</v>
-      </c>
-      <c r="G49" t="s">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H49" t="s">
         <v>29</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>95</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>33</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>72</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49">
+        <f t="shared" si="5"/>
+        <v>26280</v>
+      </c>
+      <c r="N49" t="s">
         <v>161</v>
       </c>
-      <c r="L49" t="s">
+      <c r="O49" t="s">
         <v>15</v>
       </c>
-      <c r="M49" t="s">
+      <c r="P49" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q49" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>162</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.98</v>
       </c>
       <c r="C50">
@@ -3881,37 +4518,49 @@
         <v>20.91623303744516</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
-        <v>-12.413832642390147</v>
-      </c>
-      <c r="G50" t="s">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H50" t="s">
         <v>30</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>83</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>20</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>92</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50">
+        <f t="shared" si="5"/>
+        <v>33580</v>
+      </c>
+      <c r="N50" t="s">
         <v>163</v>
       </c>
-      <c r="L50" t="s">
+      <c r="O50" t="s">
         <v>164</v>
       </c>
-      <c r="M50" t="s">
+      <c r="P50" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>165</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.96</v>
       </c>
       <c r="C51">
@@ -3925,37 +4574,49 @@
         <v>22.646813827571847</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
-        <v>-10.68325185226346</v>
-      </c>
-      <c r="G51" t="s">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H51" t="s">
         <v>29</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>64</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>45</v>
       </c>
-      <c r="J51" t="s">
-        <v>18</v>
-      </c>
       <c r="K51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
         <v>166</v>
       </c>
-      <c r="L51" t="s">
+      <c r="O51" t="s">
         <v>167</v>
       </c>
-      <c r="M51" t="s">
+      <c r="P51" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>168</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.71</v>
       </c>
       <c r="C52">
@@ -3964,42 +4625,54 @@
       <c r="D52" t="s">
         <v>18</v>
       </c>
-      <c r="E52" t="e">
+      <c r="E52">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F52" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H52" t="s">
         <v>45</v>
-      </c>
-      <c r="H52" t="s">
-        <v>33</v>
       </c>
       <c r="I52" t="s">
         <v>33</v>
       </c>
       <c r="J52" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="K52" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
         <v>169</v>
       </c>
-      <c r="L52" t="s">
+      <c r="O52" t="s">
         <v>143</v>
       </c>
-      <c r="M52" t="s">
+      <c r="P52" t="str">
+        <f t="shared" si="6"/>
+        <v>The Phantom Menace</v>
+      </c>
+      <c r="Q52" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>171</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.84</v>
       </c>
       <c r="C53">
@@ -4013,37 +4686,49 @@
         <v>14.768431001890358</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
-        <v>-18.561634677944951</v>
-      </c>
-      <c r="G53" t="s">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H53" t="s">
         <v>29</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>95</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>13</v>
       </c>
-      <c r="J53" t="s">
-        <v>18</v>
-      </c>
       <c r="K53" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
         <v>123</v>
       </c>
-      <c r="L53" t="s">
+      <c r="O53" t="s">
         <v>172</v>
       </c>
-      <c r="M53" t="s">
+      <c r="P53" t="str">
+        <f t="shared" si="6"/>
+        <v>The Phantom Menace</v>
+      </c>
+      <c r="Q53" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>173</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.88</v>
       </c>
       <c r="C54">
@@ -4052,42 +4737,54 @@
       <c r="D54" t="s">
         <v>18</v>
       </c>
-      <c r="E54" t="e">
+      <c r="E54">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F54" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G54" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H54" t="s">
         <v>29</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>83</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>69</v>
       </c>
-      <c r="J54" t="s">
-        <v>18</v>
-      </c>
       <c r="K54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
         <v>174</v>
       </c>
-      <c r="L54" t="s">
+      <c r="O54" t="s">
         <v>175</v>
       </c>
-      <c r="M54" t="s">
+      <c r="P54" t="str">
+        <f t="shared" si="6"/>
+        <v>The Phantom Menace</v>
+      </c>
+      <c r="Q54" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>176</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.64</v>
       </c>
       <c r="C55">
@@ -4096,42 +4793,54 @@
       <c r="D55" t="s">
         <v>18</v>
       </c>
-      <c r="E55" t="e">
+      <c r="E55">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F55" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H55" t="s">
         <v>29</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>30</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>20</v>
       </c>
-      <c r="J55" t="s">
-        <v>18</v>
-      </c>
       <c r="K55" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
         <v>177</v>
       </c>
-      <c r="L55" t="s">
+      <c r="O55" t="s">
         <v>178</v>
       </c>
-      <c r="M55" t="s">
+      <c r="P55" t="str">
+        <f t="shared" si="6"/>
+        <v>The Phantom Menace</v>
+      </c>
+      <c r="Q55" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>179</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.88</v>
       </c>
       <c r="C56">
@@ -4145,37 +4854,49 @@
         <v>22.634676324128566</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
-        <v>-10.695389355706741</v>
-      </c>
-      <c r="G56" t="s">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H56" t="s">
         <v>29</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>69</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>45</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>22</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56">
+        <f t="shared" si="5"/>
+        <v>8030</v>
+      </c>
+      <c r="N56" t="s">
         <v>180</v>
       </c>
-      <c r="L56" t="s">
+      <c r="O56" t="s">
         <v>181</v>
       </c>
-      <c r="M56" t="s">
+      <c r="P56" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q56" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>182</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.96</v>
       </c>
       <c r="C57">
@@ -4184,42 +4905,54 @@
       <c r="D57" t="s">
         <v>18</v>
       </c>
-      <c r="E57" t="e">
+      <c r="E57">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F57" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G57" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H57" t="s">
         <v>29</v>
-      </c>
-      <c r="H57" t="s">
-        <v>13</v>
       </c>
       <c r="I57" t="s">
         <v>13</v>
       </c>
       <c r="J57" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K57" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
         <v>183</v>
       </c>
-      <c r="L57" t="s">
+      <c r="O57" t="s">
         <v>184</v>
       </c>
-      <c r="M57" t="s">
+      <c r="P57" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q57" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>185</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.85</v>
       </c>
       <c r="C58">
@@ -4233,37 +4966,49 @@
         <v>24.835646457268076</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
-        <v>-8.494419222567231</v>
-      </c>
-      <c r="G58" t="s">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H58" t="s">
         <v>45</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>95</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>33</v>
       </c>
-      <c r="J58" t="s">
-        <v>18</v>
-      </c>
       <c r="K58" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
         <v>26</v>
       </c>
-      <c r="L58" t="s">
+      <c r="O58" t="s">
         <v>15</v>
       </c>
-      <c r="M58" t="s">
+      <c r="P58" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q58" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>187</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.57</v>
       </c>
       <c r="C59">
@@ -4272,42 +5017,54 @@
       <c r="D59" t="s">
         <v>18</v>
       </c>
-      <c r="E59" t="e">
+      <c r="E59">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F59" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G59" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H59" t="s">
         <v>33</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>34</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>33</v>
       </c>
-      <c r="J59" t="s">
-        <v>18</v>
-      </c>
       <c r="K59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
         <v>26</v>
       </c>
-      <c r="L59" t="s">
+      <c r="O59" t="s">
         <v>15</v>
       </c>
-      <c r="M59" t="s">
+      <c r="P59" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q59" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>188</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.83</v>
       </c>
       <c r="C60">
@@ -4316,42 +5073,54 @@
       <c r="D60" t="s">
         <v>18</v>
       </c>
-      <c r="E60" t="e">
+      <c r="E60">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H60" t="s">
         <v>33</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>12</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>13</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>82</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60">
+        <f t="shared" si="5"/>
+        <v>29930</v>
+      </c>
+      <c r="N60" t="s">
         <v>14</v>
       </c>
-      <c r="L60" t="s">
+      <c r="O60" t="s">
         <v>15</v>
       </c>
-      <c r="M60" t="s">
+      <c r="P60" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q60" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>189</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.83</v>
       </c>
       <c r="C61">
@@ -4365,37 +5134,49 @@
         <v>23.888440980620498</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
-        <v>-9.4416246992148096</v>
-      </c>
-      <c r="G61" t="s">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H61" t="s">
         <v>29</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>64</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>20</v>
       </c>
-      <c r="J61" t="s">
-        <v>18</v>
-      </c>
       <c r="K61" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
         <v>190</v>
       </c>
-      <c r="L61" t="s">
+      <c r="O61" t="s">
         <v>191</v>
       </c>
-      <c r="M61" t="s">
+      <c r="P61" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q61" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>193</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
       <c r="C62">
@@ -4409,37 +5190,49 @@
         <v>19.446366782006923</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
-        <v>-13.883698897828385</v>
-      </c>
-      <c r="G62" t="s">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H62" t="s">
         <v>45</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>20</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>13</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>58</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62">
+        <f t="shared" si="5"/>
+        <v>21170</v>
+      </c>
+      <c r="N62" t="s">
         <v>194</v>
       </c>
-      <c r="L62" t="s">
+      <c r="O62" t="s">
         <v>195</v>
       </c>
-      <c r="M62" t="s">
+      <c r="P62" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q62" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>196</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.66</v>
       </c>
       <c r="C63">
@@ -4453,37 +5246,49 @@
         <v>18.144868631151112</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
-        <v>-15.185197048684195</v>
-      </c>
-      <c r="G63" t="s">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H63" t="s">
         <v>45</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>20</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>13</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>40</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63">
+        <f t="shared" si="5"/>
+        <v>14600</v>
+      </c>
+      <c r="N63" t="s">
         <v>194</v>
       </c>
-      <c r="L63" t="s">
+      <c r="O63" t="s">
         <v>195</v>
       </c>
-      <c r="M63" t="s">
+      <c r="P63" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q63" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>197</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.65</v>
       </c>
       <c r="C64">
@@ -4492,42 +5297,54 @@
       <c r="D64" t="s">
         <v>18</v>
       </c>
-      <c r="E64" t="e">
+      <c r="E64">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F64" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G64" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H64" t="s">
         <v>33</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>34</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>33</v>
       </c>
-      <c r="J64" t="s">
-        <v>18</v>
-      </c>
       <c r="K64" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
         <v>26</v>
       </c>
-      <c r="L64" t="s">
+      <c r="O64" t="s">
         <v>15</v>
       </c>
-      <c r="M64" t="s">
+      <c r="P64" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q64" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>198</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.93</v>
       </c>
       <c r="C65">
@@ -4541,37 +5358,49 @@
         <v>21.477086633198208</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
-        <v>-11.852979046637099</v>
-      </c>
-      <c r="G65" t="s">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H65" t="s">
         <v>30</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>12</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>33</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>102</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65">
+        <f t="shared" si="5"/>
+        <v>37230</v>
+      </c>
+      <c r="N65" t="s">
         <v>199</v>
       </c>
-      <c r="L65" t="s">
+      <c r="O65" t="s">
         <v>15</v>
       </c>
-      <c r="M65" t="s">
+      <c r="P65" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q65" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>200</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.91</v>
       </c>
       <c r="C66">
@@ -4580,42 +5409,54 @@
       <c r="D66" t="s">
         <v>18</v>
       </c>
-      <c r="E66" t="e">
+      <c r="E66">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F66" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G66" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="4"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H66" t="s">
         <v>45</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>201</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>33</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>67</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66">
+        <f t="shared" si="5"/>
+        <v>24455</v>
+      </c>
+      <c r="N66" t="s">
         <v>35</v>
       </c>
-      <c r="L66" t="s">
+      <c r="O66" t="s">
         <v>15</v>
       </c>
-      <c r="M66" t="s">
+      <c r="P66" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q66" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>202</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B88" si="3">C67/100</f>
+        <f t="shared" ref="B67:B88" si="7">C67/100</f>
         <v>1.83</v>
       </c>
       <c r="C67">
@@ -4625,41 +5466,53 @@
         <v>79</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E67:E88" si="8">IF(OR(C67="NA",D67="NA"),0, D67/B67^2)</f>
         <v>23.589835468362743</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F88" si="4">E67-$E$5</f>
-        <v>-9.7402302114725643</v>
-      </c>
-      <c r="G67" t="s">
+        <f t="shared" ref="F67:F88" si="9">RANK(E67,$E$2:$E$88)</f>
+        <v>37</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G88" si="10">IFERROR(IF($E$5&gt;E67, "Lighter", "Heavier"), "Missing Data")</f>
+        <v>Lighter</v>
+      </c>
+      <c r="H67" t="s">
         <v>45</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>201</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>33</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>66</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67">
+        <f t="shared" ref="L67:L88" si="11">IF(K67="NA", 0, K67*365)</f>
+        <v>24090</v>
+      </c>
+      <c r="N67" t="s">
         <v>203</v>
       </c>
-      <c r="L67" t="s">
+      <c r="O67" t="s">
         <v>15</v>
       </c>
-      <c r="M67" t="s">
+      <c r="P67" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q67" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>204</v>
       </c>
       <c r="B68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.68</v>
       </c>
       <c r="C68">
@@ -4669,41 +5522,53 @@
         <v>55</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E88" si="5">D68/B68^2</f>
+        <f t="shared" si="8"/>
         <v>19.486961451247168</v>
       </c>
       <c r="F68">
-        <f t="shared" si="4"/>
-        <v>-13.843104228588139</v>
-      </c>
-      <c r="G68" t="s">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H68" t="s">
         <v>205</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>206</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>20</v>
       </c>
-      <c r="J68" t="s">
-        <v>18</v>
-      </c>
       <c r="K68" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
         <v>207</v>
       </c>
-      <c r="L68" t="s">
+      <c r="O68" t="s">
         <v>208</v>
       </c>
-      <c r="M68" t="s">
+      <c r="P68" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q68" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>209</v>
       </c>
       <c r="B69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.98</v>
       </c>
       <c r="C69">
@@ -4713,41 +5578,53 @@
         <v>102</v>
       </c>
       <c r="E69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>26.017753290480563</v>
       </c>
       <c r="F69">
-        <f t="shared" si="4"/>
-        <v>-7.3123123893547444</v>
-      </c>
-      <c r="G69" t="s">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H69" t="s">
         <v>29</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>33</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>20</v>
       </c>
-      <c r="J69" t="s">
-        <v>18</v>
-      </c>
       <c r="K69" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
         <v>210</v>
       </c>
-      <c r="L69" t="s">
+      <c r="O69" t="s">
         <v>211</v>
       </c>
-      <c r="M69" t="s">
+      <c r="P69" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q69" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>212</v>
       </c>
       <c r="B70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.29</v>
       </c>
       <c r="C70">
@@ -4757,41 +5634,53 @@
         <v>88</v>
       </c>
       <c r="E70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>16.780763143342039</v>
       </c>
       <c r="F70">
-        <f t="shared" si="4"/>
-        <v>-16.549302536493268</v>
-      </c>
-      <c r="G70" t="s">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H70" t="s">
         <v>29</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>82</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>45</v>
       </c>
-      <c r="J70" t="s">
-        <v>18</v>
-      </c>
       <c r="K70" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
         <v>86</v>
       </c>
-      <c r="L70" t="s">
+      <c r="O70" t="s">
         <v>213</v>
       </c>
-      <c r="M70" t="s">
+      <c r="P70" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q70" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>214</v>
       </c>
       <c r="B71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.13</v>
       </c>
       <c r="C71">
@@ -4800,42 +5689,54 @@
       <c r="D71" t="s">
         <v>18</v>
       </c>
-      <c r="E71" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F71" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="E71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H71" t="s">
         <v>29</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>82</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>45</v>
       </c>
-      <c r="J71" t="s">
-        <v>18</v>
-      </c>
       <c r="K71" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
         <v>86</v>
       </c>
-      <c r="L71" t="s">
+      <c r="O71" t="s">
         <v>213</v>
       </c>
-      <c r="M71" t="s">
+      <c r="P71" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q71" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>215</v>
       </c>
       <c r="B72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.67</v>
       </c>
       <c r="C72">
@@ -4844,42 +5745,54 @@
       <c r="D72" t="s">
         <v>18</v>
       </c>
-      <c r="E72" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F72" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="E72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H72" t="s">
         <v>30</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>12</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>13</v>
       </c>
-      <c r="J72" t="s">
-        <v>18</v>
-      </c>
       <c r="K72" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
         <v>123</v>
       </c>
-      <c r="L72" t="s">
+      <c r="O72" t="s">
         <v>15</v>
       </c>
-      <c r="M72" t="s">
+      <c r="P72" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q72" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>216</v>
       </c>
       <c r="B73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.79</v>
       </c>
       <c r="C73">
@@ -4889,41 +5802,53 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>24.034609838166958</v>
       </c>
       <c r="F73">
-        <f t="shared" si="4"/>
-        <v>-9.2954558416683497</v>
-      </c>
-      <c r="G73" t="s">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H73" t="s">
         <v>29</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>217</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>57</v>
       </c>
-      <c r="J73" t="s">
-        <v>18</v>
-      </c>
       <c r="K73" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
         <v>218</v>
       </c>
-      <c r="L73" t="s">
+      <c r="O73" t="s">
         <v>219</v>
       </c>
-      <c r="M73" t="s">
+      <c r="P73" t="str">
+        <f t="shared" si="6"/>
+        <v>The Phantom Menace</v>
+      </c>
+      <c r="Q73" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>220</v>
       </c>
       <c r="B74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.96</v>
       </c>
       <c r="C74">
@@ -4932,42 +5857,54 @@
       <c r="D74" t="s">
         <v>18</v>
       </c>
-      <c r="E74" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F74" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="E74">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H74" t="s">
         <v>29</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>221</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>222</v>
       </c>
-      <c r="J74" t="s">
-        <v>18</v>
-      </c>
       <c r="K74" t="s">
         <v>18</v>
       </c>
-      <c r="L74" t="s">
-        <v>18</v>
-      </c>
-      <c r="M74" t="s">
+      <c r="L74">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>18</v>
+      </c>
+      <c r="O74" t="s">
+        <v>18</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q74" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>223</v>
       </c>
       <c r="B75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.93</v>
       </c>
       <c r="C75">
@@ -4977,41 +5914,53 @@
         <v>48</v>
       </c>
       <c r="E75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12.886251979918924</v>
       </c>
       <c r="F75">
-        <f t="shared" si="4"/>
-        <v>-20.443813699916383</v>
-      </c>
-      <c r="G75" t="s">
+        <f t="shared" si="9"/>
+        <v>59</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H75" t="s">
         <v>29</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>224</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>57</v>
       </c>
-      <c r="J75" t="s">
-        <v>18</v>
-      </c>
       <c r="K75" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
         <v>225</v>
       </c>
-      <c r="L75" t="s">
+      <c r="O75" t="s">
         <v>226</v>
       </c>
-      <c r="M75" t="s">
+      <c r="P75" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q75" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>227</v>
       </c>
       <c r="B76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.91</v>
       </c>
       <c r="C76">
@@ -5020,42 +5969,54 @@
       <c r="D76" t="s">
         <v>18</v>
       </c>
-      <c r="E76" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F76" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="E76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H76" t="s">
         <v>29</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>82</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>19</v>
       </c>
-      <c r="J76" t="s">
-        <v>18</v>
-      </c>
       <c r="K76" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
         <v>228</v>
       </c>
-      <c r="L76" t="s">
+      <c r="O76" t="s">
         <v>229</v>
       </c>
-      <c r="M76" t="s">
+      <c r="P76" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q76" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>230</v>
       </c>
       <c r="B77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.78</v>
       </c>
       <c r="C77">
@@ -5065,41 +6026,53 @@
         <v>57</v>
       </c>
       <c r="E77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17.99015275849009</v>
       </c>
       <c r="F77">
-        <f t="shared" si="4"/>
-        <v>-15.339912921345217</v>
-      </c>
-      <c r="G77" t="s">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H77" t="s">
         <v>29</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>231</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>45</v>
       </c>
-      <c r="J77" t="s">
-        <v>18</v>
-      </c>
       <c r="K77" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
         <v>232</v>
       </c>
-      <c r="L77" t="s">
+      <c r="O77" t="s">
         <v>233</v>
       </c>
-      <c r="M77" t="s">
+      <c r="P77" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q77" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>234</v>
       </c>
       <c r="B78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.16</v>
       </c>
       <c r="C78">
@@ -5109,41 +6082,53 @@
         <v>159</v>
       </c>
       <c r="E78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>34.079218106995881</v>
       </c>
       <c r="F78">
-        <f t="shared" si="4"/>
-        <v>0.74915242716057406</v>
-      </c>
-      <c r="G78" t="s">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="10"/>
+        <v>Heavier</v>
+      </c>
+      <c r="H78" t="s">
         <v>29</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>235</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>236</v>
       </c>
-      <c r="J78" t="s">
-        <v>18</v>
-      </c>
       <c r="K78" t="s">
+        <v>18</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
         <v>237</v>
       </c>
-      <c r="L78" t="s">
+      <c r="O78" t="s">
         <v>238</v>
       </c>
-      <c r="M78" t="s">
+      <c r="P78" t="str">
+        <f t="shared" si="6"/>
+        <v>Revenge of the Sith</v>
+      </c>
+      <c r="Q78" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>240</v>
       </c>
       <c r="B79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.34</v>
       </c>
       <c r="C79">
@@ -5153,41 +6138,53 @@
         <v>136</v>
       </c>
       <c r="E79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>24.837460734896638</v>
       </c>
       <c r="F79">
-        <f t="shared" si="4"/>
-        <v>-8.4926049449386696</v>
-      </c>
-      <c r="G79" t="s">
-        <v>33</v>
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
       </c>
       <c r="H79" t="s">
         <v>33</v>
       </c>
       <c r="I79" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" t="s">
         <v>13</v>
       </c>
-      <c r="J79" t="s">
-        <v>18</v>
-      </c>
       <c r="K79" t="s">
+        <v>18</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
         <v>58</v>
       </c>
-      <c r="L79" t="s">
+      <c r="O79" t="s">
         <v>59</v>
       </c>
-      <c r="M79" t="s">
+      <c r="P79" t="str">
+        <f t="shared" si="6"/>
+        <v>Revenge of the Sith</v>
+      </c>
+      <c r="Q79" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>241</v>
       </c>
       <c r="B80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.88</v>
       </c>
       <c r="C80">
@@ -5197,41 +6194,53 @@
         <v>79</v>
       </c>
       <c r="E80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>22.351742870076958</v>
       </c>
       <c r="F80">
-        <f t="shared" si="4"/>
-        <v>-10.97832280975835</v>
-      </c>
-      <c r="G80" t="s">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H80" t="s">
         <v>33</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>34</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>33</v>
       </c>
-      <c r="J80" t="s">
-        <v>18</v>
-      </c>
       <c r="K80" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
         <v>35</v>
       </c>
-      <c r="L80" t="s">
+      <c r="O80" t="s">
         <v>15</v>
       </c>
-      <c r="M80" t="s">
+      <c r="P80" t="str">
+        <f t="shared" si="6"/>
+        <v>Revenge of the Sith</v>
+      </c>
+      <c r="Q80" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>242</v>
       </c>
       <c r="B81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.78</v>
       </c>
       <c r="C81">
@@ -5241,41 +6250,53 @@
         <v>48</v>
       </c>
       <c r="E81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15.149602322939023</v>
       </c>
       <c r="F81">
-        <f t="shared" si="4"/>
-        <v>-18.180463356896283</v>
-      </c>
-      <c r="G81" t="s">
+        <f t="shared" si="9"/>
+        <v>57</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H81" t="s">
         <v>29</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>83</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>30</v>
       </c>
-      <c r="J81" t="s">
-        <v>18</v>
-      </c>
       <c r="K81" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
         <v>243</v>
       </c>
-      <c r="L81" t="s">
-        <v>18</v>
-      </c>
-      <c r="M81" t="s">
+      <c r="O81" t="s">
+        <v>18</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="6"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q81" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>244</v>
       </c>
       <c r="B82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.06</v>
       </c>
       <c r="C82">
@@ -5285,41 +6306,53 @@
         <v>80</v>
       </c>
       <c r="E82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>18.851918182675089</v>
       </c>
       <c r="F82">
-        <f t="shared" si="4"/>
-        <v>-14.478147497160219</v>
-      </c>
-      <c r="G82" t="s">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H82" t="s">
         <v>29</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>82</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>45</v>
       </c>
-      <c r="J82" t="s">
-        <v>18</v>
-      </c>
       <c r="K82" t="s">
+        <v>18</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
         <v>245</v>
       </c>
-      <c r="L82" t="s">
+      <c r="O82" t="s">
         <v>246</v>
       </c>
-      <c r="M82" t="s">
+      <c r="P82" t="str">
+        <f t="shared" si="6"/>
+        <v>Revenge of the Sith</v>
+      </c>
+      <c r="Q82" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>247</v>
       </c>
       <c r="B83" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="C83" t="s">
@@ -5328,42 +6361,54 @@
       <c r="D83" t="s">
         <v>18</v>
       </c>
-      <c r="E83" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F83" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="E83">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H83" t="s">
         <v>45</v>
-      </c>
-      <c r="H83" t="s">
-        <v>95</v>
       </c>
       <c r="I83" t="s">
         <v>95</v>
       </c>
       <c r="J83" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="K83" t="s">
         <v>18</v>
       </c>
-      <c r="L83" t="s">
+      <c r="L83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>18</v>
+      </c>
+      <c r="O83" t="s">
         <v>15</v>
       </c>
-      <c r="M83" t="s">
+      <c r="P83" t="str">
+        <f t="shared" si="6"/>
+        <v>The Force Awakens</v>
+      </c>
+      <c r="Q83" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>249</v>
       </c>
       <c r="B84" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="C84" t="s">
@@ -5372,42 +6417,54 @@
       <c r="D84" t="s">
         <v>18</v>
       </c>
-      <c r="E84" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F84" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="E84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H84" t="s">
         <v>33</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>34</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>74</v>
       </c>
-      <c r="J84" t="s">
-        <v>18</v>
-      </c>
       <c r="K84" t="s">
         <v>18</v>
       </c>
-      <c r="L84" t="s">
+      <c r="L84">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
+        <v>18</v>
+      </c>
+      <c r="O84" t="s">
         <v>15</v>
       </c>
-      <c r="M84" t="s">
+      <c r="P84" t="str">
+        <f t="shared" si="6"/>
+        <v>The Force Awakens</v>
+      </c>
+      <c r="Q84" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>250</v>
       </c>
       <c r="B85" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="C85" t="s">
@@ -5416,42 +6473,54 @@
       <c r="D85" t="s">
         <v>18</v>
       </c>
-      <c r="E85" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F85" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="E85">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H85" t="s">
         <v>33</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>34</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>33</v>
       </c>
-      <c r="J85" t="s">
-        <v>18</v>
-      </c>
       <c r="K85" t="s">
         <v>18</v>
       </c>
-      <c r="L85" t="s">
+      <c r="L85">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
+        <v>18</v>
+      </c>
+      <c r="O85" t="s">
         <v>15</v>
       </c>
-      <c r="M85" t="s">
+      <c r="P85" t="str">
+        <f t="shared" si="6"/>
+        <v>The Force Awakens</v>
+      </c>
+      <c r="Q85" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>251</v>
       </c>
       <c r="B86" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="C86" t="s">
@@ -5460,42 +6529,54 @@
       <c r="D86" t="s">
         <v>18</v>
       </c>
-      <c r="E86" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F86" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G86" t="s">
-        <v>29</v>
+      <c r="E86">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
       </c>
       <c r="H86" t="s">
         <v>29</v>
       </c>
       <c r="I86" t="s">
+        <v>29</v>
+      </c>
+      <c r="J86" t="s">
         <v>45</v>
       </c>
-      <c r="J86" t="s">
-        <v>18</v>
-      </c>
       <c r="K86" t="s">
         <v>18</v>
       </c>
-      <c r="L86" t="s">
+      <c r="L86">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
+        <v>18</v>
+      </c>
+      <c r="O86" t="s">
         <v>21</v>
       </c>
-      <c r="M86" t="s">
+      <c r="P86" t="str">
+        <f t="shared" ref="P86:P88" si="12">TRIM(IFERROR(LEFT(Q86,(FIND(",",Q86))-1), Q86))</f>
+        <v>The Force Awakens</v>
+      </c>
+      <c r="Q86" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>252</v>
       </c>
       <c r="B87" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="C87" t="s">
@@ -5504,16 +6585,17 @@
       <c r="D87" t="s">
         <v>18</v>
       </c>
-      <c r="E87" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F87" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G87" t="s">
-        <v>57</v>
+      <c r="E87">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
       </c>
       <c r="H87" t="s">
         <v>57</v>
@@ -5522,24 +6604,35 @@
         <v>57</v>
       </c>
       <c r="J87" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="K87" t="s">
         <v>18</v>
       </c>
-      <c r="L87" t="s">
-        <v>18</v>
-      </c>
-      <c r="M87" t="s">
+      <c r="L87">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
+        <v>18</v>
+      </c>
+      <c r="O87" t="s">
+        <v>18</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="12"/>
+        <v>The Force Awakens</v>
+      </c>
+      <c r="Q87" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>253</v>
       </c>
       <c r="B88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.65</v>
       </c>
       <c r="C88">
@@ -5549,33 +6642,71 @@
         <v>45</v>
       </c>
       <c r="E88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>16.528925619834713</v>
       </c>
       <c r="F88">
-        <f t="shared" si="4"/>
-        <v>-16.801140060000595</v>
-      </c>
-      <c r="G88" t="s">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="10"/>
+        <v>Lighter</v>
+      </c>
+      <c r="H88" t="s">
         <v>33</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>34</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>33</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>46</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88">
+        <v>16790</v>
+      </c>
+      <c r="N88" t="s">
         <v>26</v>
       </c>
-      <c r="L88" t="s">
+      <c r="O88" t="s">
         <v>15</v>
       </c>
-      <c r="M88" t="s">
+      <c r="P88" t="str">
+        <f t="shared" si="12"/>
+        <v>Attack of the Clones</v>
+      </c>
+      <c r="Q88" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>268</v>
+      </c>
+      <c r="E91">
+        <f>AVERAGEIF(E2:E88, "&lt;&gt;0")</f>
+        <v>32.048638992833226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>276</v>
+      </c>
+      <c r="E92" s="4">
+        <f>38*365</f>
+        <v>13870</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>275</v>
+      </c>
+      <c r="E93" t="str">
+        <f>_xlfn.XLOOKUP(E92,L2:L88,A2:A88,"Not Found",-1)</f>
+        <v>Lobot</v>
       </c>
     </row>
   </sheetData>
@@ -5585,16 +6716,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C9AD6C-192F-4898-AF47-D19C02D8C3A5}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -5607,73 +6738,127 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>266</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>267</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>263</v>
       </c>
     </row>

--- a/starwars_worked.xlsx
+++ b/starwars_worked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcool\workspace\excel\data\starwars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70FF73C-AD1E-4601-B38A-874D327165E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4051FCB3-6A04-4600-91E1-064EAFE32C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="data_dictionary" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="StarwarsData">starwars!$A$2,starwars!$A$2:$Q$88</definedName>
+    <definedName name="StarwarsData">starwars!$A$2,starwars!$A$2:$T$88</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="283">
   <si>
     <t>name</t>
   </si>
@@ -877,6 +877,15 @@
   </si>
   <si>
     <t>Rank and score from all BMI available</t>
+  </si>
+  <si>
+    <t>age_number_check</t>
+  </si>
+  <si>
+    <t>height_inches</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1385,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1732,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1743,21 +1752,24 @@
     <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.8984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="125.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8984375" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.8984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="125.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1768,49 +1780,58 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" t="s">
         <v>266</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>267</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>265</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O1" t="s">
         <v>269</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>270</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>273</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1821,53 +1842,65 @@
       <c r="C2">
         <v>172</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
+        <f>FLOOR(CONVERT(C2,"cm","in"),0.5)</f>
+        <v>67.5</v>
+      </c>
+      <c r="E2">
         <v>77</v>
       </c>
-      <c r="E2">
-        <f>IF(OR(C2="NA",D2="NA"),0, D2/B2^2)</f>
+      <c r="F2">
+        <f>FLOOR(CONVERT(E2,"kg","lbm"),0.25)</f>
+        <v>169.75</v>
+      </c>
+      <c r="G2">
+        <f>IF(OR(C2="NA",E2="NA"),0, E2/B2^2)</f>
         <v>26.027582477014604</v>
       </c>
-      <c r="F2">
-        <f>RANK(E2,$E$2:$E$88)</f>
-        <v>18</v>
-      </c>
-      <c r="G2" t="str">
-        <f>IFERROR(IF($E$5&gt;E2, "Lighter", "Heavier"), "Missing Data")</f>
+      <c r="H2">
+        <f>RANK(G2,$G$2:$G$88)</f>
+        <v>18</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IFERROR(IF($G$5&gt;G2, "Lighter", "Heavier"), "Missing Data")</f>
         <v>Lighter</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>19</v>
       </c>
-      <c r="L2">
-        <f>IF(K2="NA", 0, K2*365)</f>
+      <c r="N2" t="b">
+        <f>ISNUMBER(M2)</f>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>IF(M2="NA", 0, M2*365)</f>
         <v>6935</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" t="str">
-        <f t="shared" ref="P2:P24" si="0">TRIM(IFERROR(LEFT(Q2,(FIND(",",Q2))-1), Q2))</f>
+      <c r="S2" t="str">
+        <f t="shared" ref="S2:S24" si="0">TRIM(IFERROR(LEFT(T2,(FIND(",",T2))-1), T2))</f>
         <v>Revenge of the Sith</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1878,52 +1911,64 @@
       <c r="C3">
         <v>167</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D66" si="2">FLOOR(CONVERT(C3,"cm","in"),0.5)</f>
+        <v>65.5</v>
+      </c>
+      <c r="E3">
         <v>75</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E66" si="2">IF(OR(C3="NA",D3="NA"),0, D3/B3^2)</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="3">FLOOR(CONVERT(E3,"kg","lbm"),0.25)</f>
+        <v>165.25</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="4">IF(OR(C3="NA",E3="NA"),0, E3/B3^2)</f>
         <v>26.892323138154829</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F66" si="3">RANK(E3,$E$2:$E$88)</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="5">RANK(G3,$G$2:$G$88)</f>
         <v>14</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G66" si="4">IFERROR(IF($E$5&gt;E3, "Lighter", "Heavier"), "Missing Data")</f>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I66" si="6">IFERROR(IF($G$5&gt;G3, "Lighter", "Heavier"), "Missing Data")</f>
         <v>Lighter</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>112</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L66" si="5">IF(K3="NA", 0, K3*365)</f>
+      <c r="N3" t="b">
+        <f t="shared" ref="N3:N66" si="7">ISNUMBER(M3)</f>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="8">IF(M3="NA", 0, M3*365)</f>
         <v>40880</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>14</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>21</v>
       </c>
-      <c r="P3" t="str">
+      <c r="S3" t="str">
         <f t="shared" si="0"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1934,52 +1979,64 @@
       <c r="C4">
         <v>96</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="E4">
         <v>32</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
-        <v>34.722222222222221</v>
       </c>
       <c r="F4">
         <f t="shared" si="3"/>
+        <v>70.5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>34.722222222222221</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I4" t="str">
+        <f t="shared" si="6"/>
         <v>Heavier</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>33</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="5"/>
+      <c r="N4" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="8"/>
         <v>12045</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>21</v>
       </c>
-      <c r="P4" t="str">
+      <c r="S4" t="str">
         <f t="shared" si="0"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="T4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1990,52 +2047,64 @@
       <c r="C5">
         <v>202</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
+        <f t="shared" si="2"/>
+        <v>79.5</v>
+      </c>
+      <c r="E5">
         <v>136</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>33.330065679835307</v>
       </c>
       <c r="F5">
         <f t="shared" si="3"/>
+        <v>299.75</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>33.330065679835307</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" si="4"/>
+      <c r="I5" t="str">
+        <f t="shared" si="6"/>
         <v>Heavier</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>30</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>20</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>41.9</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="5"/>
+      <c r="N5" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="8"/>
         <v>15293.5</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>14</v>
       </c>
-      <c r="O5" t="s">
+      <c r="R5" t="s">
         <v>15</v>
       </c>
-      <c r="P5" t="str">
+      <c r="S5" t="str">
         <f t="shared" si="0"/>
         <v>Revenge of the Sith</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="T5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2046,52 +2115,64 @@
       <c r="C6">
         <v>150</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="E6">
         <v>49</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>21.777777777777779</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>21.777777777777779</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" si="4"/>
+      <c r="I6" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
       </c>
       <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6">
         <v>19</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="5"/>
+      <c r="N6" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="8"/>
         <v>6935</v>
       </c>
-      <c r="N6" t="s">
+      <c r="Q6" t="s">
         <v>35</v>
       </c>
-      <c r="O6" t="s">
+      <c r="R6" t="s">
         <v>15</v>
       </c>
-      <c r="P6" t="str">
+      <c r="S6" t="str">
         <f t="shared" si="0"/>
         <v>Revenge of the Sith</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="T6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2102,52 +2183,64 @@
       <c r="C7">
         <v>178</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E7">
         <v>120</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>37.874005807347558</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
+        <v>264.5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>37.874005807347558</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" si="4"/>
+      <c r="I7" t="str">
+        <f t="shared" si="6"/>
         <v>Heavier</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>38</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>34</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>13</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>52</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="5"/>
+      <c r="N7" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="8"/>
         <v>18980</v>
       </c>
-      <c r="N7" t="s">
+      <c r="Q7" t="s">
         <v>14</v>
       </c>
-      <c r="O7" t="s">
+      <c r="R7" t="s">
         <v>15</v>
       </c>
-      <c r="P7" t="str">
+      <c r="S7" t="str">
         <f t="shared" si="0"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="T7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -2158,52 +2251,64 @@
       <c r="C8">
         <v>165</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
+        <f t="shared" si="2"/>
+        <v>64.5</v>
+      </c>
+      <c r="E8">
         <v>75</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>27.548209366391188</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
+        <v>165.25</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>27.548209366391188</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="G8" t="str">
-        <f t="shared" si="4"/>
+      <c r="I8" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>33</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>34</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>13</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>47</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="5"/>
+      <c r="N8" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="8"/>
         <v>17155</v>
       </c>
-      <c r="N8" t="s">
+      <c r="Q8" t="s">
         <v>14</v>
       </c>
-      <c r="O8" t="s">
+      <c r="R8" t="s">
         <v>15</v>
       </c>
-      <c r="P8" t="str">
+      <c r="S8" t="str">
         <f t="shared" si="0"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="T8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -2214,52 +2319,64 @@
       <c r="C9">
         <v>97</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E9">
         <v>32</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>34.009990434690195</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
+        <v>70.5</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>34.009990434690195</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="G9" t="str">
-        <f t="shared" si="4"/>
+      <c r="I9" t="str">
+        <f t="shared" si="6"/>
         <v>Heavier</v>
       </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
         <v>42</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
         <v>14</v>
       </c>
-      <c r="O9" t="s">
+      <c r="R9" t="s">
         <v>21</v>
       </c>
-      <c r="P9" t="str">
+      <c r="S9" t="str">
         <f t="shared" si="0"/>
         <v>A New Hope</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="T9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2270,52 +2387,64 @@
       <c r="C10">
         <v>183</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="E10">
         <v>84</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>25.082863029651524</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>25.082863029651524</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="G10" t="str">
-        <f t="shared" si="4"/>
+      <c r="I10" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>45</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>34</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>33</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>24</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="5"/>
+      <c r="N10" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="8"/>
         <v>8760</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" t="s">
         <v>14</v>
       </c>
-      <c r="O10" t="s">
+      <c r="R10" t="s">
         <v>15</v>
       </c>
-      <c r="P10" t="str">
+      <c r="S10" t="str">
         <f t="shared" si="0"/>
         <v>A New Hope</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="T10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -2326,52 +2455,64 @@
       <c r="C11">
         <v>182</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
+        <f t="shared" si="2"/>
+        <v>71.5</v>
+      </c>
+      <c r="E11">
         <v>77</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>23.245984784446321</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
+        <v>169.75</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>23.245984784446321</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="G11" t="str">
-        <f t="shared" si="4"/>
+      <c r="I11" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>47</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>12</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>48</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>57</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="5"/>
+      <c r="N11" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="8"/>
         <v>20805</v>
       </c>
-      <c r="N11" t="s">
+      <c r="Q11" t="s">
         <v>49</v>
       </c>
-      <c r="O11" t="s">
+      <c r="R11" t="s">
         <v>15</v>
       </c>
-      <c r="P11" t="str">
+      <c r="S11" t="str">
         <f t="shared" si="0"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="T11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2382,52 +2523,64 @@
       <c r="C12">
         <v>188</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="E12">
         <v>84</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>23.766410140334994</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>23.766410140334994</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="G12" t="str">
-        <f t="shared" si="4"/>
+      <c r="I12" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>12</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>13</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>41.9</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="5"/>
+      <c r="N12" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="8"/>
         <v>15293.5</v>
       </c>
-      <c r="N12" t="s">
+      <c r="Q12" t="s">
         <v>14</v>
       </c>
-      <c r="O12" t="s">
+      <c r="R12" t="s">
         <v>15</v>
       </c>
-      <c r="P12" t="str">
+      <c r="S12" t="str">
         <f t="shared" si="0"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="T12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2438,52 +2591,64 @@
       <c r="C13">
         <v>180</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
+        <v>70.5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G13" t="str">
-        <f t="shared" si="4"/>
+      <c r="I13" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>53</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>12</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>13</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>64</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="5"/>
+      <c r="N13" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="8"/>
         <v>23360</v>
       </c>
-      <c r="N13" t="s">
+      <c r="Q13" t="s">
         <v>54</v>
       </c>
-      <c r="O13" t="s">
+      <c r="R13" t="s">
         <v>15</v>
       </c>
-      <c r="P13" t="str">
+      <c r="S13" t="str">
         <f t="shared" si="0"/>
         <v>Revenge of the Sith</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="T13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -2494,52 +2659,64 @@
       <c r="C14">
         <v>228</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
+        <f t="shared" si="2"/>
+        <v>89.5</v>
+      </c>
+      <c r="E14">
         <v>112</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>21.545090797168363</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
+        <v>246.75</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>21.545090797168363</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="G14" t="str">
-        <f t="shared" si="4"/>
+      <c r="I14" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>33</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>57</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>13</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>200</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="5"/>
+      <c r="N14" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="8"/>
         <v>73000</v>
       </c>
-      <c r="N14" t="s">
+      <c r="Q14" t="s">
         <v>58</v>
       </c>
-      <c r="O14" t="s">
+      <c r="R14" t="s">
         <v>59</v>
       </c>
-      <c r="P14" t="str">
+      <c r="S14" t="str">
         <f t="shared" si="0"/>
         <v>Revenge of the Sith</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="T14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -2550,52 +2727,64 @@
       <c r="C15">
         <v>180</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
+        <f t="shared" si="2"/>
+        <v>70.5</v>
+      </c>
+      <c r="E15">
         <v>80</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
-        <v>24.691358024691358</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
+        <v>176.25</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>24.691358024691358</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="G15" t="str">
-        <f t="shared" si="4"/>
+      <c r="I15" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
       </c>
       <c r="J15" t="s">
         <v>33</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15">
         <v>29</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="5"/>
+      <c r="N15" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="8"/>
         <v>10585</v>
       </c>
-      <c r="N15" t="s">
+      <c r="Q15" t="s">
         <v>61</v>
       </c>
-      <c r="O15" t="s">
+      <c r="R15" t="s">
         <v>15</v>
       </c>
-      <c r="P15" t="str">
+      <c r="S15" t="str">
         <f t="shared" si="0"/>
         <v>Return of the Jedi</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="T15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -2606,52 +2795,64 @@
       <c r="C16">
         <v>173</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="E16">
         <v>74</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>24.725182932941294</v>
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>24.725182932941294</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="G16" t="str">
-        <f t="shared" si="4"/>
+      <c r="I16" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
         <v>64</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>45</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>44</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="5"/>
+      <c r="N16" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="8"/>
         <v>16060</v>
       </c>
-      <c r="N16" t="s">
+      <c r="Q16" t="s">
         <v>65</v>
       </c>
-      <c r="O16" t="s">
+      <c r="R16" t="s">
         <v>66</v>
       </c>
-      <c r="P16" t="str">
+      <c r="S16" t="str">
         <f t="shared" si="0"/>
         <v>A New Hope</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="T16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -2662,52 +2863,64 @@
       <c r="C17">
         <v>175</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
+      <c r="E17">
         <v>1358</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>443.42857142857144</v>
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
+        <v>2993.75</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>443.42857142857144</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G17" t="str">
-        <f t="shared" si="4"/>
+      <c r="I17" t="str">
+        <f t="shared" si="6"/>
         <v>Heavier</v>
       </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
         <v>68</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>69</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>600</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="5"/>
+      <c r="N17" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="8"/>
         <v>219000</v>
       </c>
-      <c r="N17" t="s">
+      <c r="Q17" t="s">
         <v>70</v>
       </c>
-      <c r="O17" t="s">
+      <c r="R17" t="s">
         <v>71</v>
       </c>
-      <c r="P17" t="str">
+      <c r="S17" t="str">
         <f t="shared" si="0"/>
         <v>The Phantom Menace</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="T17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -2718,52 +2931,64 @@
       <c r="C18">
         <v>170</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
+        <f t="shared" si="2"/>
+        <v>66.5</v>
+      </c>
+      <c r="E18">
         <v>77</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>26.643598615916957</v>
       </c>
       <c r="F18">
         <f t="shared" si="3"/>
+        <v>169.75</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>26.643598615916957</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="G18" t="str">
-        <f t="shared" si="4"/>
+      <c r="I18" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>33</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>12</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>74</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>21</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="5"/>
+      <c r="N18" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="8"/>
         <v>7665</v>
       </c>
-      <c r="N18" t="s">
+      <c r="Q18" t="s">
         <v>61</v>
       </c>
-      <c r="O18" t="s">
+      <c r="R18" t="s">
         <v>15</v>
       </c>
-      <c r="P18" t="str">
+      <c r="S18" t="str">
         <f t="shared" si="0"/>
         <v>Return of the Jedi</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="T18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -2774,52 +2999,64 @@
       <c r="C19">
         <v>180</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
+        <f t="shared" si="2"/>
+        <v>70.5</v>
+      </c>
+      <c r="E19">
         <v>110</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="2"/>
-        <v>33.950617283950614</v>
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
+        <v>242.5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>33.950617283950614</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="G19" t="str">
-        <f t="shared" si="4"/>
+      <c r="I19" t="str">
+        <f t="shared" si="6"/>
         <v>Heavier</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>33</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>12</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>13</v>
       </c>
-      <c r="K19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
         <v>77</v>
       </c>
-      <c r="O19" t="s">
+      <c r="R19" t="s">
         <v>15</v>
       </c>
-      <c r="P19" t="str">
+      <c r="S19" t="str">
         <f t="shared" si="0"/>
         <v>A New Hope</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="T19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -2830,52 +3067,64 @@
       <c r="C20">
         <v>66</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
+        <f t="shared" si="2"/>
+        <v>25.5</v>
+      </c>
+      <c r="E20">
         <v>17</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="2"/>
-        <v>39.026629935720841</v>
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
+        <v>37.25</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>39.026629935720841</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G20" t="str">
-        <f t="shared" si="4"/>
+      <c r="I20" t="str">
+        <f t="shared" si="6"/>
         <v>Heavier</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>64</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>33</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>896</v>
       </c>
-      <c r="L20">
-        <f>IF(K20="NA", 0, K20*365)</f>
+      <c r="N20" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f>IF(M20="NA", 0, M20*365)</f>
         <v>327040</v>
       </c>
-      <c r="N20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" t="s">
         <v>79</v>
       </c>
-      <c r="P20" t="str">
+      <c r="S20" t="str">
         <f t="shared" si="0"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="T20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -2886,52 +3135,64 @@
       <c r="C21">
         <v>170</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
+        <f t="shared" si="2"/>
+        <v>66.5</v>
+      </c>
+      <c r="E21">
         <v>75</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>25.95155709342561</v>
       </c>
       <c r="F21">
         <f t="shared" si="3"/>
+        <v>165.25</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>25.95155709342561</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="G21" t="str">
-        <f t="shared" si="4"/>
+      <c r="I21" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>82</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>83</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>20</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>82</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="5"/>
+      <c r="N21" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="8"/>
         <v>29930</v>
       </c>
-      <c r="N21" t="s">
+      <c r="Q21" t="s">
         <v>26</v>
       </c>
-      <c r="O21" t="s">
+      <c r="R21" t="s">
         <v>15</v>
       </c>
-      <c r="P21" t="str">
+      <c r="S21" t="str">
         <f t="shared" si="0"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="T21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -2942,52 +3203,64 @@
       <c r="C22">
         <v>183</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="E22">
         <v>78.2</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>23.350951058556539</v>
       </c>
       <c r="F22">
         <f t="shared" si="3"/>
+        <v>172.25</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>23.350951058556539</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
-      <c r="G22" t="str">
-        <f t="shared" si="4"/>
+      <c r="I22" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>45</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>12</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>33</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>31.5</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="5"/>
+      <c r="N22" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="8"/>
         <v>11497.5</v>
       </c>
-      <c r="N22" t="s">
+      <c r="Q22" t="s">
         <v>86</v>
       </c>
-      <c r="O22" t="s">
+      <c r="R22" t="s">
         <v>15</v>
       </c>
-      <c r="P22" t="str">
+      <c r="S22" t="str">
         <f t="shared" si="0"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="T22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -2998,52 +3271,64 @@
       <c r="C23">
         <v>200</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
+        <f t="shared" si="2"/>
+        <v>78.5</v>
+      </c>
+      <c r="E23">
         <v>140</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="2"/>
-        <v>35</v>
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
+        <v>308.5</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G23" t="str">
-        <f t="shared" si="4"/>
+      <c r="I23" t="str">
+        <f t="shared" si="6"/>
         <v>Heavier</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>29</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>89</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>25</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>15</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="5"/>
+      <c r="N23" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="8"/>
         <v>5475</v>
       </c>
-      <c r="N23" t="s">
-        <v>18</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" t="s">
         <v>21</v>
       </c>
-      <c r="P23" t="str">
+      <c r="S23" t="str">
         <f t="shared" si="0"/>
         <v>The Empire Strikes Back</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="T23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -3054,52 +3339,64 @@
       <c r="C24">
         <v>190</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
+        <f t="shared" si="2"/>
+        <v>74.5</v>
+      </c>
+      <c r="E24">
         <v>113</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="2"/>
-        <v>31.301939058171747</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
+        <v>249</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>31.301939058171747</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="G24" t="str">
-        <f t="shared" si="4"/>
+      <c r="I24" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>29</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>64</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>25</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>53</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="5"/>
+      <c r="N24" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="8"/>
         <v>19345</v>
       </c>
-      <c r="N24" t="s">
+      <c r="Q24" t="s">
         <v>92</v>
       </c>
-      <c r="O24" t="s">
+      <c r="R24" t="s">
         <v>93</v>
       </c>
-      <c r="P24" t="str">
+      <c r="S24" t="str">
         <f t="shared" si="0"/>
         <v>The Empire Strikes Back</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="T24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -3110,52 +3407,64 @@
       <c r="C25">
         <v>177</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+      <c r="E25">
         <v>79</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="2"/>
-        <v>25.216253311628201</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>25.216253311628201</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="G25" t="str">
-        <f t="shared" si="4"/>
+      <c r="I25" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>45</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>95</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>33</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>31</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="5"/>
+      <c r="N25" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="8"/>
         <v>11315</v>
       </c>
-      <c r="N25" t="s">
+      <c r="Q25" t="s">
         <v>96</v>
       </c>
-      <c r="O25" t="s">
+      <c r="R25" t="s">
         <v>15</v>
       </c>
-      <c r="P25" t="str">
-        <f t="shared" ref="P22:P85" si="6">TRIM(IFERROR(LEFT(Q25,(FIND(",",Q25))-1), Q25))</f>
+      <c r="S25" t="str">
+        <f t="shared" ref="S25:S85" si="9">TRIM(IFERROR(LEFT(T25,(FIND(",",T25))-1), T25))</f>
         <v>Return of the Jedi</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="T25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -3166,52 +3475,64 @@
       <c r="C26">
         <v>175</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
+      <c r="E26">
         <v>79</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="2"/>
-        <v>25.795918367346939</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>25.795918367346939</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="G26" t="str">
-        <f t="shared" si="4"/>
+      <c r="I26" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>29</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>34</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>13</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>37</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="5"/>
+      <c r="N26" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="8"/>
         <v>13505</v>
       </c>
-      <c r="N26" t="s">
+      <c r="Q26" t="s">
         <v>99</v>
       </c>
-      <c r="O26" t="s">
+      <c r="R26" t="s">
         <v>15</v>
       </c>
-      <c r="P26" t="str">
-        <f t="shared" si="6"/>
+      <c r="S26" t="str">
+        <f t="shared" si="9"/>
         <v>The Empire Strikes Back</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="T26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -3222,52 +3543,64 @@
       <c r="C27">
         <v>180</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
+        <f t="shared" si="2"/>
+        <v>70.5</v>
+      </c>
+      <c r="E27">
         <v>83</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="2"/>
-        <v>25.617283950617281</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
+        <v>182.75</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>25.617283950617281</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="G27" t="str">
-        <f t="shared" si="4"/>
+      <c r="I27" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>29</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>101</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>69</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>41</v>
       </c>
-      <c r="L27">
-        <f t="shared" si="5"/>
+      <c r="N27" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="8"/>
         <v>14965</v>
       </c>
-      <c r="N27" t="s">
+      <c r="Q27" t="s">
         <v>102</v>
       </c>
-      <c r="O27" t="s">
+      <c r="R27" t="s">
         <v>103</v>
       </c>
-      <c r="P27" t="str">
-        <f t="shared" si="6"/>
+      <c r="S27" t="str">
+        <f t="shared" si="9"/>
         <v>Return of the Jedi</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="T27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -3278,52 +3611,64 @@
       <c r="C28">
         <v>150</v>
       </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F28">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G28" t="str">
-        <f t="shared" si="4"/>
+      <c r="I28" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>106</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>12</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
         <v>13</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>48</v>
       </c>
-      <c r="L28">
-        <f t="shared" si="5"/>
+      <c r="N28" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="8"/>
         <v>17520</v>
       </c>
-      <c r="N28" t="s">
+      <c r="Q28" t="s">
         <v>107</v>
       </c>
-      <c r="O28" t="s">
+      <c r="R28" t="s">
         <v>15</v>
       </c>
-      <c r="P28" t="str">
-        <f t="shared" si="6"/>
+      <c r="S28" t="str">
+        <f t="shared" si="9"/>
         <v>Return of the Jedi</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="T28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -3334,52 +3679,64 @@
       <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="4" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G29" t="str">
-        <f t="shared" si="4"/>
+      <c r="I29" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
-      </c>
-      <c r="H29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" t="s">
-        <v>12</v>
       </c>
       <c r="J29" t="s">
         <v>33</v>
       </c>
       <c r="K29" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
-        <v>18</v>
-      </c>
-      <c r="O29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" t="s">
         <v>15</v>
       </c>
-      <c r="P29" t="str">
-        <f t="shared" si="6"/>
+      <c r="S29" t="str">
+        <f t="shared" si="9"/>
         <v>Return of the Jedi</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="T29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -3390,52 +3747,64 @@
       <c r="C30">
         <v>88</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
+        <f t="shared" si="2"/>
+        <v>34.5</v>
+      </c>
+      <c r="E30">
         <v>20</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="2"/>
-        <v>25.826446280991735</v>
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>25.826446280991735</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="G30" t="str">
-        <f t="shared" si="4"/>
+      <c r="I30" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
-      </c>
-      <c r="H30" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" t="s">
-        <v>33</v>
       </c>
       <c r="J30" t="s">
         <v>33</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30">
         <v>8</v>
       </c>
-      <c r="L30">
-        <f t="shared" si="5"/>
+      <c r="N30" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="8"/>
         <v>2920</v>
       </c>
-      <c r="N30" t="s">
+      <c r="Q30" t="s">
         <v>111</v>
       </c>
-      <c r="O30" t="s">
+      <c r="R30" t="s">
         <v>112</v>
       </c>
-      <c r="P30" t="str">
-        <f t="shared" si="6"/>
+      <c r="S30" t="str">
+        <f t="shared" si="9"/>
         <v>Return of the Jedi</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="T30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -3446,52 +3815,64 @@
       <c r="C31">
         <v>160</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="E31">
         <v>68</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="2"/>
-        <v>26.562499999999996</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
+        <v>149.75</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>26.562499999999996</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="G31" t="str">
-        <f t="shared" si="4"/>
+      <c r="I31" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
         <v>29</v>
       </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>82</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>45</v>
       </c>
-      <c r="K31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="M31" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
         <v>114</v>
       </c>
-      <c r="O31" t="s">
+      <c r="R31" t="s">
         <v>115</v>
       </c>
-      <c r="P31" t="str">
-        <f t="shared" si="6"/>
+      <c r="S31" t="str">
+        <f t="shared" si="9"/>
         <v>Return of the Jedi</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="T31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -3502,52 +3883,64 @@
       <c r="C32">
         <v>193</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
+        <f t="shared" si="2"/>
+        <v>75.5</v>
+      </c>
+      <c r="E32">
         <v>89</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="2"/>
-        <v>23.893258879433006</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>23.893258879433006</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="G32" t="str">
-        <f t="shared" si="4"/>
+      <c r="I32" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
         <v>33</v>
       </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>12</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>13</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>92</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="5"/>
+      <c r="N32" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="8"/>
         <v>33580</v>
       </c>
-      <c r="N32" t="s">
-        <v>18</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="Q32" t="s">
+        <v>18</v>
+      </c>
+      <c r="R32" t="s">
         <v>15</v>
       </c>
-      <c r="P32" t="str">
-        <f t="shared" si="6"/>
+      <c r="S32" t="str">
+        <f t="shared" si="9"/>
         <v>The Phantom Menace</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="T32" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -3558,52 +3951,64 @@
       <c r="C33">
         <v>191</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="E33">
         <v>90</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="2"/>
-        <v>24.670376360297141</v>
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
+        <v>198.25</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>24.670376360297141</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="G33" t="str">
-        <f t="shared" si="4"/>
+      <c r="I33" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H33" t="s">
+      <c r="J33" t="s">
         <v>29</v>
       </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
         <v>119</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>25</v>
       </c>
-      <c r="K33" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="M33" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
         <v>120</v>
       </c>
-      <c r="O33" t="s">
+      <c r="R33" t="s">
         <v>121</v>
       </c>
-      <c r="P33" t="str">
-        <f t="shared" si="6"/>
+      <c r="S33" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="T33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -3614,52 +4019,64 @@
       <c r="C34">
         <v>170</v>
       </c>
-      <c r="D34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F34">
+        <v>66.5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G34" t="str">
-        <f t="shared" si="4"/>
+      <c r="I34" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H34" t="s">
+      <c r="J34" t="s">
         <v>11</v>
       </c>
-      <c r="I34" t="s">
+      <c r="K34" t="s">
         <v>12</v>
       </c>
-      <c r="J34" t="s">
+      <c r="L34" t="s">
         <v>13</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>91</v>
       </c>
-      <c r="L34">
-        <f t="shared" si="5"/>
+      <c r="N34" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="8"/>
         <v>33215</v>
       </c>
-      <c r="N34" t="s">
+      <c r="Q34" t="s">
         <v>123</v>
       </c>
-      <c r="O34" t="s">
+      <c r="R34" t="s">
         <v>15</v>
       </c>
-      <c r="P34" t="str">
-        <f t="shared" si="6"/>
+      <c r="S34" t="str">
+        <f t="shared" si="9"/>
         <v>The Phantom Menace</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="T34" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -3670,52 +4087,64 @@
       <c r="C35">
         <v>196</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="E35">
         <v>66</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="2"/>
-        <v>17.180341524364849</v>
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
+        <v>145.5</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>17.180341524364849</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="G35" t="str">
-        <f t="shared" si="4"/>
+      <c r="I35" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>29</v>
       </c>
-      <c r="I35" t="s">
+      <c r="K35" t="s">
         <v>69</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" t="s">
         <v>69</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>52</v>
       </c>
-      <c r="L35">
-        <f t="shared" si="5"/>
+      <c r="N35" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="8"/>
         <v>18980</v>
       </c>
-      <c r="N35" t="s">
+      <c r="Q35" t="s">
         <v>26</v>
       </c>
-      <c r="O35" t="s">
+      <c r="R35" t="s">
         <v>125</v>
       </c>
-      <c r="P35" t="str">
-        <f t="shared" si="6"/>
+      <c r="S35" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="T35" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>127</v>
       </c>
@@ -3726,52 +4155,64 @@
       <c r="C36">
         <v>224</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="4">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="E36">
         <v>82</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="2"/>
-        <v>16.342474489795915</v>
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
+        <v>180.75</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>16.342474489795915</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="G36" t="str">
-        <f t="shared" si="4"/>
+      <c r="I36" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H36" t="s">
+      <c r="J36" t="s">
         <v>29</v>
       </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>82</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>69</v>
       </c>
-      <c r="K36" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="M36" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
         <v>26</v>
       </c>
-      <c r="O36" t="s">
+      <c r="R36" t="s">
         <v>125</v>
       </c>
-      <c r="P36" t="str">
-        <f t="shared" si="6"/>
+      <c r="S36" t="str">
+        <f t="shared" si="9"/>
         <v>The Phantom Menace</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="T36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>128</v>
       </c>
@@ -3782,52 +4223,64 @@
       <c r="C37">
         <v>206</v>
       </c>
-      <c r="D37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37">
+      <c r="D37" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F37">
+        <v>81</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G37" t="str">
-        <f t="shared" si="4"/>
+      <c r="I37" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H37" t="s">
+      <c r="J37" t="s">
         <v>29</v>
       </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>64</v>
       </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
         <v>69</v>
       </c>
-      <c r="K37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="M37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
         <v>26</v>
       </c>
-      <c r="O37" t="s">
+      <c r="R37" t="s">
         <v>125</v>
       </c>
-      <c r="P37" t="str">
-        <f t="shared" si="6"/>
+      <c r="S37" t="str">
+        <f t="shared" si="9"/>
         <v>The Phantom Menace</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="T37" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>129</v>
       </c>
@@ -3838,52 +4291,64 @@
       <c r="C38">
         <v>183</v>
       </c>
-      <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38">
+      <c r="D38" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F38">
+        <v>72</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G38" t="str">
-        <f t="shared" si="4"/>
+      <c r="I38" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H38" t="s">
+      <c r="J38" t="s">
         <v>33</v>
       </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>12</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>13</v>
       </c>
-      <c r="K38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="M38" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" t="s">
         <v>26</v>
       </c>
-      <c r="O38" t="s">
-        <v>18</v>
-      </c>
-      <c r="P38" t="str">
-        <f t="shared" si="6"/>
+      <c r="R38" t="s">
+        <v>18</v>
+      </c>
+      <c r="S38" t="str">
+        <f t="shared" si="9"/>
         <v>The Phantom Menace</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="T38" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>130</v>
       </c>
@@ -3894,52 +4359,64 @@
       <c r="C39">
         <v>137</v>
       </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39">
+      <c r="D39" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F39">
+        <v>53.5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G39" t="str">
-        <f t="shared" si="4"/>
+      <c r="I39" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H39" t="s">
+      <c r="J39" t="s">
         <v>45</v>
       </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>131</v>
       </c>
-      <c r="J39" t="s">
+      <c r="L39" t="s">
         <v>20</v>
       </c>
-      <c r="K39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="M39" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" t="s">
         <v>132</v>
       </c>
-      <c r="O39" t="s">
+      <c r="R39" t="s">
         <v>133</v>
       </c>
-      <c r="P39" t="str">
-        <f t="shared" si="6"/>
+      <c r="S39" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="T39" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>135</v>
       </c>
@@ -3950,52 +4427,64 @@
       <c r="C40">
         <v>112</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="4">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="E40">
         <v>40</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="2"/>
-        <v>31.887755102040813</v>
       </c>
       <c r="F40">
         <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>31.887755102040813</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G40" t="str">
-        <f t="shared" si="4"/>
+      <c r="I40" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H40" t="s">
+      <c r="J40" t="s">
         <v>29</v>
       </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>136</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>69</v>
       </c>
-      <c r="K40" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="M40" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s">
         <v>137</v>
       </c>
-      <c r="O40" t="s">
+      <c r="R40" t="s">
         <v>138</v>
       </c>
-      <c r="P40" t="str">
-        <f t="shared" si="6"/>
+      <c r="S40" t="str">
+        <f t="shared" si="9"/>
         <v>The Phantom Menace</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="T40" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>139</v>
       </c>
@@ -4006,52 +4495,64 @@
       <c r="C41">
         <v>183</v>
       </c>
-      <c r="D41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F41">
+        <v>72</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G41" t="str">
-        <f t="shared" si="4"/>
+      <c r="I41" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
         <v>45</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>95</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>33</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>62</v>
       </c>
-      <c r="L41">
-        <f t="shared" si="5"/>
+      <c r="N41" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="8"/>
         <v>22630</v>
       </c>
-      <c r="N41" t="s">
+      <c r="Q41" t="s">
         <v>26</v>
       </c>
-      <c r="O41" t="s">
-        <v>18</v>
-      </c>
-      <c r="P41" t="str">
-        <f t="shared" si="6"/>
+      <c r="R41" t="s">
+        <v>18</v>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="9"/>
         <v>The Phantom Menace</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="T41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -4062,52 +4563,64 @@
       <c r="C42">
         <v>163</v>
       </c>
-      <c r="D42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42">
+      <c r="D42" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F42">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G42" t="str">
-        <f t="shared" si="4"/>
+      <c r="I42" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H42" t="s">
+      <c r="J42" t="s">
         <v>45</v>
       </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>12</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>33</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>72</v>
       </c>
-      <c r="L42">
-        <f t="shared" si="5"/>
+      <c r="N42" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="8"/>
         <v>26280</v>
       </c>
-      <c r="N42" t="s">
+      <c r="Q42" t="s">
         <v>14</v>
       </c>
-      <c r="O42" t="s">
+      <c r="R42" t="s">
         <v>15</v>
       </c>
-      <c r="P42" t="str">
-        <f t="shared" si="6"/>
+      <c r="S42" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="T42" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -4118,52 +4631,64 @@
       <c r="C43">
         <v>175</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="4">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
+      <c r="E43">
         <v>80</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="2"/>
-        <v>26.122448979591837</v>
       </c>
       <c r="F43">
         <f t="shared" si="3"/>
+        <v>176.25</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>26.122448979591837</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="G43" t="str">
-        <f t="shared" si="4"/>
+      <c r="I43" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H43" t="s">
+      <c r="J43" t="s">
         <v>29</v>
       </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>25</v>
       </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>20</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>54</v>
       </c>
-      <c r="L43">
-        <f t="shared" si="5"/>
+      <c r="N43" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="8"/>
         <v>19710</v>
       </c>
-      <c r="N43" t="s">
+      <c r="Q43" t="s">
         <v>142</v>
       </c>
-      <c r="O43" t="s">
+      <c r="R43" t="s">
         <v>143</v>
       </c>
-      <c r="P43" t="str">
-        <f t="shared" si="6"/>
+      <c r="S43" t="str">
+        <f t="shared" si="9"/>
         <v>The Phantom Menace</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="T43" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -4174,52 +4699,64 @@
       <c r="C44">
         <v>180</v>
       </c>
-      <c r="D44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44">
+      <c r="D44" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F44">
+        <v>70.5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G44" t="str">
-        <f t="shared" si="4"/>
+      <c r="I44" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H44" t="s">
+      <c r="J44" t="s">
         <v>29</v>
       </c>
-      <c r="I44" t="s">
+      <c r="K44" t="s">
         <v>83</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>145</v>
       </c>
-      <c r="K44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="M44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" t="s">
         <v>146</v>
       </c>
-      <c r="O44" t="s">
+      <c r="R44" t="s">
         <v>147</v>
       </c>
-      <c r="P44" t="str">
-        <f t="shared" si="6"/>
+      <c r="S44" t="str">
+        <f t="shared" si="9"/>
         <v>Return of the Jedi</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="T44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -4230,52 +4767,64 @@
       <c r="C45">
         <v>178</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="4">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E45">
         <v>55</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="2"/>
-        <v>17.35891932836763</v>
       </c>
       <c r="F45">
         <f t="shared" si="3"/>
+        <v>121.25</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>17.35891932836763</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
-      <c r="G45" t="str">
-        <f t="shared" si="4"/>
+      <c r="I45" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H45" t="s">
+      <c r="J45" t="s">
         <v>29</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>13</v>
       </c>
-      <c r="J45" t="s">
+      <c r="L45" t="s">
         <v>74</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>48</v>
       </c>
-      <c r="L45">
-        <f t="shared" si="5"/>
+      <c r="N45" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="8"/>
         <v>17520</v>
       </c>
-      <c r="N45" t="s">
+      <c r="Q45" t="s">
         <v>146</v>
       </c>
-      <c r="O45" t="s">
+      <c r="R45" t="s">
         <v>147</v>
       </c>
-      <c r="P45" t="str">
-        <f t="shared" si="6"/>
+      <c r="S45" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="T45" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>150</v>
       </c>
@@ -4286,52 +4835,64 @@
       <c r="C46">
         <v>94</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="4">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="E46">
         <v>45</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="2"/>
-        <v>50.928021729289277</v>
       </c>
       <c r="F46">
         <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>50.928021729289277</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G46" t="str">
-        <f t="shared" si="4"/>
+      <c r="I46" t="str">
+        <f t="shared" si="6"/>
         <v>Heavier</v>
       </c>
-      <c r="H46" t="s">
+      <c r="J46" t="s">
         <v>29</v>
       </c>
-      <c r="I46" t="s">
+      <c r="K46" t="s">
         <v>131</v>
       </c>
-      <c r="J46" t="s">
+      <c r="L46" t="s">
         <v>20</v>
       </c>
-      <c r="K46" t="s">
-        <v>18</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="M46" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" t="s">
         <v>151</v>
       </c>
-      <c r="O46" t="s">
+      <c r="R46" t="s">
         <v>152</v>
       </c>
-      <c r="P46" t="str">
-        <f t="shared" si="6"/>
+      <c r="S46" t="str">
+        <f t="shared" si="9"/>
         <v>The Phantom Menace</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="T46" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>153</v>
       </c>
@@ -4342,52 +4903,64 @@
       <c r="C47">
         <v>122</v>
       </c>
-      <c r="D47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47">
+      <c r="D47" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F47">
+        <v>48</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G47" t="str">
-        <f t="shared" si="4"/>
+      <c r="I47" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H47" t="s">
+      <c r="J47" t="s">
         <v>29</v>
       </c>
-      <c r="I47" t="s">
+      <c r="K47" t="s">
         <v>24</v>
       </c>
-      <c r="J47" t="s">
+      <c r="L47" t="s">
         <v>45</v>
       </c>
-      <c r="K47" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="M47" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
         <v>154</v>
       </c>
-      <c r="O47" t="s">
+      <c r="R47" t="s">
         <v>155</v>
       </c>
-      <c r="P47" t="str">
-        <f t="shared" si="6"/>
+      <c r="S47" t="str">
+        <f t="shared" si="9"/>
         <v>The Phantom Menace</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="T47" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>156</v>
       </c>
@@ -4398,52 +4971,64 @@
       <c r="C48">
         <v>163</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="4">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="E48">
         <v>65</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="2"/>
-        <v>24.464601603372351</v>
       </c>
       <c r="F48">
         <f t="shared" si="3"/>
+        <v>143.25</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="4"/>
+        <v>24.464601603372351</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="G48" t="str">
-        <f t="shared" si="4"/>
+      <c r="I48" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H48" t="s">
+      <c r="J48" t="s">
         <v>29</v>
       </c>
-      <c r="I48" t="s">
+      <c r="K48" t="s">
         <v>157</v>
       </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
         <v>69</v>
       </c>
-      <c r="K48" t="s">
-        <v>18</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="M48" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" t="s">
         <v>158</v>
       </c>
-      <c r="O48" t="s">
+      <c r="R48" t="s">
         <v>159</v>
       </c>
-      <c r="P48" t="str">
-        <f t="shared" si="6"/>
+      <c r="S48" t="str">
+        <f t="shared" si="9"/>
         <v>The Phantom Menace</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="T48" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>160</v>
       </c>
@@ -4454,52 +5039,64 @@
       <c r="C49">
         <v>188</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="4">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="E49">
         <v>84</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="2"/>
-        <v>23.766410140334994</v>
       </c>
       <c r="F49">
         <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="4"/>
+        <v>23.766410140334994</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="G49" t="str">
-        <f t="shared" si="4"/>
+      <c r="I49" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H49" t="s">
+      <c r="J49" t="s">
         <v>29</v>
       </c>
-      <c r="I49" t="s">
+      <c r="K49" t="s">
         <v>95</v>
       </c>
-      <c r="J49" t="s">
+      <c r="L49" t="s">
         <v>33</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>72</v>
       </c>
-      <c r="L49">
-        <f t="shared" si="5"/>
+      <c r="N49" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="8"/>
         <v>26280</v>
       </c>
-      <c r="N49" t="s">
+      <c r="Q49" t="s">
         <v>161</v>
       </c>
-      <c r="O49" t="s">
+      <c r="R49" t="s">
         <v>15</v>
       </c>
-      <c r="P49" t="str">
-        <f t="shared" si="6"/>
+      <c r="S49" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="T49" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>162</v>
       </c>
@@ -4510,52 +5107,64 @@
       <c r="C50">
         <v>198</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="4">
+        <f t="shared" si="2"/>
+        <v>77.5</v>
+      </c>
+      <c r="E50">
         <v>82</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="2"/>
-        <v>20.91623303744516</v>
       </c>
       <c r="F50">
         <f t="shared" si="3"/>
+        <v>180.75</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>20.91623303744516</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="G50" t="str">
-        <f t="shared" si="4"/>
+      <c r="I50" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H50" t="s">
+      <c r="J50" t="s">
         <v>30</v>
       </c>
-      <c r="I50" t="s">
+      <c r="K50" t="s">
         <v>83</v>
       </c>
-      <c r="J50" t="s">
+      <c r="L50" t="s">
         <v>20</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>92</v>
       </c>
-      <c r="L50">
-        <f t="shared" si="5"/>
+      <c r="N50" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="8"/>
         <v>33580</v>
       </c>
-      <c r="N50" t="s">
+      <c r="Q50" t="s">
         <v>163</v>
       </c>
-      <c r="O50" t="s">
+      <c r="R50" t="s">
         <v>164</v>
       </c>
-      <c r="P50" t="str">
-        <f t="shared" si="6"/>
+      <c r="S50" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="T50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>165</v>
       </c>
@@ -4566,52 +5175,64 @@
       <c r="C51">
         <v>196</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="4">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="E51">
         <v>87</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="2"/>
-        <v>22.646813827571847</v>
       </c>
       <c r="F51">
         <f t="shared" si="3"/>
+        <v>191.75</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="4"/>
+        <v>22.646813827571847</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="G51" t="str">
-        <f t="shared" si="4"/>
+      <c r="I51" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H51" t="s">
+      <c r="J51" t="s">
         <v>29</v>
       </c>
-      <c r="I51" t="s">
+      <c r="K51" t="s">
         <v>64</v>
       </c>
-      <c r="J51" t="s">
+      <c r="L51" t="s">
         <v>45</v>
       </c>
-      <c r="K51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="M51" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
         <v>166</v>
       </c>
-      <c r="O51" t="s">
+      <c r="R51" t="s">
         <v>167</v>
       </c>
-      <c r="P51" t="str">
-        <f t="shared" si="6"/>
+      <c r="S51" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="T51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>168</v>
       </c>
@@ -4622,52 +5243,64 @@
       <c r="C52">
         <v>171</v>
       </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52">
+      <c r="D52" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F52">
+        <v>67</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I52" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H52" t="s">
+      <c r="J52" t="s">
         <v>45</v>
       </c>
-      <c r="I52" t="s">
+      <c r="K52" t="s">
         <v>33</v>
       </c>
-      <c r="J52" t="s">
+      <c r="L52" t="s">
         <v>33</v>
       </c>
-      <c r="K52" t="s">
-        <v>18</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N52" t="s">
+      <c r="M52" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
         <v>169</v>
       </c>
-      <c r="O52" t="s">
+      <c r="R52" t="s">
         <v>143</v>
       </c>
-      <c r="P52" t="str">
-        <f t="shared" si="6"/>
+      <c r="S52" t="str">
+        <f t="shared" si="9"/>
         <v>The Phantom Menace</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="T52" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>171</v>
       </c>
@@ -4678,52 +5311,64 @@
       <c r="C53">
         <v>184</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="4">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="E53">
         <v>50</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="2"/>
-        <v>14.768431001890358</v>
       </c>
       <c r="F53">
         <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>14.768431001890358</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="G53" t="str">
-        <f t="shared" si="4"/>
+      <c r="I53" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H53" t="s">
+      <c r="J53" t="s">
         <v>29</v>
       </c>
-      <c r="I53" t="s">
+      <c r="K53" t="s">
         <v>95</v>
       </c>
-      <c r="J53" t="s">
+      <c r="L53" t="s">
         <v>13</v>
       </c>
-      <c r="K53" t="s">
-        <v>18</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N53" t="s">
+      <c r="M53" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" t="s">
         <v>123</v>
       </c>
-      <c r="O53" t="s">
+      <c r="R53" t="s">
         <v>172</v>
       </c>
-      <c r="P53" t="str">
-        <f t="shared" si="6"/>
+      <c r="S53" t="str">
+        <f t="shared" si="9"/>
         <v>The Phantom Menace</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="T53" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>173</v>
       </c>
@@ -4734,52 +5379,64 @@
       <c r="C54">
         <v>188</v>
       </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54">
+      <c r="D54" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F54">
+        <v>74</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G54" t="str">
-        <f t="shared" si="4"/>
+      <c r="I54" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H54" t="s">
+      <c r="J54" t="s">
         <v>29</v>
       </c>
-      <c r="I54" t="s">
+      <c r="K54" t="s">
         <v>83</v>
       </c>
-      <c r="J54" t="s">
+      <c r="L54" t="s">
         <v>69</v>
       </c>
-      <c r="K54" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N54" t="s">
+      <c r="M54" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" t="s">
         <v>174</v>
       </c>
-      <c r="O54" t="s">
+      <c r="R54" t="s">
         <v>175</v>
       </c>
-      <c r="P54" t="str">
-        <f t="shared" si="6"/>
+      <c r="S54" t="str">
+        <f t="shared" si="9"/>
         <v>The Phantom Menace</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="T54" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>176</v>
       </c>
@@ -4790,52 +5447,64 @@
       <c r="C55">
         <v>264</v>
       </c>
-      <c r="D55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55">
+      <c r="D55" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F55">
+        <v>103.5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G55" t="str">
-        <f t="shared" si="4"/>
+      <c r="I55" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H55" t="s">
+      <c r="J55" t="s">
         <v>29</v>
       </c>
-      <c r="I55" t="s">
+      <c r="K55" t="s">
         <v>30</v>
       </c>
-      <c r="J55" t="s">
+      <c r="L55" t="s">
         <v>20</v>
       </c>
-      <c r="K55" t="s">
-        <v>18</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N55" t="s">
+      <c r="M55" t="s">
+        <v>18</v>
+      </c>
+      <c r="N55" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" t="s">
         <v>177</v>
       </c>
-      <c r="O55" t="s">
+      <c r="R55" t="s">
         <v>178</v>
       </c>
-      <c r="P55" t="str">
-        <f t="shared" si="6"/>
+      <c r="S55" t="str">
+        <f t="shared" si="9"/>
         <v>The Phantom Menace</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="T55" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>179</v>
       </c>
@@ -4846,52 +5515,64 @@
       <c r="C56">
         <v>188</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="4">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="E56">
         <v>80</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="2"/>
-        <v>22.634676324128566</v>
       </c>
       <c r="F56">
         <f t="shared" si="3"/>
+        <v>176.25</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>22.634676324128566</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="G56" t="str">
-        <f t="shared" si="4"/>
+      <c r="I56" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H56" t="s">
+      <c r="J56" t="s">
         <v>29</v>
       </c>
-      <c r="I56" t="s">
+      <c r="K56" t="s">
         <v>69</v>
       </c>
-      <c r="J56" t="s">
+      <c r="L56" t="s">
         <v>45</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>22</v>
       </c>
-      <c r="L56">
-        <f t="shared" si="5"/>
+      <c r="N56" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="8"/>
         <v>8030</v>
       </c>
-      <c r="N56" t="s">
+      <c r="Q56" t="s">
         <v>180</v>
       </c>
-      <c r="O56" t="s">
+      <c r="R56" t="s">
         <v>181</v>
       </c>
-      <c r="P56" t="str">
-        <f t="shared" si="6"/>
+      <c r="S56" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="T56" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>182</v>
       </c>
@@ -4902,52 +5583,64 @@
       <c r="C57">
         <v>196</v>
       </c>
-      <c r="D57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57">
+      <c r="D57" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F57">
+        <v>77</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G57" t="str">
-        <f t="shared" si="4"/>
+      <c r="I57" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H57" t="s">
+      <c r="J57" t="s">
         <v>29</v>
       </c>
-      <c r="I57" t="s">
+      <c r="K57" t="s">
         <v>13</v>
       </c>
-      <c r="J57" t="s">
+      <c r="L57" t="s">
         <v>13</v>
       </c>
-      <c r="K57" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N57" t="s">
+      <c r="M57" t="s">
+        <v>18</v>
+      </c>
+      <c r="N57" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" t="s">
         <v>183</v>
       </c>
-      <c r="O57" t="s">
+      <c r="R57" t="s">
         <v>184</v>
       </c>
-      <c r="P57" t="str">
-        <f t="shared" si="6"/>
+      <c r="S57" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="T57" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>185</v>
       </c>
@@ -4958,52 +5651,64 @@
       <c r="C58">
         <v>185</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="4">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
+      <c r="E58">
         <v>85</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="2"/>
-        <v>24.835646457268076</v>
       </c>
       <c r="F58">
         <f t="shared" si="3"/>
+        <v>187.25</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>24.835646457268076</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="G58" t="str">
-        <f t="shared" si="4"/>
+      <c r="I58" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H58" t="s">
+      <c r="J58" t="s">
         <v>45</v>
       </c>
-      <c r="I58" t="s">
+      <c r="K58" t="s">
         <v>95</v>
       </c>
-      <c r="J58" t="s">
+      <c r="L58" t="s">
         <v>33</v>
       </c>
-      <c r="K58" t="s">
-        <v>18</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N58" t="s">
+      <c r="M58" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" t="s">
         <v>26</v>
       </c>
-      <c r="O58" t="s">
+      <c r="R58" t="s">
         <v>15</v>
       </c>
-      <c r="P58" t="str">
-        <f t="shared" si="6"/>
+      <c r="S58" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="T58" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>187</v>
       </c>
@@ -5014,52 +5719,64 @@
       <c r="C59">
         <v>157</v>
       </c>
-      <c r="D59" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59">
+      <c r="D59" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F59">
+        <v>61.5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G59" t="str">
-        <f t="shared" si="4"/>
+      <c r="I59" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
-      </c>
-      <c r="H59" t="s">
-        <v>33</v>
-      </c>
-      <c r="I59" t="s">
-        <v>34</v>
       </c>
       <c r="J59" t="s">
         <v>33</v>
       </c>
       <c r="K59" t="s">
-        <v>18</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N59" t="s">
+        <v>34</v>
+      </c>
+      <c r="L59" t="s">
+        <v>33</v>
+      </c>
+      <c r="M59" t="s">
+        <v>18</v>
+      </c>
+      <c r="N59" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" t="s">
         <v>26</v>
       </c>
-      <c r="O59" t="s">
+      <c r="R59" t="s">
         <v>15</v>
       </c>
-      <c r="P59" t="str">
-        <f t="shared" si="6"/>
+      <c r="S59" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="T59" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>188</v>
       </c>
@@ -5070,52 +5787,64 @@
       <c r="C60">
         <v>183</v>
       </c>
-      <c r="D60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60">
+      <c r="D60" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F60">
+        <v>72</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G60" t="str">
-        <f t="shared" si="4"/>
+      <c r="I60" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H60" t="s">
+      <c r="J60" t="s">
         <v>33</v>
       </c>
-      <c r="I60" t="s">
+      <c r="K60" t="s">
         <v>12</v>
       </c>
-      <c r="J60" t="s">
+      <c r="L60" t="s">
         <v>13</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>82</v>
       </c>
-      <c r="L60">
-        <f t="shared" si="5"/>
+      <c r="N60" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="8"/>
         <v>29930</v>
       </c>
-      <c r="N60" t="s">
+      <c r="Q60" t="s">
         <v>14</v>
       </c>
-      <c r="O60" t="s">
+      <c r="R60" t="s">
         <v>15</v>
       </c>
-      <c r="P60" t="str">
-        <f t="shared" si="6"/>
+      <c r="S60" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="T60" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>189</v>
       </c>
@@ -5126,52 +5855,64 @@
       <c r="C61">
         <v>183</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="4">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="E61">
         <v>80</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="2"/>
-        <v>23.888440980620498</v>
       </c>
       <c r="F61">
         <f t="shared" si="3"/>
+        <v>176.25</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>23.888440980620498</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="G61" t="str">
-        <f t="shared" si="4"/>
+      <c r="I61" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H61" t="s">
+      <c r="J61" t="s">
         <v>29</v>
       </c>
-      <c r="I61" t="s">
+      <c r="K61" t="s">
         <v>64</v>
       </c>
-      <c r="J61" t="s">
+      <c r="L61" t="s">
         <v>20</v>
       </c>
-      <c r="K61" t="s">
-        <v>18</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N61" t="s">
+      <c r="M61" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" t="s">
         <v>190</v>
       </c>
-      <c r="O61" t="s">
+      <c r="R61" t="s">
         <v>191</v>
       </c>
-      <c r="P61" t="str">
-        <f t="shared" si="6"/>
+      <c r="S61" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="T61" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>193</v>
       </c>
@@ -5182,52 +5923,64 @@
       <c r="C62">
         <v>170</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="4">
+        <f t="shared" si="2"/>
+        <v>66.5</v>
+      </c>
+      <c r="E62">
         <v>56.2</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="2"/>
-        <v>19.446366782006923</v>
       </c>
       <c r="F62">
         <f t="shared" si="3"/>
+        <v>123.75</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="4"/>
+        <v>19.446366782006923</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="G62" t="str">
-        <f t="shared" si="4"/>
+      <c r="I62" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H62" t="s">
+      <c r="J62" t="s">
         <v>45</v>
       </c>
-      <c r="I62" t="s">
+      <c r="K62" t="s">
         <v>20</v>
       </c>
-      <c r="J62" t="s">
+      <c r="L62" t="s">
         <v>13</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>58</v>
       </c>
-      <c r="L62">
-        <f t="shared" si="5"/>
+      <c r="N62" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="8"/>
         <v>21170</v>
       </c>
-      <c r="N62" t="s">
+      <c r="Q62" t="s">
         <v>194</v>
       </c>
-      <c r="O62" t="s">
+      <c r="R62" t="s">
         <v>195</v>
       </c>
-      <c r="P62" t="str">
-        <f t="shared" si="6"/>
+      <c r="S62" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="T62" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>196</v>
       </c>
@@ -5238,52 +5991,64 @@
       <c r="C63">
         <v>166</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="4">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="E63">
         <v>50</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="2"/>
-        <v>18.144868631151112</v>
       </c>
       <c r="F63">
         <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="4"/>
+        <v>18.144868631151112</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="G63" t="str">
-        <f t="shared" si="4"/>
+      <c r="I63" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H63" t="s">
+      <c r="J63" t="s">
         <v>45</v>
       </c>
-      <c r="I63" t="s">
+      <c r="K63" t="s">
         <v>20</v>
       </c>
-      <c r="J63" t="s">
+      <c r="L63" t="s">
         <v>13</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>40</v>
       </c>
-      <c r="L63">
-        <f t="shared" si="5"/>
+      <c r="N63" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="8"/>
         <v>14600</v>
       </c>
-      <c r="N63" t="s">
+      <c r="Q63" t="s">
         <v>194</v>
       </c>
-      <c r="O63" t="s">
+      <c r="R63" t="s">
         <v>195</v>
       </c>
-      <c r="P63" t="str">
-        <f t="shared" si="6"/>
+      <c r="S63" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="T63" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>197</v>
       </c>
@@ -5294,52 +6059,64 @@
       <c r="C64">
         <v>165</v>
       </c>
-      <c r="D64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64">
+      <c r="D64" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F64">
+        <v>64.5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G64" t="str">
-        <f t="shared" si="4"/>
+      <c r="I64" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
-      </c>
-      <c r="H64" t="s">
-        <v>33</v>
-      </c>
-      <c r="I64" t="s">
-        <v>34</v>
       </c>
       <c r="J64" t="s">
         <v>33</v>
       </c>
       <c r="K64" t="s">
-        <v>18</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N64" t="s">
+        <v>34</v>
+      </c>
+      <c r="L64" t="s">
+        <v>33</v>
+      </c>
+      <c r="M64" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" t="s">
         <v>26</v>
       </c>
-      <c r="O64" t="s">
+      <c r="R64" t="s">
         <v>15</v>
       </c>
-      <c r="P64" t="str">
-        <f t="shared" si="6"/>
+      <c r="S64" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="T64" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>198</v>
       </c>
@@ -5350,52 +6127,64 @@
       <c r="C65">
         <v>193</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="4">
+        <f t="shared" si="2"/>
+        <v>75.5</v>
+      </c>
+      <c r="E65">
         <v>80</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="2"/>
-        <v>21.477086633198208</v>
       </c>
       <c r="F65">
         <f t="shared" si="3"/>
+        <v>176.25</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="4"/>
+        <v>21.477086633198208</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="G65" t="str">
-        <f t="shared" si="4"/>
+      <c r="I65" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H65" t="s">
+      <c r="J65" t="s">
         <v>30</v>
       </c>
-      <c r="I65" t="s">
+      <c r="K65" t="s">
         <v>12</v>
       </c>
-      <c r="J65" t="s">
+      <c r="L65" t="s">
         <v>33</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>102</v>
       </c>
-      <c r="L65">
-        <f t="shared" si="5"/>
+      <c r="N65" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="8"/>
         <v>37230</v>
       </c>
-      <c r="N65" t="s">
+      <c r="Q65" t="s">
         <v>199</v>
       </c>
-      <c r="O65" t="s">
+      <c r="R65" t="s">
         <v>15</v>
       </c>
-      <c r="P65" t="str">
-        <f t="shared" si="6"/>
+      <c r="S65" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="T65" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>200</v>
       </c>
@@ -5406,1306 +6195,1582 @@
       <c r="C66">
         <v>191</v>
       </c>
-      <c r="D66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66">
+      <c r="D66" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F66">
+        <v>75</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G66" t="str">
-        <f t="shared" si="4"/>
+      <c r="I66" t="str">
+        <f t="shared" si="6"/>
         <v>Lighter</v>
       </c>
-      <c r="H66" t="s">
+      <c r="J66" t="s">
         <v>45</v>
       </c>
-      <c r="I66" t="s">
+      <c r="K66" t="s">
         <v>201</v>
       </c>
-      <c r="J66" t="s">
+      <c r="L66" t="s">
         <v>33</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>67</v>
       </c>
-      <c r="L66">
-        <f t="shared" si="5"/>
+      <c r="N66" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="8"/>
         <v>24455</v>
       </c>
-      <c r="N66" t="s">
+      <c r="Q66" t="s">
         <v>35</v>
       </c>
-      <c r="O66" t="s">
+      <c r="R66" t="s">
         <v>15</v>
       </c>
-      <c r="P66" t="str">
-        <f t="shared" si="6"/>
+      <c r="S66" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="T66" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>202</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B88" si="7">C67/100</f>
+        <f t="shared" ref="B67:B88" si="10">C67/100</f>
         <v>1.83</v>
       </c>
       <c r="C67">
         <v>183</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="4">
+        <f t="shared" ref="D67:D88" si="11">FLOOR(CONVERT(C67,"cm","in"),0.5)</f>
+        <v>72</v>
+      </c>
+      <c r="E67">
         <v>79</v>
       </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E88" si="8">IF(OR(C67="NA",D67="NA"),0, D67/B67^2)</f>
+      <c r="F67">
+        <f t="shared" ref="F67:F88" si="12">FLOOR(CONVERT(E67,"kg","lbm"),0.25)</f>
+        <v>174</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G88" si="13">IF(OR(C67="NA",E67="NA"),0, E67/B67^2)</f>
         <v>23.589835468362743</v>
       </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F88" si="9">RANK(E67,$E$2:$E$88)</f>
+      <c r="H67">
+        <f t="shared" ref="H67:H88" si="14">RANK(G67,$G$2:$G$88)</f>
         <v>37</v>
       </c>
-      <c r="G67" t="str">
-        <f t="shared" ref="G67:G88" si="10">IFERROR(IF($E$5&gt;E67, "Lighter", "Heavier"), "Missing Data")</f>
+      <c r="I67" t="str">
+        <f t="shared" ref="I67:I88" si="15">IFERROR(IF($G$5&gt;G67, "Lighter", "Heavier"), "Missing Data")</f>
         <v>Lighter</v>
       </c>
-      <c r="H67" t="s">
+      <c r="J67" t="s">
         <v>45</v>
       </c>
-      <c r="I67" t="s">
+      <c r="K67" t="s">
         <v>201</v>
       </c>
-      <c r="J67" t="s">
+      <c r="L67" t="s">
         <v>33</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>66</v>
       </c>
-      <c r="L67">
-        <f t="shared" ref="L67:L88" si="11">IF(K67="NA", 0, K67*365)</f>
+      <c r="N67" t="b">
+        <f t="shared" ref="N67:N88" si="16">ISNUMBER(M67)</f>
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:O87" si="17">IF(M67="NA", 0, M67*365)</f>
         <v>24090</v>
       </c>
-      <c r="N67" t="s">
+      <c r="Q67" t="s">
         <v>203</v>
       </c>
-      <c r="O67" t="s">
+      <c r="R67" t="s">
         <v>15</v>
       </c>
-      <c r="P67" t="str">
-        <f t="shared" si="6"/>
+      <c r="S67" t="str">
+        <f t="shared" si="9"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="T67" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>204</v>
       </c>
       <c r="B68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.68</v>
       </c>
       <c r="C68">
         <v>168</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="4">
+        <f t="shared" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="E68">
         <v>55</v>
       </c>
-      <c r="E68">
-        <f t="shared" si="8"/>
+      <c r="F68">
+        <f t="shared" si="12"/>
+        <v>121.25</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="13"/>
         <v>19.486961451247168</v>
       </c>
-      <c r="F68">
+      <c r="H68">
+        <f t="shared" si="14"/>
+        <v>47</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="15"/>
+        <v>Lighter</v>
+      </c>
+      <c r="J68" t="s">
+        <v>205</v>
+      </c>
+      <c r="K68" t="s">
+        <v>206</v>
+      </c>
+      <c r="L68" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>207</v>
+      </c>
+      <c r="R68" t="s">
+        <v>208</v>
+      </c>
+      <c r="S68" t="str">
         <f t="shared" si="9"/>
-        <v>47</v>
-      </c>
-      <c r="G68" t="str">
-        <f t="shared" si="10"/>
-        <v>Lighter</v>
-      </c>
-      <c r="H68" t="s">
-        <v>205</v>
-      </c>
-      <c r="I68" t="s">
-        <v>206</v>
-      </c>
-      <c r="J68" t="s">
-        <v>20</v>
-      </c>
-      <c r="K68" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N68" t="s">
-        <v>207</v>
-      </c>
-      <c r="O68" t="s">
-        <v>208</v>
-      </c>
-      <c r="P68" t="str">
-        <f t="shared" si="6"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="T68" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>209</v>
       </c>
       <c r="B69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.98</v>
       </c>
       <c r="C69">
         <v>198</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="4">
+        <f t="shared" si="11"/>
+        <v>77.5</v>
+      </c>
+      <c r="E69">
         <v>102</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="8"/>
+      <c r="F69">
+        <f t="shared" si="12"/>
+        <v>224.75</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="13"/>
         <v>26.017753290480563</v>
       </c>
-      <c r="F69">
+      <c r="H69">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="15"/>
+        <v>Lighter</v>
+      </c>
+      <c r="J69" t="s">
+        <v>29</v>
+      </c>
+      <c r="K69" t="s">
+        <v>33</v>
+      </c>
+      <c r="L69" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>210</v>
+      </c>
+      <c r="R69" t="s">
+        <v>211</v>
+      </c>
+      <c r="S69" t="str">
         <f t="shared" si="9"/>
-        <v>19</v>
-      </c>
-      <c r="G69" t="str">
-        <f t="shared" si="10"/>
-        <v>Lighter</v>
-      </c>
-      <c r="H69" t="s">
-        <v>29</v>
-      </c>
-      <c r="I69" t="s">
-        <v>33</v>
-      </c>
-      <c r="J69" t="s">
-        <v>20</v>
-      </c>
-      <c r="K69" t="s">
-        <v>18</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N69" t="s">
-        <v>210</v>
-      </c>
-      <c r="O69" t="s">
-        <v>211</v>
-      </c>
-      <c r="P69" t="str">
-        <f t="shared" si="6"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="T69" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>212</v>
       </c>
       <c r="B70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.29</v>
       </c>
       <c r="C70">
         <v>229</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="4">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="E70">
         <v>88</v>
       </c>
-      <c r="E70">
-        <f t="shared" si="8"/>
+      <c r="F70">
+        <f t="shared" si="12"/>
+        <v>194</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="13"/>
         <v>16.780763143342039</v>
       </c>
-      <c r="F70">
+      <c r="H70">
+        <f t="shared" si="14"/>
+        <v>54</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="15"/>
+        <v>Lighter</v>
+      </c>
+      <c r="J70" t="s">
+        <v>29</v>
+      </c>
+      <c r="K70" t="s">
+        <v>82</v>
+      </c>
+      <c r="L70" t="s">
+        <v>45</v>
+      </c>
+      <c r="M70" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>86</v>
+      </c>
+      <c r="R70" t="s">
+        <v>213</v>
+      </c>
+      <c r="S70" t="str">
         <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="G70" t="str">
-        <f t="shared" si="10"/>
-        <v>Lighter</v>
-      </c>
-      <c r="H70" t="s">
-        <v>29</v>
-      </c>
-      <c r="I70" t="s">
-        <v>82</v>
-      </c>
-      <c r="J70" t="s">
-        <v>45</v>
-      </c>
-      <c r="K70" t="s">
-        <v>18</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N70" t="s">
-        <v>86</v>
-      </c>
-      <c r="O70" t="s">
-        <v>213</v>
-      </c>
-      <c r="P70" t="str">
-        <f t="shared" si="6"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="T70" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>214</v>
       </c>
       <c r="B71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.13</v>
       </c>
       <c r="C71">
         <v>213</v>
       </c>
-      <c r="D71" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F71">
+      <c r="D71" s="4">
+        <f t="shared" si="11"/>
+        <v>83.5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="15"/>
+        <v>Lighter</v>
+      </c>
+      <c r="J71" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" t="s">
+        <v>82</v>
+      </c>
+      <c r="L71" t="s">
+        <v>45</v>
+      </c>
+      <c r="M71" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>86</v>
+      </c>
+      <c r="R71" t="s">
+        <v>213</v>
+      </c>
+      <c r="S71" t="str">
         <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="G71" t="str">
-        <f t="shared" si="10"/>
-        <v>Lighter</v>
-      </c>
-      <c r="H71" t="s">
-        <v>29</v>
-      </c>
-      <c r="I71" t="s">
-        <v>82</v>
-      </c>
-      <c r="J71" t="s">
-        <v>45</v>
-      </c>
-      <c r="K71" t="s">
-        <v>18</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N71" t="s">
-        <v>86</v>
-      </c>
-      <c r="O71" t="s">
-        <v>213</v>
-      </c>
-      <c r="P71" t="str">
-        <f t="shared" si="6"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="T71" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>215</v>
       </c>
       <c r="B72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.67</v>
       </c>
       <c r="C72">
         <v>167</v>
       </c>
-      <c r="D72" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F72">
+      <c r="D72" s="4">
+        <f t="shared" si="11"/>
+        <v>65.5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="15"/>
+        <v>Lighter</v>
+      </c>
+      <c r="J72" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" t="s">
+        <v>13</v>
+      </c>
+      <c r="M72" t="s">
+        <v>18</v>
+      </c>
+      <c r="N72" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>123</v>
+      </c>
+      <c r="R72" t="s">
+        <v>15</v>
+      </c>
+      <c r="S72" t="str">
         <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="G72" t="str">
-        <f t="shared" si="10"/>
-        <v>Lighter</v>
-      </c>
-      <c r="H72" t="s">
-        <v>30</v>
-      </c>
-      <c r="I72" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" t="s">
-        <v>13</v>
-      </c>
-      <c r="K72" t="s">
-        <v>18</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N72" t="s">
-        <v>123</v>
-      </c>
-      <c r="O72" t="s">
-        <v>15</v>
-      </c>
-      <c r="P72" t="str">
-        <f t="shared" si="6"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="T72" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>216</v>
       </c>
       <c r="B73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.79</v>
       </c>
       <c r="C73">
         <v>79</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="4">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="E73">
         <v>15</v>
       </c>
-      <c r="E73">
-        <f t="shared" si="8"/>
+      <c r="F73">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="13"/>
         <v>24.034609838166958</v>
       </c>
-      <c r="F73">
+      <c r="H73">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="15"/>
+        <v>Lighter</v>
+      </c>
+      <c r="J73" t="s">
+        <v>29</v>
+      </c>
+      <c r="K73" t="s">
+        <v>217</v>
+      </c>
+      <c r="L73" t="s">
+        <v>57</v>
+      </c>
+      <c r="M73" t="s">
+        <v>18</v>
+      </c>
+      <c r="N73" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>218</v>
+      </c>
+      <c r="R73" t="s">
+        <v>219</v>
+      </c>
+      <c r="S73" t="str">
         <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="10"/>
-        <v>Lighter</v>
-      </c>
-      <c r="H73" t="s">
-        <v>29</v>
-      </c>
-      <c r="I73" t="s">
-        <v>217</v>
-      </c>
-      <c r="J73" t="s">
-        <v>57</v>
-      </c>
-      <c r="K73" t="s">
-        <v>18</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N73" t="s">
-        <v>218</v>
-      </c>
-      <c r="O73" t="s">
-        <v>219</v>
-      </c>
-      <c r="P73" t="str">
-        <f t="shared" si="6"/>
         <v>The Phantom Menace</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="T73" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>220</v>
       </c>
       <c r="B74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.96</v>
       </c>
       <c r="C74">
         <v>96</v>
       </c>
-      <c r="D74" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F74">
+      <c r="D74" s="4">
+        <f t="shared" si="11"/>
+        <v>37.5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="15"/>
+        <v>Lighter</v>
+      </c>
+      <c r="J74" t="s">
+        <v>29</v>
+      </c>
+      <c r="K74" t="s">
+        <v>221</v>
+      </c>
+      <c r="L74" t="s">
+        <v>222</v>
+      </c>
+      <c r="M74" t="s">
+        <v>18</v>
+      </c>
+      <c r="N74" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>18</v>
+      </c>
+      <c r="R74" t="s">
+        <v>18</v>
+      </c>
+      <c r="S74" t="str">
         <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="G74" t="str">
-        <f t="shared" si="10"/>
-        <v>Lighter</v>
-      </c>
-      <c r="H74" t="s">
-        <v>29</v>
-      </c>
-      <c r="I74" t="s">
-        <v>221</v>
-      </c>
-      <c r="J74" t="s">
-        <v>222</v>
-      </c>
-      <c r="K74" t="s">
-        <v>18</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N74" t="s">
-        <v>18</v>
-      </c>
-      <c r="O74" t="s">
-        <v>18</v>
-      </c>
-      <c r="P74" t="str">
-        <f t="shared" si="6"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="T74" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>223</v>
       </c>
       <c r="B75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.93</v>
       </c>
       <c r="C75">
         <v>193</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="4">
+        <f t="shared" si="11"/>
+        <v>75.5</v>
+      </c>
+      <c r="E75">
         <v>48</v>
       </c>
-      <c r="E75">
-        <f t="shared" si="8"/>
+      <c r="F75">
+        <f t="shared" si="12"/>
+        <v>105.75</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="13"/>
         <v>12.886251979918924</v>
       </c>
-      <c r="F75">
+      <c r="H75">
+        <f t="shared" si="14"/>
+        <v>59</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="15"/>
+        <v>Lighter</v>
+      </c>
+      <c r="J75" t="s">
+        <v>29</v>
+      </c>
+      <c r="K75" t="s">
+        <v>224</v>
+      </c>
+      <c r="L75" t="s">
+        <v>57</v>
+      </c>
+      <c r="M75" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>225</v>
+      </c>
+      <c r="R75" t="s">
+        <v>226</v>
+      </c>
+      <c r="S75" t="str">
         <f t="shared" si="9"/>
-        <v>59</v>
-      </c>
-      <c r="G75" t="str">
-        <f t="shared" si="10"/>
-        <v>Lighter</v>
-      </c>
-      <c r="H75" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" t="s">
-        <v>224</v>
-      </c>
-      <c r="J75" t="s">
-        <v>57</v>
-      </c>
-      <c r="K75" t="s">
-        <v>18</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N75" t="s">
-        <v>225</v>
-      </c>
-      <c r="O75" t="s">
-        <v>226</v>
-      </c>
-      <c r="P75" t="str">
-        <f t="shared" si="6"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="T75" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>227</v>
       </c>
       <c r="B76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.91</v>
       </c>
       <c r="C76">
         <v>191</v>
       </c>
-      <c r="D76" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F76">
+      <c r="D76" s="4">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="15"/>
+        <v>Lighter</v>
+      </c>
+      <c r="J76" t="s">
+        <v>29</v>
+      </c>
+      <c r="K76" t="s">
+        <v>82</v>
+      </c>
+      <c r="L76" t="s">
+        <v>19</v>
+      </c>
+      <c r="M76" t="s">
+        <v>18</v>
+      </c>
+      <c r="N76" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>228</v>
+      </c>
+      <c r="R76" t="s">
+        <v>229</v>
+      </c>
+      <c r="S76" t="str">
         <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="G76" t="str">
-        <f t="shared" si="10"/>
-        <v>Lighter</v>
-      </c>
-      <c r="H76" t="s">
-        <v>29</v>
-      </c>
-      <c r="I76" t="s">
-        <v>82</v>
-      </c>
-      <c r="J76" t="s">
-        <v>19</v>
-      </c>
-      <c r="K76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N76" t="s">
-        <v>228</v>
-      </c>
-      <c r="O76" t="s">
-        <v>229</v>
-      </c>
-      <c r="P76" t="str">
-        <f t="shared" si="6"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="T76" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>230</v>
       </c>
       <c r="B77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.78</v>
       </c>
       <c r="C77">
         <v>178</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="4">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="E77">
         <v>57</v>
       </c>
-      <c r="E77">
-        <f t="shared" si="8"/>
+      <c r="F77">
+        <f t="shared" si="12"/>
+        <v>125.5</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="13"/>
         <v>17.99015275849009</v>
       </c>
-      <c r="F77">
+      <c r="H77">
+        <f t="shared" si="14"/>
+        <v>51</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="15"/>
+        <v>Lighter</v>
+      </c>
+      <c r="J77" t="s">
+        <v>29</v>
+      </c>
+      <c r="K77" t="s">
+        <v>231</v>
+      </c>
+      <c r="L77" t="s">
+        <v>45</v>
+      </c>
+      <c r="M77" t="s">
+        <v>18</v>
+      </c>
+      <c r="N77" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>232</v>
+      </c>
+      <c r="R77" t="s">
+        <v>233</v>
+      </c>
+      <c r="S77" t="str">
         <f t="shared" si="9"/>
-        <v>51</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="10"/>
-        <v>Lighter</v>
-      </c>
-      <c r="H77" t="s">
-        <v>29</v>
-      </c>
-      <c r="I77" t="s">
-        <v>231</v>
-      </c>
-      <c r="J77" t="s">
-        <v>45</v>
-      </c>
-      <c r="K77" t="s">
-        <v>18</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N77" t="s">
-        <v>232</v>
-      </c>
-      <c r="O77" t="s">
-        <v>233</v>
-      </c>
-      <c r="P77" t="str">
-        <f t="shared" si="6"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="T77" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>234</v>
       </c>
       <c r="B78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.16</v>
       </c>
       <c r="C78">
         <v>216</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="4">
+        <f t="shared" si="11"/>
+        <v>85</v>
+      </c>
+      <c r="E78">
         <v>159</v>
       </c>
-      <c r="E78">
-        <f t="shared" si="8"/>
+      <c r="F78">
+        <f t="shared" si="12"/>
+        <v>350.5</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="13"/>
         <v>34.079218106995881</v>
       </c>
-      <c r="F78">
+      <c r="H78">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="15"/>
+        <v>Heavier</v>
+      </c>
+      <c r="J78" t="s">
+        <v>29</v>
+      </c>
+      <c r="K78" t="s">
+        <v>235</v>
+      </c>
+      <c r="L78" t="s">
+        <v>236</v>
+      </c>
+      <c r="M78" t="s">
+        <v>18</v>
+      </c>
+      <c r="N78" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>237</v>
+      </c>
+      <c r="R78" t="s">
+        <v>238</v>
+      </c>
+      <c r="S78" t="str">
         <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" si="10"/>
-        <v>Heavier</v>
-      </c>
-      <c r="H78" t="s">
-        <v>29</v>
-      </c>
-      <c r="I78" t="s">
-        <v>235</v>
-      </c>
-      <c r="J78" t="s">
-        <v>236</v>
-      </c>
-      <c r="K78" t="s">
-        <v>18</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N78" t="s">
-        <v>237</v>
-      </c>
-      <c r="O78" t="s">
-        <v>238</v>
-      </c>
-      <c r="P78" t="str">
-        <f t="shared" si="6"/>
         <v>Revenge of the Sith</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="T78" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>240</v>
       </c>
       <c r="B79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.34</v>
       </c>
       <c r="C79">
         <v>234</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="4">
+        <f t="shared" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="E79">
         <v>136</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="8"/>
+      <c r="F79">
+        <f t="shared" si="12"/>
+        <v>299.75</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="13"/>
         <v>24.837460734896638</v>
       </c>
-      <c r="F79">
+      <c r="H79">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="15"/>
+        <v>Lighter</v>
+      </c>
+      <c r="J79" t="s">
+        <v>33</v>
+      </c>
+      <c r="K79" t="s">
+        <v>33</v>
+      </c>
+      <c r="L79" t="s">
+        <v>13</v>
+      </c>
+      <c r="M79" t="s">
+        <v>18</v>
+      </c>
+      <c r="N79" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>58</v>
+      </c>
+      <c r="R79" t="s">
+        <v>59</v>
+      </c>
+      <c r="S79" t="str">
         <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="G79" t="str">
-        <f t="shared" si="10"/>
-        <v>Lighter</v>
-      </c>
-      <c r="H79" t="s">
-        <v>33</v>
-      </c>
-      <c r="I79" t="s">
-        <v>33</v>
-      </c>
-      <c r="J79" t="s">
-        <v>13</v>
-      </c>
-      <c r="K79" t="s">
-        <v>18</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N79" t="s">
-        <v>58</v>
-      </c>
-      <c r="O79" t="s">
-        <v>59</v>
-      </c>
-      <c r="P79" t="str">
-        <f t="shared" si="6"/>
         <v>Revenge of the Sith</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="T79" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>241</v>
       </c>
       <c r="B80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.88</v>
       </c>
       <c r="C80">
         <v>188</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="4">
+        <f t="shared" si="11"/>
+        <v>74</v>
+      </c>
+      <c r="E80">
         <v>79</v>
       </c>
-      <c r="E80">
-        <f t="shared" si="8"/>
+      <c r="F80">
+        <f t="shared" si="12"/>
+        <v>174</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="13"/>
         <v>22.351742870076958</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="9"/>
+      <c r="H80">
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
-      <c r="G80" t="str">
-        <f t="shared" si="10"/>
+      <c r="I80" t="str">
+        <f t="shared" si="15"/>
         <v>Lighter</v>
-      </c>
-      <c r="H80" t="s">
-        <v>33</v>
-      </c>
-      <c r="I80" t="s">
-        <v>34</v>
       </c>
       <c r="J80" t="s">
         <v>33</v>
       </c>
       <c r="K80" t="s">
-        <v>18</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N80" t="s">
+        <v>34</v>
+      </c>
+      <c r="L80" t="s">
+        <v>33</v>
+      </c>
+      <c r="M80" t="s">
+        <v>18</v>
+      </c>
+      <c r="N80" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" t="s">
         <v>35</v>
       </c>
-      <c r="O80" t="s">
+      <c r="R80" t="s">
         <v>15</v>
       </c>
-      <c r="P80" t="str">
-        <f t="shared" si="6"/>
+      <c r="S80" t="str">
+        <f t="shared" si="9"/>
         <v>Revenge of the Sith</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="T80" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>242</v>
       </c>
       <c r="B81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.78</v>
       </c>
       <c r="C81">
         <v>178</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="4">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="E81">
         <v>48</v>
       </c>
-      <c r="E81">
-        <f t="shared" si="8"/>
+      <c r="F81">
+        <f t="shared" si="12"/>
+        <v>105.75</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="13"/>
         <v>15.149602322939023</v>
       </c>
-      <c r="F81">
+      <c r="H81">
+        <f t="shared" si="14"/>
+        <v>57</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="15"/>
+        <v>Lighter</v>
+      </c>
+      <c r="J81" t="s">
+        <v>29</v>
+      </c>
+      <c r="K81" t="s">
+        <v>83</v>
+      </c>
+      <c r="L81" t="s">
+        <v>30</v>
+      </c>
+      <c r="M81" t="s">
+        <v>18</v>
+      </c>
+      <c r="N81" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>243</v>
+      </c>
+      <c r="R81" t="s">
+        <v>18</v>
+      </c>
+      <c r="S81" t="str">
         <f t="shared" si="9"/>
-        <v>57</v>
-      </c>
-      <c r="G81" t="str">
-        <f t="shared" si="10"/>
-        <v>Lighter</v>
-      </c>
-      <c r="H81" t="s">
-        <v>29</v>
-      </c>
-      <c r="I81" t="s">
-        <v>83</v>
-      </c>
-      <c r="J81" t="s">
-        <v>30</v>
-      </c>
-      <c r="K81" t="s">
-        <v>18</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N81" t="s">
-        <v>243</v>
-      </c>
-      <c r="O81" t="s">
-        <v>18</v>
-      </c>
-      <c r="P81" t="str">
-        <f t="shared" si="6"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="T81" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>244</v>
       </c>
       <c r="B82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.06</v>
       </c>
       <c r="C82">
         <v>206</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="4">
+        <f t="shared" si="11"/>
+        <v>81</v>
+      </c>
+      <c r="E82">
         <v>80</v>
       </c>
-      <c r="E82">
-        <f t="shared" si="8"/>
+      <c r="F82">
+        <f t="shared" si="12"/>
+        <v>176.25</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="13"/>
         <v>18.851918182675089</v>
       </c>
-      <c r="F82">
+      <c r="H82">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="15"/>
+        <v>Lighter</v>
+      </c>
+      <c r="J82" t="s">
+        <v>29</v>
+      </c>
+      <c r="K82" t="s">
+        <v>82</v>
+      </c>
+      <c r="L82" t="s">
+        <v>45</v>
+      </c>
+      <c r="M82" t="s">
+        <v>18</v>
+      </c>
+      <c r="N82" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>245</v>
+      </c>
+      <c r="R82" t="s">
+        <v>246</v>
+      </c>
+      <c r="S82" t="str">
         <f t="shared" si="9"/>
-        <v>49</v>
-      </c>
-      <c r="G82" t="str">
-        <f t="shared" si="10"/>
-        <v>Lighter</v>
-      </c>
-      <c r="H82" t="s">
-        <v>29</v>
-      </c>
-      <c r="I82" t="s">
-        <v>82</v>
-      </c>
-      <c r="J82" t="s">
-        <v>45</v>
-      </c>
-      <c r="K82" t="s">
-        <v>18</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N82" t="s">
-        <v>245</v>
-      </c>
-      <c r="O82" t="s">
-        <v>246</v>
-      </c>
-      <c r="P82" t="str">
-        <f t="shared" si="6"/>
         <v>Revenge of the Sith</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="T82" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>247</v>
       </c>
       <c r="B83" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="C83" t="s">
         <v>18</v>
       </c>
-      <c r="D83" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F83">
+      <c r="D83" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E83" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="15"/>
+        <v>Lighter</v>
+      </c>
+      <c r="J83" t="s">
+        <v>45</v>
+      </c>
+      <c r="K83" t="s">
+        <v>95</v>
+      </c>
+      <c r="L83" t="s">
+        <v>95</v>
+      </c>
+      <c r="M83" t="s">
+        <v>18</v>
+      </c>
+      <c r="N83" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>18</v>
+      </c>
+      <c r="R83" t="s">
+        <v>15</v>
+      </c>
+      <c r="S83" t="str">
         <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="G83" t="str">
-        <f t="shared" si="10"/>
-        <v>Lighter</v>
-      </c>
-      <c r="H83" t="s">
-        <v>45</v>
-      </c>
-      <c r="I83" t="s">
-        <v>95</v>
-      </c>
-      <c r="J83" t="s">
-        <v>95</v>
-      </c>
-      <c r="K83" t="s">
-        <v>18</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N83" t="s">
-        <v>18</v>
-      </c>
-      <c r="O83" t="s">
-        <v>15</v>
-      </c>
-      <c r="P83" t="str">
-        <f t="shared" si="6"/>
         <v>The Force Awakens</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="T83" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>249</v>
       </c>
       <c r="B84" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="C84" t="s">
         <v>18</v>
       </c>
-      <c r="D84" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F84">
+      <c r="D84" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E84" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="15"/>
+        <v>Lighter</v>
+      </c>
+      <c r="J84" t="s">
+        <v>33</v>
+      </c>
+      <c r="K84" t="s">
+        <v>34</v>
+      </c>
+      <c r="L84" t="s">
+        <v>74</v>
+      </c>
+      <c r="M84" t="s">
+        <v>18</v>
+      </c>
+      <c r="N84" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>18</v>
+      </c>
+      <c r="R84" t="s">
+        <v>15</v>
+      </c>
+      <c r="S84" t="str">
         <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="G84" t="str">
-        <f t="shared" si="10"/>
-        <v>Lighter</v>
-      </c>
-      <c r="H84" t="s">
-        <v>33</v>
-      </c>
-      <c r="I84" t="s">
-        <v>34</v>
-      </c>
-      <c r="J84" t="s">
-        <v>74</v>
-      </c>
-      <c r="K84" t="s">
-        <v>18</v>
-      </c>
-      <c r="L84">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N84" t="s">
-        <v>18</v>
-      </c>
-      <c r="O84" t="s">
-        <v>15</v>
-      </c>
-      <c r="P84" t="str">
-        <f t="shared" si="6"/>
         <v>The Force Awakens</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="T84" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>250</v>
       </c>
       <c r="B85" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
       </c>
-      <c r="D85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="9"/>
+      <c r="D85" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E85" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
-      <c r="G85" t="str">
-        <f t="shared" si="10"/>
+      <c r="I85" t="str">
+        <f t="shared" si="15"/>
         <v>Lighter</v>
-      </c>
-      <c r="H85" t="s">
-        <v>33</v>
-      </c>
-      <c r="I85" t="s">
-        <v>34</v>
       </c>
       <c r="J85" t="s">
         <v>33</v>
       </c>
       <c r="K85" t="s">
-        <v>18</v>
-      </c>
-      <c r="L85">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N85" t="s">
-        <v>18</v>
-      </c>
-      <c r="O85" t="s">
+        <v>34</v>
+      </c>
+      <c r="L85" t="s">
+        <v>33</v>
+      </c>
+      <c r="M85" t="s">
+        <v>18</v>
+      </c>
+      <c r="N85" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>18</v>
+      </c>
+      <c r="R85" t="s">
         <v>15</v>
       </c>
-      <c r="P85" t="str">
-        <f t="shared" si="6"/>
+      <c r="S85" t="str">
+        <f t="shared" si="9"/>
         <v>The Force Awakens</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="T85" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>251</v>
       </c>
       <c r="B86" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
       </c>
-      <c r="D86" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="9"/>
+      <c r="D86" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
-      <c r="G86" t="str">
-        <f t="shared" si="10"/>
+      <c r="I86" t="str">
+        <f t="shared" si="15"/>
         <v>Lighter</v>
       </c>
-      <c r="H86" t="s">
+      <c r="J86" t="s">
         <v>29</v>
       </c>
-      <c r="I86" t="s">
+      <c r="K86" t="s">
         <v>29</v>
       </c>
-      <c r="J86" t="s">
+      <c r="L86" t="s">
         <v>45</v>
       </c>
-      <c r="K86" t="s">
-        <v>18</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N86" t="s">
-        <v>18</v>
-      </c>
-      <c r="O86" t="s">
+      <c r="M86" t="s">
+        <v>18</v>
+      </c>
+      <c r="N86" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>18</v>
+      </c>
+      <c r="R86" t="s">
         <v>21</v>
       </c>
-      <c r="P86" t="str">
-        <f t="shared" ref="P86:P88" si="12">TRIM(IFERROR(LEFT(Q86,(FIND(",",Q86))-1), Q86))</f>
+      <c r="S86" t="str">
+        <f t="shared" ref="S86:S88" si="18">TRIM(IFERROR(LEFT(T86,(FIND(",",T86))-1), T86))</f>
         <v>The Force Awakens</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="T86" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>252</v>
       </c>
       <c r="B87" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
       </c>
-      <c r="D87" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="9"/>
+      <c r="D87" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
-      <c r="G87" t="str">
-        <f t="shared" si="10"/>
+      <c r="I87" t="str">
+        <f t="shared" si="15"/>
         <v>Lighter</v>
-      </c>
-      <c r="H87" t="s">
-        <v>57</v>
-      </c>
-      <c r="I87" t="s">
-        <v>57</v>
       </c>
       <c r="J87" t="s">
         <v>57</v>
       </c>
       <c r="K87" t="s">
-        <v>18</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N87" t="s">
-        <v>18</v>
-      </c>
-      <c r="O87" t="s">
-        <v>18</v>
-      </c>
-      <c r="P87" t="str">
-        <f t="shared" si="12"/>
+        <v>57</v>
+      </c>
+      <c r="L87" t="s">
+        <v>57</v>
+      </c>
+      <c r="M87" t="s">
+        <v>18</v>
+      </c>
+      <c r="N87" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>18</v>
+      </c>
+      <c r="R87" t="s">
+        <v>18</v>
+      </c>
+      <c r="S87" t="str">
+        <f t="shared" si="18"/>
         <v>The Force Awakens</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="T87" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>253</v>
       </c>
       <c r="B88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.65</v>
       </c>
       <c r="C88">
         <v>165</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="4">
+        <f t="shared" si="11"/>
+        <v>64.5</v>
+      </c>
+      <c r="E88">
         <v>45</v>
       </c>
-      <c r="E88">
-        <f t="shared" si="8"/>
+      <c r="F88">
+        <f t="shared" si="12"/>
+        <v>99</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="13"/>
         <v>16.528925619834713</v>
       </c>
-      <c r="F88">
-        <f t="shared" si="9"/>
+      <c r="H88">
+        <f t="shared" si="14"/>
         <v>55</v>
       </c>
-      <c r="G88" t="str">
-        <f t="shared" si="10"/>
+      <c r="I88" t="str">
+        <f t="shared" si="15"/>
         <v>Lighter</v>
-      </c>
-      <c r="H88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I88" t="s">
-        <v>34</v>
       </c>
       <c r="J88" t="s">
         <v>33</v>
       </c>
-      <c r="K88">
+      <c r="K88" t="s">
+        <v>34</v>
+      </c>
+      <c r="L88" t="s">
+        <v>33</v>
+      </c>
+      <c r="M88">
         <v>46</v>
       </c>
-      <c r="L88">
+      <c r="N88" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="O88">
         <v>16790</v>
       </c>
-      <c r="N88" t="s">
+      <c r="Q88" t="s">
         <v>26</v>
       </c>
-      <c r="O88" t="s">
+      <c r="R88" t="s">
         <v>15</v>
       </c>
-      <c r="P88" t="str">
-        <f t="shared" si="12"/>
+      <c r="S88" t="str">
+        <f t="shared" si="18"/>
         <v>Attack of the Clones</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="T88" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D91" t="s">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
         <v>268</v>
       </c>
-      <c r="E91">
-        <f>AVERAGEIF(E2:E88, "&lt;&gt;0")</f>
+      <c r="G91">
+        <f>AVERAGEIF(G2:G88, "&lt;&gt;0")</f>
         <v>32.048638992833226</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D92" t="s">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
         <v>276</v>
       </c>
-      <c r="E92" s="4">
+      <c r="G92">
         <f>38*365</f>
         <v>13870</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D93" t="s">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E93" t="s">
         <v>275</v>
       </c>
-      <c r="E93" t="str">
-        <f>_xlfn.XLOOKUP(E92,L2:L88,A2:A88,"Not Found",-1)</f>
+      <c r="G93" t="str">
+        <f>_xlfn.XLOOKUP(G92,O2:O88,A2:A88,"Not Found",-1)</f>
         <v>Lobot</v>
       </c>
     </row>

--- a/starwars_worked.xlsx
+++ b/starwars_worked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcool\workspace\excel\data\starwars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBA48C9-83A0-46FD-B11F-6E76E6C2DD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1020C0-58E2-4D18-801B-596487E5ABE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="starwars" sheetId="1" r:id="rId1"/>
@@ -1789,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8181,8 +8181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FA28E1-BAA3-4B8B-A303-A05FEE6F2B32}">
   <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/starwars_worked.xlsx
+++ b/starwars_worked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcool\workspace\excel\data\starwars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1020C0-58E2-4D18-801B-596487E5ABE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEC5F3A-E295-4591-90A8-855BB9F7EEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1789,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="M61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8181,8 +8181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FA28E1-BAA3-4B8B-A303-A05FEE6F2B32}">
   <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/starwars_worked.xlsx
+++ b/starwars_worked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcool\workspace\excel\data\starwars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEC5F3A-E295-4591-90A8-855BB9F7EEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCF385F-3965-40B2-91CF-1C8CD3B2B373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="starwars" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="291">
   <si>
     <t>name</t>
   </si>
@@ -918,6 +918,21 @@
   </si>
   <si>
     <t>midpoint</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>w/o functions</t>
+  </si>
+  <si>
+    <t>functions</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1086,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1263,6 +1278,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1424,7 +1445,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1432,6 +1453,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1477,7 +1499,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1789,7 +1822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
@@ -8179,16 +8212,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FA28E1-BAA3-4B8B-A303-A05FEE6F2B32}">
-  <dimension ref="A1:U87"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -13522,6 +13557,11 @@
         <v>The Phantom Menace</v>
       </c>
     </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C85" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C86" s="6" t="s">
         <v>283</v>
@@ -13539,9 +13579,71 @@
         <f>COUNT(D2:D82)/2</f>
         <v>40.5</v>
       </c>
+      <c r="G87">
+        <f>VLOOKUP(D87,C2:U82,2,TRUE)</f>
+        <v>180</v>
+      </c>
+      <c r="H87">
+        <f>VLOOKUP(39,C2:U82,2,TRUE)</f>
+        <v>180</v>
+      </c>
+      <c r="I87">
+        <f>VLOOKUP(43,C2:U82,2,TRUE)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C88" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D88">
+        <f>VLOOKUP(D87,C2:U82,2,TRUE)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C89" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C91" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C92" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D92">
+        <f>AVERAGE(D2:D82)</f>
+        <v>174.35802469135803</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C93" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D93">
+        <f>MEDIAN(D2:D82)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C94" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D94">
+        <f>_xlfn.MODE.SNGL(D2:D82)</f>
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D82">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/starwars_worked.xlsx
+++ b/starwars_worked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcool\workspace\excel\data\starwars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0AA9E2-A603-4A92-B3A4-BC5CB16EFB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D178B95A-CCDE-4821-8B30-8A8F58CC7F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="303">
   <si>
     <t>name</t>
   </si>
@@ -907,12 +907,6 @@
     <t>mode</t>
   </si>
   <si>
-    <t>w/o functions</t>
-  </si>
-  <si>
-    <t>functions</t>
-  </si>
-  <si>
     <t>diff_mean</t>
   </si>
   <si>
@@ -929,6 +923,30 @@
   </si>
   <si>
     <t>variance</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>var.p</t>
+  </si>
+  <si>
+    <t>stdevp</t>
+  </si>
+  <si>
+    <t>percentile</t>
+  </si>
+  <si>
+    <t>fx</t>
+  </si>
+  <si>
+    <t>quartile</t>
+  </si>
+  <si>
+    <t>w/o fx</t>
+  </si>
+  <si>
+    <t>vlookup height</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1280,8 +1298,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1396,6 +1420,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1441,16 +1493,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1819,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N93" sqref="N93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1938,7 +1993,7 @@
         <v>169.75</v>
       </c>
       <c r="H2">
-        <f>IF(OR(D2="NA",F2="NA"),0, F2/B2^2)</f>
+        <f t="shared" ref="H2:H33" si="0">IF(OR(D2="NA",F2="NA"),0, F2/B2^2)</f>
         <v>26.027582477014604</v>
       </c>
       <c r="I2">
@@ -1977,7 +2032,7 @@
         <v>15</v>
       </c>
       <c r="T2" t="str">
-        <f t="shared" ref="T2:T24" si="0">TRIM(IFERROR(LEFT(U2,(FIND(",",U2))-1), U2))</f>
+        <f t="shared" ref="T2:T24" si="1">TRIM(IFERROR(LEFT(U2,(FIND(",",U2))-1), U2))</f>
         <v>Revenge of the Sith</v>
       </c>
       <c r="U2" t="s">
@@ -1989,37 +2044,37 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="1">D3/100</f>
+        <f t="shared" ref="B3:B66" si="2">D3/100</f>
         <v>1.67</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="2">IF(ISNUMBER(D3),RANK(D3,$D$2:$D$88,1),"No Info")</f>
+        <f t="shared" ref="C3:C66" si="3">IF(ISNUMBER(D3),RANK(D3,$D$2:$D$88,1),"No Info")</f>
         <v>21</v>
       </c>
       <c r="D3">
         <v>167</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E66" si="3">FLOOR(CONVERT(D3,"cm","in"),0.5)</f>
+        <f t="shared" ref="E3:E66" si="4">FLOOR(CONVERT(D3,"cm","in"),0.5)</f>
         <v>65.5</v>
       </c>
       <c r="F3">
         <v>75</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="4">FLOOR(CONVERT(F3,"kg","lbm"),0.25)</f>
+        <f t="shared" ref="G3:G66" si="5">FLOOR(CONVERT(F3,"kg","lbm"),0.25)</f>
         <v>165.25</v>
       </c>
       <c r="H3">
-        <f>IF(OR(D3="NA",F3="NA"),0, F3/B3^2)</f>
+        <f t="shared" si="0"/>
         <v>26.892323138154829</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="5">RANK(H3,$H$2:$H$88)</f>
+        <f t="shared" ref="I3:I66" si="6">RANK(H3,$H$2:$H$88)</f>
         <v>14</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J66" si="6">IFERROR(IF($H$5&gt;H3, "Lighter", "Heavier"), "Missing Data")</f>
+        <f t="shared" ref="J3:J66" si="7">IFERROR(IF($H$5&gt;H3, "Lighter", "Heavier"), "Missing Data")</f>
         <v>Lighter</v>
       </c>
       <c r="K3" t="s">
@@ -2035,11 +2090,11 @@
         <v>112</v>
       </c>
       <c r="O3" t="b">
-        <f t="shared" ref="O3:O66" si="7">ISNUMBER(N3)</f>
+        <f t="shared" ref="O3:O66" si="8">ISNUMBER(N3)</f>
         <v>1</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="8">IF(N3="NA", 0, N3*365)</f>
+        <f t="shared" ref="P3:P66" si="9">IF(N3="NA", 0, N3*365)</f>
         <v>40880</v>
       </c>
       <c r="R3" t="s">
@@ -2049,7 +2104,7 @@
         <v>21</v>
       </c>
       <c r="T3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U3" t="s">
@@ -2061,37 +2116,37 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
       <c r="C4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D4">
         <v>96</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37.5</v>
       </c>
       <c r="F4">
         <v>32</v>
       </c>
       <c r="G4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70.5</v>
       </c>
       <c r="H4">
-        <f>IF(OR(D4="NA",F4="NA"),0, F4/B4^2)</f>
+        <f t="shared" si="0"/>
         <v>34.722222222222221</v>
       </c>
       <c r="I4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Heavier</v>
       </c>
       <c r="K4" t="s">
@@ -2107,11 +2162,11 @@
         <v>33</v>
       </c>
       <c r="O4" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12045</v>
       </c>
       <c r="R4" t="s">
@@ -2121,7 +2176,7 @@
         <v>21</v>
       </c>
       <c r="T4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U4" t="s">
@@ -2133,37 +2188,37 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.02</v>
       </c>
       <c r="C5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="D5">
         <v>202</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79.5</v>
       </c>
       <c r="F5">
         <v>136</v>
       </c>
       <c r="G5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>299.75</v>
       </c>
       <c r="H5">
-        <f>IF(OR(D5="NA",F5="NA"),0, F5/B5^2)</f>
+        <f t="shared" si="0"/>
         <v>33.330065679835307</v>
       </c>
       <c r="I5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Heavier</v>
       </c>
       <c r="K5" t="s">
@@ -2179,11 +2234,11 @@
         <v>41.9</v>
       </c>
       <c r="O5" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15293.5</v>
       </c>
       <c r="R5" t="s">
@@ -2193,7 +2248,7 @@
         <v>15</v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Revenge of the Sith</v>
       </c>
       <c r="U5" t="s">
@@ -2205,37 +2260,37 @@
         <v>32</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="D6">
         <v>150</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="F6">
         <v>49</v>
       </c>
       <c r="G6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="H6">
-        <f>IF(OR(D6="NA",F6="NA"),0, F6/B6^2)</f>
+        <f t="shared" si="0"/>
         <v>21.777777777777779</v>
       </c>
       <c r="I6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K6" t="s">
@@ -2251,11 +2306,11 @@
         <v>19</v>
       </c>
       <c r="O6" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6935</v>
       </c>
       <c r="R6" t="s">
@@ -2265,7 +2320,7 @@
         <v>15</v>
       </c>
       <c r="T6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Revenge of the Sith</v>
       </c>
       <c r="U6" t="s">
@@ -2277,37 +2332,37 @@
         <v>37</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.78</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="D7">
         <v>178</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="F7">
         <v>120</v>
       </c>
       <c r="G7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>264.5</v>
       </c>
       <c r="H7">
-        <f>IF(OR(D7="NA",F7="NA"),0, F7/B7^2)</f>
+        <f t="shared" si="0"/>
         <v>37.874005807347558</v>
       </c>
       <c r="I7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Heavier</v>
       </c>
       <c r="K7" t="s">
@@ -2323,11 +2378,11 @@
         <v>52</v>
       </c>
       <c r="O7" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18980</v>
       </c>
       <c r="R7" t="s">
@@ -2337,7 +2392,7 @@
         <v>15</v>
       </c>
       <c r="T7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U7" t="s">
@@ -2349,37 +2404,37 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.65</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="D8">
         <v>165</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="F8">
         <v>75</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165.25</v>
       </c>
       <c r="H8">
-        <f>IF(OR(D8="NA",F8="NA"),0, F8/B8^2)</f>
+        <f t="shared" si="0"/>
         <v>27.548209366391188</v>
       </c>
       <c r="I8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K8" t="s">
@@ -2395,11 +2450,11 @@
         <v>47</v>
       </c>
       <c r="O8" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17155</v>
       </c>
       <c r="R8" t="s">
@@ -2409,7 +2464,7 @@
         <v>15</v>
       </c>
       <c r="T8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U8" t="s">
@@ -2421,37 +2476,37 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="D9">
         <v>97</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="F9">
         <v>32</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70.5</v>
       </c>
       <c r="H9">
-        <f>IF(OR(D9="NA",F9="NA"),0, F9/B9^2)</f>
+        <f t="shared" si="0"/>
         <v>34.009990434690195</v>
       </c>
       <c r="I9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Heavier</v>
       </c>
       <c r="K9" t="s">
@@ -2467,11 +2522,11 @@
         <v>18</v>
       </c>
       <c r="O9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R9" t="s">
@@ -2481,7 +2536,7 @@
         <v>21</v>
       </c>
       <c r="T9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>A New Hope</v>
       </c>
       <c r="U9" t="s">
@@ -2493,37 +2548,37 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.83</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="D10">
         <v>183</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="F10">
         <v>84</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H10">
-        <f>IF(OR(D10="NA",F10="NA"),0, F10/B10^2)</f>
+        <f t="shared" si="0"/>
         <v>25.082863029651524</v>
       </c>
       <c r="I10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K10" t="s">
@@ -2539,11 +2594,11 @@
         <v>24</v>
       </c>
       <c r="O10" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8760</v>
       </c>
       <c r="R10" t="s">
@@ -2553,7 +2608,7 @@
         <v>15</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>A New Hope</v>
       </c>
       <c r="U10" t="s">
@@ -2565,37 +2620,37 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.82</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="D11">
         <v>182</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71.5</v>
       </c>
       <c r="F11">
         <v>77</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>169.75</v>
       </c>
       <c r="H11">
-        <f>IF(OR(D11="NA",F11="NA"),0, F11/B11^2)</f>
+        <f t="shared" si="0"/>
         <v>23.245984784446321</v>
       </c>
       <c r="I11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K11" t="s">
@@ -2611,11 +2666,11 @@
         <v>57</v>
       </c>
       <c r="O11" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20805</v>
       </c>
       <c r="R11" t="s">
@@ -2625,7 +2680,7 @@
         <v>15</v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U11" t="s">
@@ -2637,37 +2692,37 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.88</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="D12">
         <v>188</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="F12">
         <v>84</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H12">
-        <f>IF(OR(D12="NA",F12="NA"),0, F12/B12^2)</f>
+        <f t="shared" si="0"/>
         <v>23.766410140334994</v>
       </c>
       <c r="I12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K12" t="s">
@@ -2683,11 +2738,11 @@
         <v>41.9</v>
       </c>
       <c r="O12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15293.5</v>
       </c>
       <c r="R12" t="s">
@@ -2697,7 +2752,7 @@
         <v>15</v>
       </c>
       <c r="T12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U12" t="s">
@@ -2709,37 +2764,37 @@
         <v>52</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="D13">
         <v>180</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70.5</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H13">
-        <f>IF(OR(D13="NA",F13="NA"),0, F13/B13^2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K13" t="s">
@@ -2755,11 +2810,11 @@
         <v>64</v>
       </c>
       <c r="O13" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23360</v>
       </c>
       <c r="R13" t="s">
@@ -2769,7 +2824,7 @@
         <v>15</v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Revenge of the Sith</v>
       </c>
       <c r="U13" t="s">
@@ -2781,37 +2836,37 @@
         <v>56</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2799999999999998</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="D14">
         <v>228</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89.5</v>
       </c>
       <c r="F14">
         <v>112</v>
       </c>
       <c r="G14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>246.75</v>
       </c>
       <c r="H14">
-        <f>IF(OR(D14="NA",F14="NA"),0, F14/B14^2)</f>
+        <f t="shared" si="0"/>
         <v>21.545090797168363</v>
       </c>
       <c r="I14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K14" t="s">
@@ -2827,11 +2882,11 @@
         <v>200</v>
       </c>
       <c r="O14" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>73000</v>
       </c>
       <c r="R14" t="s">
@@ -2841,7 +2896,7 @@
         <v>59</v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Revenge of the Sith</v>
       </c>
       <c r="U14" t="s">
@@ -2853,37 +2908,37 @@
         <v>60</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="D15">
         <v>180</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70.5</v>
       </c>
       <c r="F15">
         <v>80</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>176.25</v>
       </c>
       <c r="H15">
-        <f>IF(OR(D15="NA",F15="NA"),0, F15/B15^2)</f>
+        <f t="shared" si="0"/>
         <v>24.691358024691358</v>
       </c>
       <c r="I15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K15" t="s">
@@ -2899,11 +2954,11 @@
         <v>29</v>
       </c>
       <c r="O15" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10585</v>
       </c>
       <c r="R15" t="s">
@@ -2913,7 +2968,7 @@
         <v>15</v>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Return of the Jedi</v>
       </c>
       <c r="U15" t="s">
@@ -2925,37 +2980,37 @@
         <v>63</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.73</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D16">
         <v>173</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="F16">
         <v>74</v>
       </c>
       <c r="G16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>163</v>
       </c>
       <c r="H16">
-        <f>IF(OR(D16="NA",F16="NA"),0, F16/B16^2)</f>
+        <f t="shared" si="0"/>
         <v>24.725182932941294</v>
       </c>
       <c r="I16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K16" t="s">
@@ -2971,11 +3026,11 @@
         <v>44</v>
       </c>
       <c r="O16" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16060</v>
       </c>
       <c r="R16" t="s">
@@ -2985,7 +3040,7 @@
         <v>66</v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>A New Hope</v>
       </c>
       <c r="U16" t="s">
@@ -2997,37 +3052,37 @@
         <v>67</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="D17">
         <v>175</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="F17">
         <v>1358</v>
       </c>
       <c r="G17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2993.75</v>
       </c>
       <c r="H17">
-        <f>IF(OR(D17="NA",F17="NA"),0, F17/B17^2)</f>
+        <f t="shared" si="0"/>
         <v>443.42857142857144</v>
       </c>
       <c r="I17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Heavier</v>
       </c>
       <c r="K17" t="s">
@@ -3043,11 +3098,11 @@
         <v>600</v>
       </c>
       <c r="O17" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>219000</v>
       </c>
       <c r="R17" t="s">
@@ -3057,7 +3112,7 @@
         <v>71</v>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U17" t="s">
@@ -3069,37 +3124,37 @@
         <v>73</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="D18">
         <v>170</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="F18">
         <v>77</v>
       </c>
       <c r="G18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>169.75</v>
       </c>
       <c r="H18">
-        <f>IF(OR(D18="NA",F18="NA"),0, F18/B18^2)</f>
+        <f t="shared" si="0"/>
         <v>26.643598615916957</v>
       </c>
       <c r="I18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K18" t="s">
@@ -3115,11 +3170,11 @@
         <v>21</v>
       </c>
       <c r="O18" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7665</v>
       </c>
       <c r="R18" t="s">
@@ -3129,7 +3184,7 @@
         <v>15</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Return of the Jedi</v>
       </c>
       <c r="U18" t="s">
@@ -3141,37 +3196,37 @@
         <v>76</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="D19">
         <v>180</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70.5</v>
       </c>
       <c r="F19">
         <v>110</v>
       </c>
       <c r="G19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>242.5</v>
       </c>
       <c r="H19">
-        <f>IF(OR(D19="NA",F19="NA"),0, F19/B19^2)</f>
+        <f t="shared" si="0"/>
         <v>33.950617283950614</v>
       </c>
       <c r="I19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Heavier</v>
       </c>
       <c r="K19" t="s">
@@ -3187,11 +3242,11 @@
         <v>18</v>
       </c>
       <c r="O19" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R19" t="s">
@@ -3201,7 +3256,7 @@
         <v>15</v>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>A New Hope</v>
       </c>
       <c r="U19" t="s">
@@ -3213,37 +3268,37 @@
         <v>78</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D20">
         <v>66</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.5</v>
       </c>
       <c r="F20">
         <v>17</v>
       </c>
       <c r="G20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.25</v>
       </c>
       <c r="H20">
-        <f>IF(OR(D20="NA",F20="NA"),0, F20/B20^2)</f>
+        <f t="shared" si="0"/>
         <v>39.026629935720841</v>
       </c>
       <c r="I20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Heavier</v>
       </c>
       <c r="K20" t="s">
@@ -3259,7 +3314,7 @@
         <v>896</v>
       </c>
       <c r="O20" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P20">
@@ -3273,7 +3328,7 @@
         <v>79</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U20" t="s">
@@ -3285,37 +3340,37 @@
         <v>81</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="D21">
         <v>170</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="F21">
         <v>75</v>
       </c>
       <c r="G21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165.25</v>
       </c>
       <c r="H21">
-        <f>IF(OR(D21="NA",F21="NA"),0, F21/B21^2)</f>
+        <f t="shared" si="0"/>
         <v>25.95155709342561</v>
       </c>
       <c r="I21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K21" t="s">
@@ -3331,11 +3386,11 @@
         <v>82</v>
       </c>
       <c r="O21" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29930</v>
       </c>
       <c r="R21" t="s">
@@ -3345,7 +3400,7 @@
         <v>15</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U21" t="s">
@@ -3357,37 +3412,37 @@
         <v>85</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.83</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="D22">
         <v>183</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="F22">
         <v>78.2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>172.25</v>
       </c>
       <c r="H22">
-        <f>IF(OR(D22="NA",F22="NA"),0, F22/B22^2)</f>
+        <f t="shared" si="0"/>
         <v>23.350951058556539</v>
       </c>
       <c r="I22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K22" t="s">
@@ -3403,11 +3458,11 @@
         <v>31.5</v>
       </c>
       <c r="O22" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11497.5</v>
       </c>
       <c r="R22" t="s">
@@ -3417,7 +3472,7 @@
         <v>15</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U22" t="s">
@@ -3429,37 +3484,37 @@
         <v>88</v>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="D23">
         <v>200</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78.5</v>
       </c>
       <c r="F23">
         <v>140</v>
       </c>
       <c r="G23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>308.5</v>
       </c>
       <c r="H23">
-        <f>IF(OR(D23="NA",F23="NA"),0, F23/B23^2)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="I23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Heavier</v>
       </c>
       <c r="K23" t="s">
@@ -3475,11 +3530,11 @@
         <v>15</v>
       </c>
       <c r="O23" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5475</v>
       </c>
       <c r="R23" t="s">
@@ -3489,7 +3544,7 @@
         <v>21</v>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>The Empire Strikes Back</v>
       </c>
       <c r="U23" t="s">
@@ -3501,37 +3556,37 @@
         <v>91</v>
       </c>
       <c r="B24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="D24">
         <v>190</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74.5</v>
       </c>
       <c r="F24">
         <v>113</v>
       </c>
       <c r="G24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>249</v>
       </c>
       <c r="H24">
-        <f>IF(OR(D24="NA",F24="NA"),0, F24/B24^2)</f>
+        <f t="shared" si="0"/>
         <v>31.301939058171747</v>
       </c>
       <c r="I24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K24" t="s">
@@ -3547,11 +3602,11 @@
         <v>53</v>
       </c>
       <c r="O24" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19345</v>
       </c>
       <c r="R24" t="s">
@@ -3561,7 +3616,7 @@
         <v>93</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>The Empire Strikes Back</v>
       </c>
       <c r="U24" t="s">
@@ -3573,37 +3628,37 @@
         <v>94</v>
       </c>
       <c r="B25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.77</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="D25">
         <v>177</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69.5</v>
       </c>
       <c r="F25">
         <v>79</v>
       </c>
       <c r="G25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>174</v>
       </c>
       <c r="H25">
-        <f>IF(OR(D25="NA",F25="NA"),0, F25/B25^2)</f>
+        <f t="shared" si="0"/>
         <v>25.216253311628201</v>
       </c>
       <c r="I25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K25" t="s">
@@ -3619,11 +3674,11 @@
         <v>31</v>
       </c>
       <c r="O25" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11315</v>
       </c>
       <c r="R25" t="s">
@@ -3633,7 +3688,7 @@
         <v>15</v>
       </c>
       <c r="T25" t="str">
-        <f t="shared" ref="T25:T85" si="9">TRIM(IFERROR(LEFT(U25,(FIND(",",U25))-1), U25))</f>
+        <f t="shared" ref="T25:T85" si="10">TRIM(IFERROR(LEFT(U25,(FIND(",",U25))-1), U25))</f>
         <v>Return of the Jedi</v>
       </c>
       <c r="U25" t="s">
@@ -3645,37 +3700,37 @@
         <v>98</v>
       </c>
       <c r="B26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="D26">
         <v>175</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="F26">
         <v>79</v>
       </c>
       <c r="G26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>174</v>
       </c>
       <c r="H26">
-        <f>IF(OR(D26="NA",F26="NA"),0, F26/B26^2)</f>
+        <f t="shared" si="0"/>
         <v>25.795918367346939</v>
       </c>
       <c r="I26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K26" t="s">
@@ -3691,11 +3746,11 @@
         <v>37</v>
       </c>
       <c r="O26" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13505</v>
       </c>
       <c r="R26" t="s">
@@ -3705,7 +3760,7 @@
         <v>15</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Empire Strikes Back</v>
       </c>
       <c r="U26" t="s">
@@ -3717,37 +3772,37 @@
         <v>100</v>
       </c>
       <c r="B27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="D27">
         <v>180</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70.5</v>
       </c>
       <c r="F27">
         <v>83</v>
       </c>
       <c r="G27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>182.75</v>
       </c>
       <c r="H27">
-        <f>IF(OR(D27="NA",F27="NA"),0, F27/B27^2)</f>
+        <f t="shared" si="0"/>
         <v>25.617283950617281</v>
       </c>
       <c r="I27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K27" t="s">
@@ -3763,11 +3818,11 @@
         <v>41</v>
       </c>
       <c r="O27" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14965</v>
       </c>
       <c r="R27" t="s">
@@ -3777,7 +3832,7 @@
         <v>103</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Return of the Jedi</v>
       </c>
       <c r="U27" t="s">
@@ -3789,37 +3844,37 @@
         <v>105</v>
       </c>
       <c r="B28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="D28">
         <v>150</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
       </c>
       <c r="G28" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H28">
-        <f>IF(OR(D28="NA",F28="NA"),0, F28/B28^2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K28" t="s">
@@ -3835,11 +3890,11 @@
         <v>48</v>
       </c>
       <c r="O28" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17520</v>
       </c>
       <c r="R28" t="s">
@@ -3849,7 +3904,7 @@
         <v>15</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Return of the Jedi</v>
       </c>
       <c r="U28" t="s">
@@ -3861,37 +3916,37 @@
         <v>109</v>
       </c>
       <c r="B29" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>No Info</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="H29">
-        <f>IF(OR(D29="NA",F29="NA"),0, F29/B29^2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K29" t="s">
@@ -3907,11 +3962,11 @@
         <v>18</v>
       </c>
       <c r="O29" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R29" t="s">
@@ -3921,7 +3976,7 @@
         <v>15</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Return of the Jedi</v>
       </c>
       <c r="U29" t="s">
@@ -3933,37 +3988,37 @@
         <v>110</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D30">
         <v>88</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.5</v>
       </c>
       <c r="F30">
         <v>20</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="H30">
-        <f>IF(OR(D30="NA",F30="NA"),0, F30/B30^2)</f>
+        <f t="shared" si="0"/>
         <v>25.826446280991735</v>
       </c>
       <c r="I30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K30" t="s">
@@ -3979,11 +4034,11 @@
         <v>8</v>
       </c>
       <c r="O30" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2920</v>
       </c>
       <c r="R30" t="s">
@@ -3993,7 +4048,7 @@
         <v>112</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Return of the Jedi</v>
       </c>
       <c r="U30" t="s">
@@ -4005,37 +4060,37 @@
         <v>113</v>
       </c>
       <c r="B31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D31">
         <v>160</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="F31">
         <v>68</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>149.75</v>
       </c>
       <c r="H31">
-        <f>IF(OR(D31="NA",F31="NA"),0, F31/B31^2)</f>
+        <f t="shared" si="0"/>
         <v>26.562499999999996</v>
       </c>
       <c r="I31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K31" t="s">
@@ -4051,11 +4106,11 @@
         <v>18</v>
       </c>
       <c r="O31" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R31" t="s">
@@ -4065,7 +4120,7 @@
         <v>115</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Return of the Jedi</v>
       </c>
       <c r="U31" t="s">
@@ -4077,37 +4132,37 @@
         <v>116</v>
       </c>
       <c r="B32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.93</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="D32">
         <v>193</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75.5</v>
       </c>
       <c r="F32">
         <v>89</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>196</v>
       </c>
       <c r="H32">
-        <f>IF(OR(D32="NA",F32="NA"),0, F32/B32^2)</f>
+        <f t="shared" si="0"/>
         <v>23.893258879433006</v>
       </c>
       <c r="I32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K32" t="s">
@@ -4123,11 +4178,11 @@
         <v>92</v>
       </c>
       <c r="O32" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33580</v>
       </c>
       <c r="R32" t="s">
@@ -4137,7 +4192,7 @@
         <v>15</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U32" t="s">
@@ -4149,37 +4204,37 @@
         <v>118</v>
       </c>
       <c r="B33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.91</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="D33">
         <v>191</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="F33">
         <v>90</v>
       </c>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>198.25</v>
       </c>
       <c r="H33">
-        <f>IF(OR(D33="NA",F33="NA"),0, F33/B33^2)</f>
+        <f t="shared" si="0"/>
         <v>24.670376360297141</v>
       </c>
       <c r="I33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K33" t="s">
@@ -4195,11 +4250,11 @@
         <v>18</v>
       </c>
       <c r="O33" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R33" t="s">
@@ -4209,7 +4264,7 @@
         <v>121</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U33" t="s">
@@ -4221,37 +4276,37 @@
         <v>122</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="D34">
         <v>170</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
       </c>
       <c r="G34" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H34">
-        <f>IF(OR(D34="NA",F34="NA"),0, F34/B34^2)</f>
+        <f t="shared" ref="H34:H65" si="11">IF(OR(D34="NA",F34="NA"),0, F34/B34^2)</f>
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K34" t="s">
@@ -4267,11 +4322,11 @@
         <v>91</v>
       </c>
       <c r="O34" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33215</v>
       </c>
       <c r="R34" t="s">
@@ -4281,7 +4336,7 @@
         <v>15</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U34" t="s">
@@ -4293,37 +4348,37 @@
         <v>124</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.96</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="D35">
         <v>196</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="F35">
         <v>66</v>
       </c>
       <c r="G35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>145.5</v>
       </c>
       <c r="H35">
-        <f>IF(OR(D35="NA",F35="NA"),0, F35/B35^2)</f>
+        <f t="shared" si="11"/>
         <v>17.180341524364849</v>
       </c>
       <c r="I35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K35" t="s">
@@ -4339,11 +4394,11 @@
         <v>52</v>
       </c>
       <c r="O35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18980</v>
       </c>
       <c r="R35" t="s">
@@ -4353,7 +4408,7 @@
         <v>125</v>
       </c>
       <c r="T35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U35" t="s">
@@ -4365,37 +4420,37 @@
         <v>127</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2400000000000002</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="D36">
         <v>224</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="F36">
         <v>82</v>
       </c>
       <c r="G36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>180.75</v>
       </c>
       <c r="H36">
-        <f>IF(OR(D36="NA",F36="NA"),0, F36/B36^2)</f>
+        <f t="shared" si="11"/>
         <v>16.342474489795915</v>
       </c>
       <c r="I36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K36" t="s">
@@ -4411,11 +4466,11 @@
         <v>18</v>
       </c>
       <c r="O36" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R36" t="s">
@@ -4425,7 +4480,7 @@
         <v>125</v>
       </c>
       <c r="T36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U36" t="s">
@@ -4437,37 +4492,37 @@
         <v>128</v>
       </c>
       <c r="B37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.06</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="D37">
         <v>206</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="F37" t="s">
         <v>18</v>
       </c>
       <c r="G37" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H37">
-        <f>IF(OR(D37="NA",F37="NA"),0, F37/B37^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K37" t="s">
@@ -4483,11 +4538,11 @@
         <v>18</v>
       </c>
       <c r="O37" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R37" t="s">
@@ -4497,7 +4552,7 @@
         <v>125</v>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U37" t="s">
@@ -4509,37 +4564,37 @@
         <v>129</v>
       </c>
       <c r="B38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.83</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="D38">
         <v>183</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="F38" t="s">
         <v>18</v>
       </c>
       <c r="G38" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H38">
-        <f>IF(OR(D38="NA",F38="NA"),0, F38/B38^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K38" t="s">
@@ -4555,11 +4610,11 @@
         <v>18</v>
       </c>
       <c r="O38" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R38" t="s">
@@ -4569,7 +4624,7 @@
         <v>18</v>
       </c>
       <c r="T38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U38" t="s">
@@ -4581,37 +4636,37 @@
         <v>130</v>
       </c>
       <c r="B39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.37</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D39">
         <v>137</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
       </c>
       <c r="G39" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H39">
-        <f>IF(OR(D39="NA",F39="NA"),0, F39/B39^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K39" t="s">
@@ -4627,11 +4682,11 @@
         <v>18</v>
       </c>
       <c r="O39" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R39" t="s">
@@ -4641,7 +4696,7 @@
         <v>133</v>
       </c>
       <c r="T39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U39" t="s">
@@ -4653,37 +4708,37 @@
         <v>135</v>
       </c>
       <c r="B40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="D40">
         <v>112</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="F40">
         <v>40</v>
       </c>
       <c r="G40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="H40">
-        <f>IF(OR(D40="NA",F40="NA"),0, F40/B40^2)</f>
+        <f t="shared" si="11"/>
         <v>31.887755102040813</v>
       </c>
       <c r="I40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K40" t="s">
@@ -4699,11 +4754,11 @@
         <v>18</v>
       </c>
       <c r="O40" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R40" t="s">
@@ -4713,7 +4768,7 @@
         <v>138</v>
       </c>
       <c r="T40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U40" t="s">
@@ -4725,37 +4780,37 @@
         <v>139</v>
       </c>
       <c r="B41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.83</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="D41">
         <v>183</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
       </c>
       <c r="G41" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H41">
-        <f>IF(OR(D41="NA",F41="NA"),0, F41/B41^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K41" t="s">
@@ -4771,11 +4826,11 @@
         <v>62</v>
       </c>
       <c r="O41" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22630</v>
       </c>
       <c r="R41" t="s">
@@ -4785,7 +4840,7 @@
         <v>18</v>
       </c>
       <c r="T41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U41" t="s">
@@ -4797,37 +4852,37 @@
         <v>140</v>
       </c>
       <c r="B42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.63</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="D42">
         <v>163</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
       </c>
       <c r="G42" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H42">
-        <f>IF(OR(D42="NA",F42="NA"),0, F42/B42^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K42" t="s">
@@ -4843,11 +4898,11 @@
         <v>72</v>
       </c>
       <c r="O42" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26280</v>
       </c>
       <c r="R42" t="s">
@@ -4857,7 +4912,7 @@
         <v>15</v>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U42" t="s">
@@ -4869,37 +4924,37 @@
         <v>141</v>
       </c>
       <c r="B43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
       <c r="C43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="D43">
         <v>175</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="F43">
         <v>80</v>
       </c>
       <c r="G43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>176.25</v>
       </c>
       <c r="H43">
-        <f>IF(OR(D43="NA",F43="NA"),0, F43/B43^2)</f>
+        <f t="shared" si="11"/>
         <v>26.122448979591837</v>
       </c>
       <c r="I43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K43" t="s">
@@ -4915,11 +4970,11 @@
         <v>54</v>
       </c>
       <c r="O43" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19710</v>
       </c>
       <c r="R43" t="s">
@@ -4929,7 +4984,7 @@
         <v>143</v>
       </c>
       <c r="T43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U43" t="s">
@@ -4941,37 +4996,37 @@
         <v>144</v>
       </c>
       <c r="B44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
       <c r="C44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="D44">
         <v>180</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70.5</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
       </c>
       <c r="G44" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H44">
-        <f>IF(OR(D44="NA",F44="NA"),0, F44/B44^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K44" t="s">
@@ -4987,11 +5042,11 @@
         <v>18</v>
       </c>
       <c r="O44" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R44" t="s">
@@ -5001,7 +5056,7 @@
         <v>147</v>
       </c>
       <c r="T44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Return of the Jedi</v>
       </c>
       <c r="U44" t="s">
@@ -5013,37 +5068,37 @@
         <v>148</v>
       </c>
       <c r="B45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.78</v>
       </c>
       <c r="C45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="D45">
         <v>178</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="F45">
         <v>55</v>
       </c>
       <c r="G45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.25</v>
       </c>
       <c r="H45">
-        <f>IF(OR(D45="NA",F45="NA"),0, F45/B45^2)</f>
+        <f t="shared" si="11"/>
         <v>17.35891932836763</v>
       </c>
       <c r="I45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K45" t="s">
@@ -5059,11 +5114,11 @@
         <v>48</v>
       </c>
       <c r="O45" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17520</v>
       </c>
       <c r="R45" t="s">
@@ -5073,7 +5128,7 @@
         <v>147</v>
       </c>
       <c r="T45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U45" t="s">
@@ -5085,37 +5140,37 @@
         <v>150</v>
       </c>
       <c r="B46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94</v>
       </c>
       <c r="C46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D46">
         <v>94</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="F46">
         <v>45</v>
       </c>
       <c r="G46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="H46">
-        <f>IF(OR(D46="NA",F46="NA"),0, F46/B46^2)</f>
+        <f t="shared" si="11"/>
         <v>50.928021729289277</v>
       </c>
       <c r="I46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Heavier</v>
       </c>
       <c r="K46" t="s">
@@ -5131,11 +5186,11 @@
         <v>18</v>
       </c>
       <c r="O46" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R46" t="s">
@@ -5145,7 +5200,7 @@
         <v>152</v>
       </c>
       <c r="T46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U46" t="s">
@@ -5157,37 +5212,37 @@
         <v>153</v>
       </c>
       <c r="B47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.22</v>
       </c>
       <c r="C47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="D47">
         <v>122</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="F47" t="s">
         <v>18</v>
       </c>
       <c r="G47" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H47">
-        <f>IF(OR(D47="NA",F47="NA"),0, F47/B47^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K47" t="s">
@@ -5203,11 +5258,11 @@
         <v>18</v>
       </c>
       <c r="O47" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R47" t="s">
@@ -5217,7 +5272,7 @@
         <v>155</v>
       </c>
       <c r="T47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U47" t="s">
@@ -5229,37 +5284,37 @@
         <v>156</v>
       </c>
       <c r="B48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.63</v>
       </c>
       <c r="C48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="D48">
         <v>163</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="F48">
         <v>65</v>
       </c>
       <c r="G48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>143.25</v>
       </c>
       <c r="H48">
-        <f>IF(OR(D48="NA",F48="NA"),0, F48/B48^2)</f>
+        <f t="shared" si="11"/>
         <v>24.464601603372351</v>
       </c>
       <c r="I48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K48" t="s">
@@ -5275,11 +5330,11 @@
         <v>18</v>
       </c>
       <c r="O48" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R48" t="s">
@@ -5289,7 +5344,7 @@
         <v>159</v>
       </c>
       <c r="T48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U48" t="s">
@@ -5301,37 +5356,37 @@
         <v>160</v>
       </c>
       <c r="B49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.88</v>
       </c>
       <c r="C49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="D49">
         <v>188</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="F49">
         <v>84</v>
       </c>
       <c r="G49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H49">
-        <f>IF(OR(D49="NA",F49="NA"),0, F49/B49^2)</f>
+        <f t="shared" si="11"/>
         <v>23.766410140334994</v>
       </c>
       <c r="I49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K49" t="s">
@@ -5347,11 +5402,11 @@
         <v>72</v>
       </c>
       <c r="O49" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26280</v>
       </c>
       <c r="R49" t="s">
@@ -5361,7 +5416,7 @@
         <v>15</v>
       </c>
       <c r="T49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U49" t="s">
@@ -5373,37 +5428,37 @@
         <v>162</v>
       </c>
       <c r="B50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.98</v>
       </c>
       <c r="C50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="D50">
         <v>198</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77.5</v>
       </c>
       <c r="F50">
         <v>82</v>
       </c>
       <c r="G50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>180.75</v>
       </c>
       <c r="H50">
-        <f>IF(OR(D50="NA",F50="NA"),0, F50/B50^2)</f>
+        <f t="shared" si="11"/>
         <v>20.91623303744516</v>
       </c>
       <c r="I50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K50" t="s">
@@ -5419,11 +5474,11 @@
         <v>92</v>
       </c>
       <c r="O50" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33580</v>
       </c>
       <c r="R50" t="s">
@@ -5433,7 +5488,7 @@
         <v>164</v>
       </c>
       <c r="T50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U50" t="s">
@@ -5445,37 +5500,37 @@
         <v>165</v>
       </c>
       <c r="B51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.96</v>
       </c>
       <c r="C51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="D51">
         <v>196</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="F51">
         <v>87</v>
       </c>
       <c r="G51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>191.75</v>
       </c>
       <c r="H51">
-        <f>IF(OR(D51="NA",F51="NA"),0, F51/B51^2)</f>
+        <f t="shared" si="11"/>
         <v>22.646813827571847</v>
       </c>
       <c r="I51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K51" t="s">
@@ -5491,11 +5546,11 @@
         <v>18</v>
       </c>
       <c r="O51" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R51" t="s">
@@ -5505,7 +5560,7 @@
         <v>167</v>
       </c>
       <c r="T51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U51" t="s">
@@ -5517,37 +5572,37 @@
         <v>168</v>
       </c>
       <c r="B52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.71</v>
       </c>
       <c r="C52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="D52">
         <v>171</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
       </c>
       <c r="G52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H52">
-        <f>IF(OR(D52="NA",F52="NA"),0, F52/B52^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K52" t="s">
@@ -5563,11 +5618,11 @@
         <v>18</v>
       </c>
       <c r="O52" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R52" t="s">
@@ -5577,7 +5632,7 @@
         <v>143</v>
       </c>
       <c r="T52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U52" t="s">
@@ -5589,37 +5644,37 @@
         <v>171</v>
       </c>
       <c r="B53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.84</v>
       </c>
       <c r="C53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="D53">
         <v>184</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="F53">
         <v>50</v>
       </c>
       <c r="G53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="H53">
-        <f>IF(OR(D53="NA",F53="NA"),0, F53/B53^2)</f>
+        <f t="shared" si="11"/>
         <v>14.768431001890358</v>
       </c>
       <c r="I53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K53" t="s">
@@ -5635,11 +5690,11 @@
         <v>18</v>
       </c>
       <c r="O53" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R53" t="s">
@@ -5649,7 +5704,7 @@
         <v>172</v>
       </c>
       <c r="T53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U53" t="s">
@@ -5661,37 +5716,37 @@
         <v>173</v>
       </c>
       <c r="B54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.88</v>
       </c>
       <c r="C54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="D54">
         <v>188</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="F54" t="s">
         <v>18</v>
       </c>
       <c r="G54" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H54">
-        <f>IF(OR(D54="NA",F54="NA"),0, F54/B54^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K54" t="s">
@@ -5707,11 +5762,11 @@
         <v>18</v>
       </c>
       <c r="O54" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R54" t="s">
@@ -5721,7 +5776,7 @@
         <v>175</v>
       </c>
       <c r="T54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U54" t="s">
@@ -5733,37 +5788,37 @@
         <v>176</v>
       </c>
       <c r="B55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.64</v>
       </c>
       <c r="C55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="D55">
         <v>264</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>103.5</v>
       </c>
       <c r="F55" t="s">
         <v>18</v>
       </c>
       <c r="G55" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H55">
-        <f>IF(OR(D55="NA",F55="NA"),0, F55/B55^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K55" t="s">
@@ -5779,11 +5834,11 @@
         <v>18</v>
       </c>
       <c r="O55" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R55" t="s">
@@ -5793,7 +5848,7 @@
         <v>178</v>
       </c>
       <c r="T55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U55" t="s">
@@ -5805,37 +5860,37 @@
         <v>179</v>
       </c>
       <c r="B56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.88</v>
       </c>
       <c r="C56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="D56">
         <v>188</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="F56">
         <v>80</v>
       </c>
       <c r="G56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>176.25</v>
       </c>
       <c r="H56">
-        <f>IF(OR(D56="NA",F56="NA"),0, F56/B56^2)</f>
+        <f t="shared" si="11"/>
         <v>22.634676324128566</v>
       </c>
       <c r="I56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K56" t="s">
@@ -5851,11 +5906,11 @@
         <v>22</v>
       </c>
       <c r="O56" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8030</v>
       </c>
       <c r="R56" t="s">
@@ -5865,7 +5920,7 @@
         <v>181</v>
       </c>
       <c r="T56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U56" t="s">
@@ -5877,37 +5932,37 @@
         <v>182</v>
       </c>
       <c r="B57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.96</v>
       </c>
       <c r="C57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="D57">
         <v>196</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="F57" t="s">
         <v>18</v>
       </c>
       <c r="G57" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H57">
-        <f>IF(OR(D57="NA",F57="NA"),0, F57/B57^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K57" t="s">
@@ -5923,11 +5978,11 @@
         <v>18</v>
       </c>
       <c r="O57" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R57" t="s">
@@ -5937,7 +5992,7 @@
         <v>184</v>
       </c>
       <c r="T57" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U57" t="s">
@@ -5949,37 +6004,37 @@
         <v>185</v>
       </c>
       <c r="B58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.85</v>
       </c>
       <c r="C58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="D58">
         <v>185</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72.5</v>
       </c>
       <c r="F58">
         <v>85</v>
       </c>
       <c r="G58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>187.25</v>
       </c>
       <c r="H58">
-        <f>IF(OR(D58="NA",F58="NA"),0, F58/B58^2)</f>
+        <f t="shared" si="11"/>
         <v>24.835646457268076</v>
       </c>
       <c r="I58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K58" t="s">
@@ -5995,11 +6050,11 @@
         <v>18</v>
       </c>
       <c r="O58" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R58" t="s">
@@ -6009,7 +6064,7 @@
         <v>15</v>
       </c>
       <c r="T58" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U58" t="s">
@@ -6021,37 +6076,37 @@
         <v>187</v>
       </c>
       <c r="B59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.57</v>
       </c>
       <c r="C59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="D59">
         <v>157</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="F59" t="s">
         <v>18</v>
       </c>
       <c r="G59" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H59">
-        <f>IF(OR(D59="NA",F59="NA"),0, F59/B59^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K59" t="s">
@@ -6067,11 +6122,11 @@
         <v>18</v>
       </c>
       <c r="O59" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R59" t="s">
@@ -6081,7 +6136,7 @@
         <v>15</v>
       </c>
       <c r="T59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U59" t="s">
@@ -6093,37 +6148,37 @@
         <v>188</v>
       </c>
       <c r="B60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.83</v>
       </c>
       <c r="C60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="D60">
         <v>183</v>
       </c>
       <c r="E60" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="F60" t="s">
         <v>18</v>
       </c>
       <c r="G60" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H60">
-        <f>IF(OR(D60="NA",F60="NA"),0, F60/B60^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K60" t="s">
@@ -6139,11 +6194,11 @@
         <v>82</v>
       </c>
       <c r="O60" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29930</v>
       </c>
       <c r="R60" t="s">
@@ -6153,7 +6208,7 @@
         <v>15</v>
       </c>
       <c r="T60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U60" t="s">
@@ -6165,37 +6220,37 @@
         <v>189</v>
       </c>
       <c r="B61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.83</v>
       </c>
       <c r="C61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="D61">
         <v>183</v>
       </c>
       <c r="E61" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="F61">
         <v>80</v>
       </c>
       <c r="G61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>176.25</v>
       </c>
       <c r="H61">
-        <f>IF(OR(D61="NA",F61="NA"),0, F61/B61^2)</f>
+        <f t="shared" si="11"/>
         <v>23.888440980620498</v>
       </c>
       <c r="I61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K61" t="s">
@@ -6211,11 +6266,11 @@
         <v>18</v>
       </c>
       <c r="O61" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R61" t="s">
@@ -6225,7 +6280,7 @@
         <v>191</v>
       </c>
       <c r="T61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U61" t="s">
@@ -6237,37 +6292,37 @@
         <v>193</v>
       </c>
       <c r="B62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
       <c r="C62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="D62">
         <v>170</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="F62">
         <v>56.2</v>
       </c>
       <c r="G62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>123.75</v>
       </c>
       <c r="H62">
-        <f>IF(OR(D62="NA",F62="NA"),0, F62/B62^2)</f>
+        <f t="shared" si="11"/>
         <v>19.446366782006923</v>
       </c>
       <c r="I62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K62" t="s">
@@ -6283,11 +6338,11 @@
         <v>58</v>
       </c>
       <c r="O62" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21170</v>
       </c>
       <c r="R62" t="s">
@@ -6297,7 +6352,7 @@
         <v>195</v>
       </c>
       <c r="T62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U62" t="s">
@@ -6309,37 +6364,37 @@
         <v>196</v>
       </c>
       <c r="B63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.66</v>
       </c>
       <c r="C63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="D63">
         <v>166</v>
       </c>
       <c r="E63" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="F63">
         <v>50</v>
       </c>
       <c r="G63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="H63">
-        <f>IF(OR(D63="NA",F63="NA"),0, F63/B63^2)</f>
+        <f t="shared" si="11"/>
         <v>18.144868631151112</v>
       </c>
       <c r="I63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K63" t="s">
@@ -6355,11 +6410,11 @@
         <v>40</v>
       </c>
       <c r="O63" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14600</v>
       </c>
       <c r="R63" t="s">
@@ -6369,7 +6424,7 @@
         <v>195</v>
       </c>
       <c r="T63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U63" t="s">
@@ -6381,37 +6436,37 @@
         <v>197</v>
       </c>
       <c r="B64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.65</v>
       </c>
       <c r="C64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="D64">
         <v>165</v>
       </c>
       <c r="E64" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="F64" t="s">
         <v>18</v>
       </c>
       <c r="G64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H64">
-        <f>IF(OR(D64="NA",F64="NA"),0, F64/B64^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K64" t="s">
@@ -6427,11 +6482,11 @@
         <v>18</v>
       </c>
       <c r="O64" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R64" t="s">
@@ -6441,7 +6496,7 @@
         <v>15</v>
       </c>
       <c r="T64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U64" t="s">
@@ -6453,37 +6508,37 @@
         <v>198</v>
       </c>
       <c r="B65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.93</v>
       </c>
       <c r="C65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="D65">
         <v>193</v>
       </c>
       <c r="E65" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75.5</v>
       </c>
       <c r="F65">
         <v>80</v>
       </c>
       <c r="G65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>176.25</v>
       </c>
       <c r="H65">
-        <f>IF(OR(D65="NA",F65="NA"),0, F65/B65^2)</f>
+        <f t="shared" si="11"/>
         <v>21.477086633198208</v>
       </c>
       <c r="I65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K65" t="s">
@@ -6499,11 +6554,11 @@
         <v>102</v>
       </c>
       <c r="O65" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>37230</v>
       </c>
       <c r="R65" t="s">
@@ -6513,7 +6568,7 @@
         <v>15</v>
       </c>
       <c r="T65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U65" t="s">
@@ -6525,37 +6580,37 @@
         <v>200</v>
       </c>
       <c r="B66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.91</v>
       </c>
       <c r="C66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="D66">
         <v>191</v>
       </c>
       <c r="E66" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
       </c>
       <c r="G66" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="H66">
-        <f>IF(OR(D66="NA",F66="NA"),0, F66/B66^2)</f>
+        <f t="shared" ref="H66:H88" si="12">IF(OR(D66="NA",F66="NA"),0, F66/B66^2)</f>
         <v>0</v>
       </c>
       <c r="I66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Lighter</v>
       </c>
       <c r="K66" t="s">
@@ -6571,11 +6626,11 @@
         <v>67</v>
       </c>
       <c r="O66" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24455</v>
       </c>
       <c r="R66" t="s">
@@ -6585,7 +6640,7 @@
         <v>15</v>
       </c>
       <c r="T66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U66" t="s">
@@ -6597,37 +6652,37 @@
         <v>202</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B88" si="10">D67/100</f>
+        <f t="shared" ref="B67:B88" si="13">D67/100</f>
         <v>1.83</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C88" si="11">IF(ISNUMBER(D67),RANK(D67,$D$2:$D$88,1),"No Info")</f>
+        <f t="shared" ref="C67:C88" si="14">IF(ISNUMBER(D67),RANK(D67,$D$2:$D$88,1),"No Info")</f>
         <v>45</v>
       </c>
       <c r="D67">
         <v>183</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" ref="E67:E88" si="12">FLOOR(CONVERT(D67,"cm","in"),0.5)</f>
+        <f t="shared" ref="E67:E88" si="15">FLOOR(CONVERT(D67,"cm","in"),0.5)</f>
         <v>72</v>
       </c>
       <c r="F67">
         <v>79</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G88" si="13">FLOOR(CONVERT(F67,"kg","lbm"),0.25)</f>
+        <f t="shared" ref="G67:G88" si="16">FLOOR(CONVERT(F67,"kg","lbm"),0.25)</f>
         <v>174</v>
       </c>
       <c r="H67">
-        <f>IF(OR(D67="NA",F67="NA"),0, F67/B67^2)</f>
+        <f t="shared" si="12"/>
         <v>23.589835468362743</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I88" si="14">RANK(H67,$H$2:$H$88)</f>
+        <f t="shared" ref="I67:I88" si="17">RANK(H67,$H$2:$H$88)</f>
         <v>37</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" ref="J67:J88" si="15">IFERROR(IF($H$5&gt;H67, "Lighter", "Heavier"), "Missing Data")</f>
+        <f t="shared" ref="J67:J88" si="18">IFERROR(IF($H$5&gt;H67, "Lighter", "Heavier"), "Missing Data")</f>
         <v>Lighter</v>
       </c>
       <c r="K67" t="s">
@@ -6643,11 +6698,11 @@
         <v>66</v>
       </c>
       <c r="O67" t="b">
-        <f t="shared" ref="O67:O88" si="16">ISNUMBER(N67)</f>
+        <f t="shared" ref="O67:O88" si="19">ISNUMBER(N67)</f>
         <v>1</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P87" si="17">IF(N67="NA", 0, N67*365)</f>
+        <f t="shared" ref="P67:P87" si="20">IF(N67="NA", 0, N67*365)</f>
         <v>24090</v>
       </c>
       <c r="R67" t="s">
@@ -6657,7 +6712,7 @@
         <v>15</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U67" t="s">
@@ -6669,37 +6724,37 @@
         <v>204</v>
       </c>
       <c r="B68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.68</v>
       </c>
       <c r="C68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="D68">
         <v>168</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="F68">
         <v>55</v>
       </c>
       <c r="G68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>121.25</v>
       </c>
       <c r="H68">
-        <f>IF(OR(D68="NA",F68="NA"),0, F68/B68^2)</f>
+        <f t="shared" si="12"/>
         <v>19.486961451247168</v>
       </c>
       <c r="I68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>47</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K68" t="s">
@@ -6715,11 +6770,11 @@
         <v>18</v>
       </c>
       <c r="O68" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R68" t="s">
@@ -6729,7 +6784,7 @@
         <v>208</v>
       </c>
       <c r="T68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U68" t="s">
@@ -6741,37 +6796,37 @@
         <v>209</v>
       </c>
       <c r="B69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.98</v>
       </c>
       <c r="C69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>69</v>
       </c>
       <c r="D69">
         <v>198</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>77.5</v>
       </c>
       <c r="F69">
         <v>102</v>
       </c>
       <c r="G69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>224.75</v>
       </c>
       <c r="H69">
-        <f>IF(OR(D69="NA",F69="NA"),0, F69/B69^2)</f>
+        <f t="shared" si="12"/>
         <v>26.017753290480563</v>
       </c>
       <c r="I69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K69" t="s">
@@ -6787,11 +6842,11 @@
         <v>18</v>
       </c>
       <c r="O69" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R69" t="s">
@@ -6801,7 +6856,7 @@
         <v>211</v>
       </c>
       <c r="T69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U69" t="s">
@@ -6813,37 +6868,37 @@
         <v>212</v>
       </c>
       <c r="B70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.29</v>
       </c>
       <c r="C70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>79</v>
       </c>
       <c r="D70">
         <v>229</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="F70">
         <v>88</v>
       </c>
       <c r="G70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>194</v>
       </c>
       <c r="H70">
-        <f>IF(OR(D70="NA",F70="NA"),0, F70/B70^2)</f>
+        <f t="shared" si="12"/>
         <v>16.780763143342039</v>
       </c>
       <c r="I70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>54</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K70" t="s">
@@ -6859,11 +6914,11 @@
         <v>18</v>
       </c>
       <c r="O70" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R70" t="s">
@@ -6873,7 +6928,7 @@
         <v>213</v>
       </c>
       <c r="T70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U70" t="s">
@@ -6885,37 +6940,37 @@
         <v>214</v>
       </c>
       <c r="B71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.13</v>
       </c>
       <c r="C71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
       <c r="D71">
         <v>213</v>
       </c>
       <c r="E71" s="4">
+        <f t="shared" si="15"/>
+        <v>83.5</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H71">
         <f t="shared" si="12"/>
-        <v>83.5</v>
-      </c>
-      <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H71">
-        <f>IF(OR(D71="NA",F71="NA"),0, F71/B71^2)</f>
         <v>0</v>
       </c>
       <c r="I71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K71" t="s">
@@ -6931,11 +6986,11 @@
         <v>18</v>
       </c>
       <c r="O71" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R71" t="s">
@@ -6945,7 +7000,7 @@
         <v>213</v>
       </c>
       <c r="T71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U71" t="s">
@@ -6957,37 +7012,37 @@
         <v>215</v>
       </c>
       <c r="B72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.67</v>
       </c>
       <c r="C72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="D72">
         <v>167</v>
       </c>
       <c r="E72" s="4">
+        <f t="shared" si="15"/>
+        <v>65.5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H72">
         <f t="shared" si="12"/>
-        <v>65.5</v>
-      </c>
-      <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H72">
-        <f>IF(OR(D72="NA",F72="NA"),0, F72/B72^2)</f>
         <v>0</v>
       </c>
       <c r="I72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K72" t="s">
@@ -7003,11 +7058,11 @@
         <v>18</v>
       </c>
       <c r="O72" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R72" t="s">
@@ -7017,7 +7072,7 @@
         <v>15</v>
       </c>
       <c r="T72" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U72" t="s">
@@ -7029,37 +7084,37 @@
         <v>216</v>
       </c>
       <c r="B73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79</v>
       </c>
       <c r="C73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="D73">
         <v>79</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="F73">
         <v>15</v>
       </c>
       <c r="G73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>33</v>
       </c>
       <c r="H73">
-        <f>IF(OR(D73="NA",F73="NA"),0, F73/B73^2)</f>
+        <f t="shared" si="12"/>
         <v>24.034609838166958</v>
       </c>
       <c r="I73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K73" t="s">
@@ -7075,11 +7130,11 @@
         <v>18</v>
       </c>
       <c r="O73" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R73" t="s">
@@ -7089,7 +7144,7 @@
         <v>219</v>
       </c>
       <c r="T73" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U73" t="s">
@@ -7101,37 +7156,37 @@
         <v>220</v>
       </c>
       <c r="B74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.96</v>
       </c>
       <c r="C74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="D74">
         <v>96</v>
       </c>
       <c r="E74" s="4">
+        <f t="shared" si="15"/>
+        <v>37.5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H74">
         <f t="shared" si="12"/>
-        <v>37.5</v>
-      </c>
-      <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H74">
-        <f>IF(OR(D74="NA",F74="NA"),0, F74/B74^2)</f>
         <v>0</v>
       </c>
       <c r="I74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K74" t="s">
@@ -7147,11 +7202,11 @@
         <v>18</v>
       </c>
       <c r="O74" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R74" t="s">
@@ -7161,7 +7216,7 @@
         <v>18</v>
       </c>
       <c r="T74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U74" t="s">
@@ -7173,37 +7228,37 @@
         <v>223</v>
       </c>
       <c r="B75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.93</v>
       </c>
       <c r="C75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>63</v>
       </c>
       <c r="D75">
         <v>193</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>75.5</v>
       </c>
       <c r="F75">
         <v>48</v>
       </c>
       <c r="G75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>105.75</v>
       </c>
       <c r="H75">
-        <f>IF(OR(D75="NA",F75="NA"),0, F75/B75^2)</f>
+        <f t="shared" si="12"/>
         <v>12.886251979918924</v>
       </c>
       <c r="I75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>59</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K75" t="s">
@@ -7219,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="O75" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R75" t="s">
@@ -7233,7 +7288,7 @@
         <v>226</v>
       </c>
       <c r="T75" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U75" t="s">
@@ -7245,37 +7300,37 @@
         <v>227</v>
       </c>
       <c r="B76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.91</v>
       </c>
       <c r="C76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="D76">
         <v>191</v>
       </c>
       <c r="E76" s="4">
+        <f t="shared" si="15"/>
+        <v>75</v>
+      </c>
+      <c r="F76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H76">
         <f t="shared" si="12"/>
-        <v>75</v>
-      </c>
-      <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H76">
-        <f>IF(OR(D76="NA",F76="NA"),0, F76/B76^2)</f>
         <v>0</v>
       </c>
       <c r="I76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K76" t="s">
@@ -7291,11 +7346,11 @@
         <v>18</v>
       </c>
       <c r="O76" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R76" t="s">
@@ -7305,7 +7360,7 @@
         <v>229</v>
       </c>
       <c r="T76" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U76" t="s">
@@ -7317,37 +7372,37 @@
         <v>230</v>
       </c>
       <c r="B77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.78</v>
       </c>
       <c r="C77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>35</v>
       </c>
       <c r="D77">
         <v>178</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>70</v>
       </c>
       <c r="F77">
         <v>57</v>
       </c>
       <c r="G77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>125.5</v>
       </c>
       <c r="H77">
-        <f>IF(OR(D77="NA",F77="NA"),0, F77/B77^2)</f>
+        <f t="shared" si="12"/>
         <v>17.99015275849009</v>
       </c>
       <c r="I77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>51</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K77" t="s">
@@ -7363,11 +7418,11 @@
         <v>18</v>
       </c>
       <c r="O77" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R77" t="s">
@@ -7377,7 +7432,7 @@
         <v>233</v>
       </c>
       <c r="T77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U77" t="s">
@@ -7389,37 +7444,37 @@
         <v>234</v>
       </c>
       <c r="B78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.16</v>
       </c>
       <c r="C78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>76</v>
       </c>
       <c r="D78">
         <v>216</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>85</v>
       </c>
       <c r="F78">
         <v>159</v>
       </c>
       <c r="G78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>350.5</v>
       </c>
       <c r="H78">
-        <f>IF(OR(D78="NA",F78="NA"),0, F78/B78^2)</f>
+        <f t="shared" si="12"/>
         <v>34.079218106995881</v>
       </c>
       <c r="I78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Heavier</v>
       </c>
       <c r="K78" t="s">
@@ -7435,11 +7490,11 @@
         <v>18</v>
       </c>
       <c r="O78" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R78" t="s">
@@ -7449,7 +7504,7 @@
         <v>238</v>
       </c>
       <c r="T78" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Revenge of the Sith</v>
       </c>
       <c r="U78" t="s">
@@ -7461,37 +7516,37 @@
         <v>240</v>
       </c>
       <c r="B79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.34</v>
       </c>
       <c r="C79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
       <c r="D79">
         <v>234</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>92</v>
       </c>
       <c r="F79">
         <v>136</v>
       </c>
       <c r="G79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>299.75</v>
       </c>
       <c r="H79">
-        <f>IF(OR(D79="NA",F79="NA"),0, F79/B79^2)</f>
+        <f t="shared" si="12"/>
         <v>24.837460734896638</v>
       </c>
       <c r="I79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>26</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K79" t="s">
@@ -7507,11 +7562,11 @@
         <v>18</v>
       </c>
       <c r="O79" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R79" t="s">
@@ -7521,7 +7576,7 @@
         <v>59</v>
       </c>
       <c r="T79" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Revenge of the Sith</v>
       </c>
       <c r="U79" t="s">
@@ -7533,37 +7588,37 @@
         <v>241</v>
       </c>
       <c r="B80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.88</v>
       </c>
       <c r="C80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>54</v>
       </c>
       <c r="D80">
         <v>188</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>74</v>
       </c>
       <c r="F80">
         <v>79</v>
       </c>
       <c r="G80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>174</v>
       </c>
       <c r="H80">
-        <f>IF(OR(D80="NA",F80="NA"),0, F80/B80^2)</f>
+        <f t="shared" si="12"/>
         <v>22.351742870076958</v>
       </c>
       <c r="I80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>42</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K80" t="s">
@@ -7579,11 +7634,11 @@
         <v>18</v>
       </c>
       <c r="O80" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R80" t="s">
@@ -7593,7 +7648,7 @@
         <v>15</v>
       </c>
       <c r="T80" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Revenge of the Sith</v>
       </c>
       <c r="U80" t="s">
@@ -7605,37 +7660,37 @@
         <v>242</v>
       </c>
       <c r="B81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.78</v>
       </c>
       <c r="C81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>35</v>
       </c>
       <c r="D81">
         <v>178</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>70</v>
       </c>
       <c r="F81">
         <v>48</v>
       </c>
       <c r="G81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>105.75</v>
       </c>
       <c r="H81">
-        <f>IF(OR(D81="NA",F81="NA"),0, F81/B81^2)</f>
+        <f t="shared" si="12"/>
         <v>15.149602322939023</v>
       </c>
       <c r="I81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>57</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K81" t="s">
@@ -7651,11 +7706,11 @@
         <v>18</v>
       </c>
       <c r="O81" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R81" t="s">
@@ -7665,7 +7720,7 @@
         <v>18</v>
       </c>
       <c r="T81" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U81" t="s">
@@ -7677,37 +7732,37 @@
         <v>244</v>
       </c>
       <c r="B82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.06</v>
       </c>
       <c r="C82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>73</v>
       </c>
       <c r="D82">
         <v>206</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>81</v>
       </c>
       <c r="F82">
         <v>80</v>
       </c>
       <c r="G82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>176.25</v>
       </c>
       <c r="H82">
-        <f>IF(OR(D82="NA",F82="NA"),0, F82/B82^2)</f>
+        <f t="shared" si="12"/>
         <v>18.851918182675089</v>
       </c>
       <c r="I82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>49</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K82" t="s">
@@ -7723,11 +7778,11 @@
         <v>18</v>
       </c>
       <c r="O82" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R82" t="s">
@@ -7737,7 +7792,7 @@
         <v>246</v>
       </c>
       <c r="T82" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Revenge of the Sith</v>
       </c>
       <c r="U82" t="s">
@@ -7749,37 +7804,37 @@
         <v>247</v>
       </c>
       <c r="B83" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C83" t="str">
-        <f t="shared" si="11"/>
-        <v>No Info</v>
-      </c>
-      <c r="D83" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="4" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
+      <c r="C83" t="str">
+        <f t="shared" si="14"/>
+        <v>No Info</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F83" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="H83">
-        <f>IF(OR(D83="NA",F83="NA"),0, F83/B83^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K83" t="s">
@@ -7795,11 +7850,11 @@
         <v>18</v>
       </c>
       <c r="O83" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R83" t="s">
@@ -7809,7 +7864,7 @@
         <v>15</v>
       </c>
       <c r="T83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Force Awakens</v>
       </c>
       <c r="U83" t="s">
@@ -7821,37 +7876,37 @@
         <v>249</v>
       </c>
       <c r="B84" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C84" t="str">
-        <f t="shared" si="11"/>
-        <v>No Info</v>
-      </c>
-      <c r="D84" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="4" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
+      <c r="C84" t="str">
+        <f t="shared" si="14"/>
+        <v>No Info</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F84" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="H84">
-        <f>IF(OR(D84="NA",F84="NA"),0, F84/B84^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K84" t="s">
@@ -7867,11 +7922,11 @@
         <v>18</v>
       </c>
       <c r="O84" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R84" t="s">
@@ -7881,7 +7936,7 @@
         <v>15</v>
       </c>
       <c r="T84" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Force Awakens</v>
       </c>
       <c r="U84" t="s">
@@ -7893,37 +7948,37 @@
         <v>250</v>
       </c>
       <c r="B85" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C85" t="str">
-        <f t="shared" si="11"/>
-        <v>No Info</v>
-      </c>
-      <c r="D85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="4" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
+      <c r="C85" t="str">
+        <f t="shared" si="14"/>
+        <v>No Info</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F85" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="H85">
-        <f>IF(OR(D85="NA",F85="NA"),0, F85/B85^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K85" t="s">
@@ -7939,11 +7994,11 @@
         <v>18</v>
       </c>
       <c r="O85" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R85" t="s">
@@ -7953,7 +8008,7 @@
         <v>15</v>
       </c>
       <c r="T85" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The Force Awakens</v>
       </c>
       <c r="U85" t="s">
@@ -7965,37 +8020,37 @@
         <v>251</v>
       </c>
       <c r="B86" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C86" t="str">
-        <f t="shared" si="11"/>
-        <v>No Info</v>
-      </c>
-      <c r="D86" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="4" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
+      <c r="C86" t="str">
+        <f t="shared" si="14"/>
+        <v>No Info</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F86" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="H86">
-        <f>IF(OR(D86="NA",F86="NA"),0, F86/B86^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K86" t="s">
@@ -8011,11 +8066,11 @@
         <v>18</v>
       </c>
       <c r="O86" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R86" t="s">
@@ -8025,7 +8080,7 @@
         <v>21</v>
       </c>
       <c r="T86" t="str">
-        <f t="shared" ref="T86:T88" si="18">TRIM(IFERROR(LEFT(U86,(FIND(",",U86))-1), U86))</f>
+        <f t="shared" ref="T86:T88" si="21">TRIM(IFERROR(LEFT(U86,(FIND(",",U86))-1), U86))</f>
         <v>The Force Awakens</v>
       </c>
       <c r="U86" t="s">
@@ -8037,37 +8092,37 @@
         <v>252</v>
       </c>
       <c r="B87" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C87" t="str">
-        <f t="shared" si="11"/>
-        <v>No Info</v>
-      </c>
-      <c r="D87" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" s="4" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
+      <c r="C87" t="str">
+        <f t="shared" si="14"/>
+        <v>No Info</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F87" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="H87">
-        <f>IF(OR(D87="NA",F87="NA"),0, F87/B87^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K87" t="s">
@@ -8083,11 +8138,11 @@
         <v>18</v>
       </c>
       <c r="O87" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R87" t="s">
@@ -8097,7 +8152,7 @@
         <v>18</v>
       </c>
       <c r="T87" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>The Force Awakens</v>
       </c>
       <c r="U87" t="s">
@@ -8109,37 +8164,37 @@
         <v>253</v>
       </c>
       <c r="B88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.65</v>
       </c>
       <c r="C88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="D88">
         <v>165</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>64.5</v>
       </c>
       <c r="F88">
         <v>45</v>
       </c>
       <c r="G88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>99</v>
       </c>
       <c r="H88">
-        <f>IF(OR(D88="NA",F88="NA"),0, F88/B88^2)</f>
+        <f t="shared" si="12"/>
         <v>16.528925619834713</v>
       </c>
       <c r="I88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>55</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Lighter</v>
       </c>
       <c r="K88" t="s">
@@ -8155,7 +8210,7 @@
         <v>46</v>
       </c>
       <c r="O88" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="P88">
@@ -8168,50 +8223,36 @@
         <v>15</v>
       </c>
       <c r="T88" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U88" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B90" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B91" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F91" s="6" t="s">
+      <c r="F91" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="9">
         <f>AVERAGEIF(H2:H88, "&lt;&gt;0")</f>
         <v>32.048638992833226</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B92" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="9">
         <f>38*365</f>
         <v>13870</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B93" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="G93" t="str">
+      <c r="G93" s="9" t="str">
         <f>_xlfn.XLOOKUP(G92,P2:P88,A2:A88,"Not Found",-1)</f>
         <v>Lobot</v>
       </c>
@@ -8225,8 +8266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FA28E1-BAA3-4B8B-A303-A05FEE6F2B32}">
   <dimension ref="A1:W94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8238,76 +8279,77 @@
     <col min="5" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="F1" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8328,7 +8370,7 @@
         <v>25.5</v>
       </c>
       <c r="F2">
-        <f>$B$92-D2</f>
+        <f t="shared" ref="F2:F33" si="0">$B$92-D2</f>
         <v>108.35802469135803</v>
       </c>
       <c r="G2">
@@ -8348,7 +8390,7 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M2" t="s">
         <v>30</v>
@@ -8401,11 +8443,11 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <f>$B$92-D3</f>
+        <f t="shared" si="0"/>
         <v>95.358024691358025</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">F3^2</f>
+        <f t="shared" ref="G3:G66" si="1">F3^2</f>
         <v>9093.1528730376467</v>
       </c>
       <c r="H3">
@@ -8421,7 +8463,7 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M3" t="s">
         <v>29</v>
@@ -8474,11 +8516,11 @@
         <v>34.5</v>
       </c>
       <c r="F4">
-        <f>$B$92-D4</f>
+        <f t="shared" si="0"/>
         <v>86.358024691358025</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7457.7084285932024</v>
       </c>
       <c r="H4">
@@ -8494,7 +8536,7 @@
         <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M4" t="s">
         <v>33</v>
@@ -8547,11 +8589,11 @@
         <v>37</v>
       </c>
       <c r="F5">
-        <f>$B$92-D5</f>
+        <f t="shared" si="0"/>
         <v>80.358024691358025</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6457.4121322969058</v>
       </c>
       <c r="H5">
@@ -8567,7 +8609,7 @@
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M5" t="s">
         <v>29</v>
@@ -8620,11 +8662,11 @@
         <v>37.5</v>
       </c>
       <c r="F6">
-        <f>$B$92-D6</f>
+        <f t="shared" si="0"/>
         <v>78.358024691358025</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6139.980033531474</v>
       </c>
       <c r="H6">
@@ -8640,7 +8682,7 @@
         <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M6" t="s">
         <v>18</v>
@@ -8693,11 +8735,11 @@
         <v>37.5</v>
       </c>
       <c r="F7">
-        <f>$B$92-D7</f>
+        <f t="shared" si="0"/>
         <v>78.358024691358025</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6139.980033531474</v>
       </c>
       <c r="H7" t="s">
@@ -8713,7 +8755,7 @@
         <v>60</v>
       </c>
       <c r="L7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M7" t="s">
         <v>29</v>
@@ -8766,11 +8808,11 @@
         <v>38</v>
       </c>
       <c r="F8">
-        <f>$B$92-D8</f>
+        <f t="shared" si="0"/>
         <v>77.358024691358025</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5984.263984148758</v>
       </c>
       <c r="H8">
@@ -8786,7 +8828,7 @@
         <v>8</v>
       </c>
       <c r="L8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M8" t="s">
         <v>18</v>
@@ -8839,11 +8881,11 @@
         <v>44</v>
       </c>
       <c r="F9">
-        <f>$B$92-D9</f>
+        <f t="shared" si="0"/>
         <v>62.358024691358025</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3888.5232434080172</v>
       </c>
       <c r="H9">
@@ -8859,7 +8901,7 @@
         <v>11</v>
       </c>
       <c r="L9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M9" t="s">
         <v>29</v>
@@ -8912,11 +8954,11 @@
         <v>48</v>
       </c>
       <c r="F10">
-        <f>$B$92-D10</f>
+        <f t="shared" si="0"/>
         <v>52.358024691358025</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2741.3627495808569</v>
       </c>
       <c r="H10" t="s">
@@ -8932,7 +8974,7 @@
         <v>60</v>
       </c>
       <c r="L10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M10" t="s">
         <v>29</v>
@@ -8985,11 +9027,11 @@
         <v>53.5</v>
       </c>
       <c r="F11">
-        <f>$B$92-D11</f>
+        <f t="shared" si="0"/>
         <v>37.358024691358025</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1395.622008840116</v>
       </c>
       <c r="H11" t="s">
@@ -9005,7 +9047,7 @@
         <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M11" t="s">
         <v>45</v>
@@ -9058,11 +9100,11 @@
         <v>59</v>
       </c>
       <c r="F12">
-        <f>$B$92-D12</f>
+        <f t="shared" si="0"/>
         <v>24.358024691358025</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>593.31336686480722</v>
       </c>
       <c r="H12">
@@ -9078,7 +9120,7 @@
         <v>43</v>
       </c>
       <c r="L12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M12" t="s">
         <v>33</v>
@@ -9131,11 +9173,11 @@
         <v>59</v>
       </c>
       <c r="F13">
-        <f>$B$92-D13</f>
+        <f t="shared" si="0"/>
         <v>24.358024691358025</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>593.31336686480722</v>
       </c>
       <c r="H13" t="s">
@@ -9151,7 +9193,7 @@
         <v>60</v>
       </c>
       <c r="L13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M13" t="s">
         <v>106</v>
@@ -9204,11 +9246,11 @@
         <v>61.5</v>
       </c>
       <c r="F14">
-        <f>$B$92-D14</f>
+        <f t="shared" si="0"/>
         <v>17.358024691358025</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>301.30102118579487</v>
       </c>
       <c r="H14" t="s">
@@ -9224,7 +9266,7 @@
         <v>60</v>
       </c>
       <c r="L14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M14" t="s">
         <v>33</v>
@@ -9277,11 +9319,11 @@
         <v>62.5</v>
       </c>
       <c r="F15">
-        <f>$B$92-D15</f>
+        <f t="shared" si="0"/>
         <v>14.358024691358025</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>206.15287303764671</v>
       </c>
       <c r="H15">
@@ -9297,7 +9339,7 @@
         <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M15" t="s">
         <v>29</v>
@@ -9350,11 +9392,11 @@
         <v>64</v>
       </c>
       <c r="F16">
-        <f>$B$92-D16</f>
+        <f t="shared" si="0"/>
         <v>11.358024691358025</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129.00472488949856</v>
       </c>
       <c r="H16" t="s">
@@ -9370,7 +9412,7 @@
         <v>60</v>
       </c>
       <c r="L16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M16" t="s">
         <v>45</v>
@@ -9423,11 +9465,11 @@
         <v>64</v>
       </c>
       <c r="F17">
-        <f>$B$92-D17</f>
+        <f t="shared" si="0"/>
         <v>11.358024691358025</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129.00472488949856</v>
       </c>
       <c r="H17">
@@ -9443,7 +9485,7 @@
         <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M17" t="s">
         <v>29</v>
@@ -9496,11 +9538,11 @@
         <v>64.5</v>
       </c>
       <c r="F18">
-        <f>$B$92-D18</f>
+        <f t="shared" si="0"/>
         <v>9.3580246913580254</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87.57262612406646</v>
       </c>
       <c r="H18">
@@ -9516,7 +9558,7 @@
         <v>13</v>
       </c>
       <c r="L18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M18" t="s">
         <v>33</v>
@@ -9569,11 +9611,11 @@
         <v>64.5</v>
       </c>
       <c r="F19">
-        <f>$B$92-D19</f>
+        <f t="shared" si="0"/>
         <v>9.3580246913580254</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87.57262612406646</v>
       </c>
       <c r="H19" t="s">
@@ -9589,7 +9631,7 @@
         <v>60</v>
       </c>
       <c r="L19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M19" t="s">
         <v>33</v>
@@ -9642,11 +9684,11 @@
         <v>64.5</v>
       </c>
       <c r="F20">
-        <f>$B$92-D20</f>
+        <f t="shared" si="0"/>
         <v>9.3580246913580254</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87.57262612406646</v>
       </c>
       <c r="H20">
@@ -9662,7 +9704,7 @@
         <v>55</v>
       </c>
       <c r="L20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M20" t="s">
         <v>33</v>
@@ -9715,11 +9757,11 @@
         <v>65</v>
       </c>
       <c r="F21">
-        <f>$B$92-D21</f>
+        <f t="shared" si="0"/>
         <v>8.3580246913580254</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69.856576741350409</v>
       </c>
       <c r="H21">
@@ -9735,7 +9777,7 @@
         <v>50</v>
       </c>
       <c r="L21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M21" t="s">
         <v>45</v>
@@ -9788,11 +9830,11 @@
         <v>65.5</v>
       </c>
       <c r="F22">
-        <f>$B$92-D22</f>
+        <f t="shared" si="0"/>
         <v>7.3580246913580254</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.140527358634365</v>
       </c>
       <c r="H22">
@@ -9808,7 +9850,7 @@
         <v>14</v>
       </c>
       <c r="L22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M22" t="s">
         <v>18</v>
@@ -9861,11 +9903,11 @@
         <v>65.5</v>
       </c>
       <c r="F23">
-        <f>$B$92-D23</f>
+        <f t="shared" si="0"/>
         <v>7.3580246913580254</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.140527358634365</v>
       </c>
       <c r="H23" t="s">
@@ -9881,7 +9923,7 @@
         <v>60</v>
       </c>
       <c r="L23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M23" t="s">
         <v>30</v>
@@ -9934,11 +9976,11 @@
         <v>66</v>
       </c>
       <c r="F24">
-        <f>$B$92-D24</f>
+        <f t="shared" si="0"/>
         <v>6.3580246913580254</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40.424477975918315</v>
       </c>
       <c r="H24">
@@ -9954,7 +9996,7 @@
         <v>47</v>
       </c>
       <c r="L24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M24" t="s">
         <v>205</v>
@@ -10007,11 +10049,11 @@
         <v>66.5</v>
       </c>
       <c r="F25">
-        <f>$B$92-D25</f>
+        <f t="shared" si="0"/>
         <v>4.3580246913580254</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.992379210486213</v>
       </c>
       <c r="H25">
@@ -10027,7 +10069,7 @@
         <v>15</v>
       </c>
       <c r="L25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M25" t="s">
         <v>33</v>
@@ -10080,11 +10122,11 @@
         <v>66.5</v>
       </c>
       <c r="F26">
-        <f>$B$92-D26</f>
+        <f t="shared" si="0"/>
         <v>4.3580246913580254</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.992379210486213</v>
       </c>
       <c r="H26">
@@ -10100,7 +10142,7 @@
         <v>20</v>
       </c>
       <c r="L26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M26" t="s">
         <v>82</v>
@@ -10153,11 +10195,11 @@
         <v>66.5</v>
       </c>
       <c r="F27">
-        <f>$B$92-D27</f>
+        <f t="shared" si="0"/>
         <v>4.3580246913580254</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.992379210486213</v>
       </c>
       <c r="H27" t="s">
@@ -10173,7 +10215,7 @@
         <v>60</v>
       </c>
       <c r="L27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M27" t="s">
         <v>11</v>
@@ -10226,11 +10268,11 @@
         <v>66.5</v>
       </c>
       <c r="F28">
-        <f>$B$92-D28</f>
+        <f t="shared" si="0"/>
         <v>4.3580246913580254</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.992379210486213</v>
       </c>
       <c r="H28">
@@ -10246,7 +10288,7 @@
         <v>48</v>
       </c>
       <c r="L28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M28" t="s">
         <v>45</v>
@@ -10299,11 +10341,11 @@
         <v>67</v>
       </c>
       <c r="F29">
-        <f>$B$92-D29</f>
+        <f t="shared" si="0"/>
         <v>3.3580246913580254</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.276329827770162</v>
       </c>
       <c r="H29" t="s">
@@ -10319,7 +10361,7 @@
         <v>60</v>
       </c>
       <c r="L29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M29" t="s">
         <v>45</v>
@@ -10372,11 +10414,11 @@
         <v>67.5</v>
       </c>
       <c r="F30">
-        <f>$B$92-D30</f>
+        <f t="shared" si="0"/>
         <v>2.3580246913580254</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5602804450541106</v>
       </c>
       <c r="H30">
@@ -10392,7 +10434,7 @@
         <v>18</v>
       </c>
       <c r="L30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M30" t="s">
         <v>11</v>
@@ -10445,11 +10487,11 @@
         <v>68</v>
       </c>
       <c r="F31">
-        <f>$B$92-D31</f>
+        <f t="shared" si="0"/>
         <v>1.3580246913580254</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8442310623380602</v>
       </c>
       <c r="H31">
@@ -10465,7 +10507,7 @@
         <v>28</v>
       </c>
       <c r="L31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s">
         <v>18</v>
@@ -10518,11 +10560,11 @@
         <v>68.5</v>
       </c>
       <c r="F32">
-        <f>$B$92-D32</f>
+        <f t="shared" si="0"/>
         <v>-0.64197530864197461</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41213229690595854</v>
       </c>
       <c r="H32">
@@ -10538,7 +10580,7 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M32" t="s">
         <v>18</v>
@@ -10591,11 +10633,11 @@
         <v>68.5</v>
       </c>
       <c r="F33">
-        <f>$B$92-D33</f>
+        <f t="shared" si="0"/>
         <v>-0.64197530864197461</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41213229690595854</v>
       </c>
       <c r="H33">
@@ -10611,7 +10653,7 @@
         <v>22</v>
       </c>
       <c r="L33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s">
         <v>29</v>
@@ -10664,11 +10706,11 @@
         <v>68.5</v>
       </c>
       <c r="F34">
-        <f>$B$92-D34</f>
+        <f t="shared" ref="F34:F65" si="2">$B$92-D34</f>
         <v>-0.64197530864197461</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41213229690595854</v>
       </c>
       <c r="H34">
@@ -10684,7 +10726,7 @@
         <v>17</v>
       </c>
       <c r="L34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M34" t="s">
         <v>29</v>
@@ -10737,11 +10779,11 @@
         <v>69.5</v>
       </c>
       <c r="F35">
-        <f>$B$92-D35</f>
+        <f t="shared" si="2"/>
         <v>-2.6419753086419746</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9800335314738566</v>
       </c>
       <c r="H35">
@@ -10757,7 +10799,7 @@
         <v>24</v>
       </c>
       <c r="L35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M35" t="s">
         <v>45</v>
@@ -10810,11 +10852,11 @@
         <v>70</v>
       </c>
       <c r="F36">
-        <f>$B$92-D36</f>
+        <f t="shared" si="2"/>
         <v>-3.6419753086419746</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.263984148757807</v>
       </c>
       <c r="H36">
@@ -10830,7 +10872,7 @@
         <v>4</v>
       </c>
       <c r="L36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s">
         <v>38</v>
@@ -10883,11 +10925,11 @@
         <v>70</v>
       </c>
       <c r="F37">
-        <f>$B$92-D37</f>
+        <f t="shared" si="2"/>
         <v>-3.6419753086419746</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.263984148757807</v>
       </c>
       <c r="H37">
@@ -10903,7 +10945,7 @@
         <v>52</v>
       </c>
       <c r="L37" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M37" t="s">
         <v>29</v>
@@ -10956,11 +10998,11 @@
         <v>70</v>
       </c>
       <c r="F38">
-        <f>$B$92-D38</f>
+        <f t="shared" si="2"/>
         <v>-3.6419753086419746</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.263984148757807</v>
       </c>
       <c r="H38">
@@ -10976,7 +11018,7 @@
         <v>51</v>
       </c>
       <c r="L38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M38" t="s">
         <v>29</v>
@@ -11029,11 +11071,11 @@
         <v>70</v>
       </c>
       <c r="F39">
-        <f>$B$92-D39</f>
+        <f t="shared" si="2"/>
         <v>-3.6419753086419746</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.263984148757807</v>
       </c>
       <c r="H39">
@@ -11049,7 +11091,7 @@
         <v>57</v>
       </c>
       <c r="L39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M39" t="s">
         <v>29</v>
@@ -11102,11 +11144,11 @@
         <v>70.5</v>
       </c>
       <c r="F40">
-        <f>$B$92-D40</f>
+        <f t="shared" si="2"/>
         <v>-5.6419753086419746</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.831885383325705</v>
       </c>
       <c r="H40" t="s">
@@ -11122,7 +11164,7 @@
         <v>60</v>
       </c>
       <c r="L40" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M40" t="s">
         <v>53</v>
@@ -11175,11 +11217,11 @@
         <v>70.5</v>
       </c>
       <c r="F41">
-        <f>$B$92-D41</f>
+        <f t="shared" si="2"/>
         <v>-5.6419753086419746</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.831885383325705</v>
       </c>
       <c r="H41">
@@ -11195,7 +11237,7 @@
         <v>29</v>
       </c>
       <c r="L41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M41" t="s">
         <v>33</v>
@@ -11248,11 +11290,11 @@
         <v>70.5</v>
       </c>
       <c r="F42">
-        <f>$B$92-D42</f>
+        <f t="shared" si="2"/>
         <v>-5.6419753086419746</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.831885383325705</v>
       </c>
       <c r="H42">
@@ -11268,7 +11310,7 @@
         <v>9</v>
       </c>
       <c r="L42" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M42" t="s">
         <v>33</v>
@@ -11321,11 +11363,11 @@
         <v>70.5</v>
       </c>
       <c r="F43">
-        <f>$B$92-D43</f>
+        <f t="shared" si="2"/>
         <v>-5.6419753086419746</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.831885383325705</v>
       </c>
       <c r="H43">
@@ -11341,7 +11383,7 @@
         <v>23</v>
       </c>
       <c r="L43" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M43" t="s">
         <v>29</v>
@@ -11394,11 +11436,11 @@
         <v>70.5</v>
       </c>
       <c r="F44">
-        <f>$B$92-D44</f>
+        <f t="shared" si="2"/>
         <v>-5.6419753086419746</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.831885383325705</v>
       </c>
       <c r="H44" t="s">
@@ -11414,7 +11456,7 @@
         <v>60</v>
       </c>
       <c r="L44" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M44" t="s">
         <v>29</v>
@@ -11467,11 +11509,11 @@
         <v>71.5</v>
       </c>
       <c r="F45">
-        <f>$B$92-D45</f>
+        <f t="shared" si="2"/>
         <v>-7.6419753086419746</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.399786617893604</v>
       </c>
       <c r="H45">
@@ -11487,7 +11529,7 @@
         <v>39</v>
       </c>
       <c r="L45" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M45" t="s">
         <v>47</v>
@@ -11540,11 +11582,11 @@
         <v>72</v>
       </c>
       <c r="F46">
-        <f>$B$92-D46</f>
+        <f t="shared" si="2"/>
         <v>-8.6419753086419746</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.683737235177546</v>
       </c>
       <c r="H46">
@@ -11560,7 +11602,7 @@
         <v>25</v>
       </c>
       <c r="L46" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M46" t="s">
         <v>45</v>
@@ -11613,11 +11655,11 @@
         <v>72</v>
       </c>
       <c r="F47">
-        <f>$B$92-D47</f>
+        <f t="shared" si="2"/>
         <v>-8.6419753086419746</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.683737235177546</v>
       </c>
       <c r="H47">
@@ -11633,7 +11675,7 @@
         <v>38</v>
       </c>
       <c r="L47" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M47" t="s">
         <v>45</v>
@@ -11686,11 +11728,11 @@
         <v>72</v>
       </c>
       <c r="F48">
-        <f>$B$92-D48</f>
+        <f t="shared" si="2"/>
         <v>-8.6419753086419746</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.683737235177546</v>
       </c>
       <c r="H48" t="s">
@@ -11706,7 +11748,7 @@
         <v>60</v>
       </c>
       <c r="L48" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M48" t="s">
         <v>33</v>
@@ -11759,11 +11801,11 @@
         <v>72</v>
       </c>
       <c r="F49">
-        <f>$B$92-D49</f>
+        <f t="shared" si="2"/>
         <v>-8.6419753086419746</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.683737235177546</v>
       </c>
       <c r="H49" t="s">
@@ -11779,7 +11821,7 @@
         <v>60</v>
       </c>
       <c r="L49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M49" t="s">
         <v>45</v>
@@ -11832,11 +11874,11 @@
         <v>72</v>
       </c>
       <c r="F50">
-        <f>$B$92-D50</f>
+        <f t="shared" si="2"/>
         <v>-8.6419753086419746</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.683737235177546</v>
       </c>
       <c r="H50" t="s">
@@ -11852,7 +11894,7 @@
         <v>60</v>
       </c>
       <c r="L50" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M50" t="s">
         <v>33</v>
@@ -11905,11 +11947,11 @@
         <v>72</v>
       </c>
       <c r="F51">
-        <f>$B$92-D51</f>
+        <f t="shared" si="2"/>
         <v>-8.6419753086419746</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.683737235177546</v>
       </c>
       <c r="H51">
@@ -11925,7 +11967,7 @@
         <v>34</v>
       </c>
       <c r="L51" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M51" t="s">
         <v>29</v>
@@ -11978,11 +12020,11 @@
         <v>72</v>
       </c>
       <c r="F52">
-        <f>$B$92-D52</f>
+        <f t="shared" si="2"/>
         <v>-8.6419753086419746</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.683737235177546</v>
       </c>
       <c r="H52">
@@ -11998,7 +12040,7 @@
         <v>37</v>
       </c>
       <c r="L52" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M52" t="s">
         <v>45</v>
@@ -12051,11 +12093,11 @@
         <v>72</v>
       </c>
       <c r="F53">
-        <f>$B$92-D53</f>
+        <f t="shared" si="2"/>
         <v>-9.6419753086419746</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.967687852461495</v>
       </c>
       <c r="H53">
@@ -12071,7 +12113,7 @@
         <v>58</v>
       </c>
       <c r="L53" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M53" t="s">
         <v>29</v>
@@ -12124,11 +12166,11 @@
         <v>72.5</v>
       </c>
       <c r="F54">
-        <f>$B$92-D54</f>
+        <f t="shared" si="2"/>
         <v>-10.641975308641975</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>113.25163846974544</v>
       </c>
       <c r="H54">
@@ -12144,7 +12186,7 @@
         <v>27</v>
       </c>
       <c r="L54" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M54" t="s">
         <v>45</v>
@@ -12197,11 +12239,11 @@
         <v>74</v>
       </c>
       <c r="F55">
-        <f>$B$92-D55</f>
+        <f t="shared" si="2"/>
         <v>-13.641975308641975</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>186.10349032159729</v>
       </c>
       <c r="H55">
@@ -12217,7 +12259,7 @@
         <v>35</v>
       </c>
       <c r="L55" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M55" t="s">
         <v>11</v>
@@ -12270,11 +12312,11 @@
         <v>74</v>
       </c>
       <c r="F56">
-        <f>$B$92-D56</f>
+        <f t="shared" si="2"/>
         <v>-13.641975308641975</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>186.10349032159729</v>
       </c>
       <c r="H56">
@@ -12290,7 +12332,7 @@
         <v>35</v>
       </c>
       <c r="L56" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M56" t="s">
         <v>29</v>
@@ -12343,11 +12385,11 @@
         <v>74</v>
       </c>
       <c r="F57">
-        <f>$B$92-D57</f>
+        <f t="shared" si="2"/>
         <v>-13.641975308641975</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>186.10349032159729</v>
       </c>
       <c r="H57" t="s">
@@ -12363,7 +12405,7 @@
         <v>60</v>
       </c>
       <c r="L57" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M57" t="s">
         <v>29</v>
@@ -12416,11 +12458,11 @@
         <v>74</v>
       </c>
       <c r="F58">
-        <f>$B$92-D58</f>
+        <f t="shared" si="2"/>
         <v>-13.641975308641975</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>186.10349032159729</v>
       </c>
       <c r="H58">
@@ -12436,7 +12478,7 @@
         <v>41</v>
       </c>
       <c r="L58" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M58" t="s">
         <v>29</v>
@@ -12489,11 +12531,11 @@
         <v>74</v>
       </c>
       <c r="F59">
-        <f>$B$92-D59</f>
+        <f t="shared" si="2"/>
         <v>-13.641975308641975</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>186.10349032159729</v>
       </c>
       <c r="H59">
@@ -12509,7 +12551,7 @@
         <v>42</v>
       </c>
       <c r="L59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M59" t="s">
         <v>33</v>
@@ -12562,11 +12604,11 @@
         <v>74.5</v>
       </c>
       <c r="F60">
-        <f>$B$92-D60</f>
+        <f t="shared" si="2"/>
         <v>-15.641975308641975</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>244.67139155616519</v>
       </c>
       <c r="H60">
@@ -12582,7 +12624,7 @@
         <v>12</v>
       </c>
       <c r="L60" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M60" t="s">
         <v>29</v>
@@ -12635,11 +12677,11 @@
         <v>75</v>
       </c>
       <c r="F61">
-        <f>$B$92-D61</f>
+        <f t="shared" si="2"/>
         <v>-16.641975308641975</v>
       </c>
       <c r="G61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>276.95534217344914</v>
       </c>
       <c r="H61">
@@ -12655,7 +12697,7 @@
         <v>30</v>
       </c>
       <c r="L61" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M61" t="s">
         <v>29</v>
@@ -12708,11 +12750,11 @@
         <v>75</v>
       </c>
       <c r="F62">
-        <f>$B$92-D62</f>
+        <f t="shared" si="2"/>
         <v>-16.641975308641975</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>276.95534217344914</v>
       </c>
       <c r="H62" t="s">
@@ -12728,7 +12770,7 @@
         <v>60</v>
       </c>
       <c r="L62" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M62" t="s">
         <v>45</v>
@@ -12781,11 +12823,11 @@
         <v>75</v>
       </c>
       <c r="F63">
-        <f>$B$92-D63</f>
+        <f t="shared" si="2"/>
         <v>-16.641975308641975</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>276.95534217344914</v>
       </c>
       <c r="H63" t="s">
@@ -12801,7 +12843,7 @@
         <v>60</v>
       </c>
       <c r="L63" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M63" t="s">
         <v>29</v>
@@ -12854,11 +12896,11 @@
         <v>75.5</v>
       </c>
       <c r="F64">
-        <f>$B$92-D64</f>
+        <f t="shared" si="2"/>
         <v>-18.641975308641975</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>347.52324340801704</v>
       </c>
       <c r="H64">
@@ -12874,7 +12916,7 @@
         <v>33</v>
       </c>
       <c r="L64" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M64" t="s">
         <v>33</v>
@@ -12927,11 +12969,11 @@
         <v>75.5</v>
       </c>
       <c r="F65">
-        <f>$B$92-D65</f>
+        <f t="shared" si="2"/>
         <v>-18.641975308641975</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>347.52324340801704</v>
       </c>
       <c r="H65">
@@ -12947,7 +12989,7 @@
         <v>45</v>
       </c>
       <c r="L65" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M65" t="s">
         <v>30</v>
@@ -13000,11 +13042,11 @@
         <v>75.5</v>
       </c>
       <c r="F66">
-        <f>$B$92-D66</f>
+        <f t="shared" ref="F66:F82" si="3">$B$92-D66</f>
         <v>-18.641975308641975</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>347.52324340801704</v>
       </c>
       <c r="H66">
@@ -13020,7 +13062,7 @@
         <v>59</v>
       </c>
       <c r="L66" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M66" t="s">
         <v>29</v>
@@ -13073,11 +13115,11 @@
         <v>77</v>
       </c>
       <c r="F67">
-        <f>$B$92-D67</f>
+        <f t="shared" si="3"/>
         <v>-21.641975308641975</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G82" si="1">F67^2</f>
+        <f t="shared" ref="G67:G82" si="4">F67^2</f>
         <v>468.37509525986889</v>
       </c>
       <c r="H67">
@@ -13093,7 +13135,7 @@
         <v>53</v>
       </c>
       <c r="L67" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M67" t="s">
         <v>29</v>
@@ -13146,11 +13188,11 @@
         <v>77</v>
       </c>
       <c r="F68">
-        <f>$B$92-D68</f>
+        <f t="shared" si="3"/>
         <v>-21.641975308641975</v>
       </c>
       <c r="G68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>468.37509525986889</v>
       </c>
       <c r="H68">
@@ -13166,7 +13208,7 @@
         <v>40</v>
       </c>
       <c r="L68" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M68" t="s">
         <v>29</v>
@@ -13219,11 +13261,11 @@
         <v>77</v>
       </c>
       <c r="F69">
-        <f>$B$92-D69</f>
+        <f t="shared" si="3"/>
         <v>-21.641975308641975</v>
       </c>
       <c r="G69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>468.37509525986889</v>
       </c>
       <c r="H69" t="s">
@@ -13239,7 +13281,7 @@
         <v>60</v>
       </c>
       <c r="L69" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M69" t="s">
         <v>29</v>
@@ -13292,11 +13334,11 @@
         <v>77.5</v>
       </c>
       <c r="F70">
-        <f>$B$92-D70</f>
+        <f t="shared" si="3"/>
         <v>-23.641975308641975</v>
       </c>
       <c r="G70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>558.94299649443678</v>
       </c>
       <c r="H70">
@@ -13312,7 +13354,7 @@
         <v>46</v>
       </c>
       <c r="L70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M70" t="s">
         <v>30</v>
@@ -13365,11 +13407,11 @@
         <v>77.5</v>
       </c>
       <c r="F71">
-        <f>$B$92-D71</f>
+        <f t="shared" si="3"/>
         <v>-23.641975308641975</v>
       </c>
       <c r="G71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>558.94299649443678</v>
       </c>
       <c r="H71">
@@ -13385,7 +13427,7 @@
         <v>19</v>
       </c>
       <c r="L71" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M71" t="s">
         <v>29</v>
@@ -13438,11 +13480,11 @@
         <v>78.5</v>
       </c>
       <c r="F72">
-        <f>$B$92-D72</f>
+        <f t="shared" si="3"/>
         <v>-25.641975308641975</v>
       </c>
       <c r="G72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>657.51089772900468</v>
       </c>
       <c r="H72">
@@ -13458,7 +13500,7 @@
         <v>5</v>
       </c>
       <c r="L72" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M72" t="s">
         <v>29</v>
@@ -13511,11 +13553,11 @@
         <v>79.5</v>
       </c>
       <c r="F73">
-        <f>$B$92-D73</f>
+        <f t="shared" si="3"/>
         <v>-27.641975308641975</v>
       </c>
       <c r="G73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>764.07879896357258</v>
       </c>
       <c r="H73">
@@ -13531,7 +13573,7 @@
         <v>10</v>
       </c>
       <c r="L73" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M73" t="s">
         <v>29</v>
@@ -13584,11 +13626,11 @@
         <v>81</v>
       </c>
       <c r="F74">
-        <f>$B$92-D74</f>
+        <f t="shared" si="3"/>
         <v>-31.641975308641975</v>
       </c>
       <c r="G74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1001.2146014327084</v>
       </c>
       <c r="H74" t="s">
@@ -13604,7 +13646,7 @@
         <v>60</v>
       </c>
       <c r="L74" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M74" t="s">
         <v>29</v>
@@ -13657,11 +13699,11 @@
         <v>81</v>
       </c>
       <c r="F75">
-        <f>$B$92-D75</f>
+        <f t="shared" si="3"/>
         <v>-31.641975308641975</v>
       </c>
       <c r="G75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1001.2146014327084</v>
       </c>
       <c r="H75">
@@ -13677,7 +13719,7 @@
         <v>49</v>
       </c>
       <c r="L75" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M75" t="s">
         <v>29</v>
@@ -13730,11 +13772,11 @@
         <v>83.5</v>
       </c>
       <c r="F76">
-        <f>$B$92-D76</f>
+        <f t="shared" si="3"/>
         <v>-38.641975308641975</v>
       </c>
       <c r="G76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1493.2022557536961</v>
       </c>
       <c r="H76" t="s">
@@ -13750,7 +13792,7 @@
         <v>60</v>
       </c>
       <c r="L76" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M76" t="s">
         <v>29</v>
@@ -13803,11 +13845,11 @@
         <v>85</v>
       </c>
       <c r="F77">
-        <f>$B$92-D77</f>
+        <f t="shared" si="3"/>
         <v>-41.641975308641975</v>
       </c>
       <c r="G77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1734.0541076055479</v>
       </c>
       <c r="H77">
@@ -13823,7 +13865,7 @@
         <v>7</v>
       </c>
       <c r="L77" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M77" t="s">
         <v>29</v>
@@ -13876,11 +13918,11 @@
         <v>88</v>
       </c>
       <c r="F78">
-        <f>$B$92-D78</f>
+        <f t="shared" si="3"/>
         <v>-49.641975308641975</v>
       </c>
       <c r="G78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2464.3257125438195</v>
       </c>
       <c r="H78">
@@ -13896,7 +13938,7 @@
         <v>56</v>
       </c>
       <c r="L78" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M78" t="s">
         <v>29</v>
@@ -13949,11 +13991,11 @@
         <v>89.5</v>
       </c>
       <c r="F79">
-        <f>$B$92-D79</f>
+        <f t="shared" si="3"/>
         <v>-53.641975308641975</v>
       </c>
       <c r="G79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2877.4615150129553</v>
       </c>
       <c r="H79">
@@ -13969,7 +14011,7 @@
         <v>44</v>
       </c>
       <c r="L79" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M79" t="s">
         <v>33</v>
@@ -14022,11 +14064,11 @@
         <v>90</v>
       </c>
       <c r="F80">
-        <f>$B$92-D80</f>
+        <f t="shared" si="3"/>
         <v>-54.641975308641975</v>
       </c>
       <c r="G80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2985.7454656302393</v>
       </c>
       <c r="H80">
@@ -14042,7 +14084,7 @@
         <v>54</v>
       </c>
       <c r="L80" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M80" t="s">
         <v>29</v>
@@ -14095,11 +14137,11 @@
         <v>92</v>
       </c>
       <c r="F81">
-        <f>$B$92-D81</f>
+        <f t="shared" si="3"/>
         <v>-59.641975308641975</v>
       </c>
       <c r="G81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3557.1652187166592</v>
       </c>
       <c r="H81">
@@ -14115,7 +14157,7 @@
         <v>26</v>
       </c>
       <c r="L81" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M81" t="s">
         <v>33</v>
@@ -14168,11 +14210,11 @@
         <v>103.5</v>
       </c>
       <c r="F82">
-        <f>$B$92-D82</f>
+        <f t="shared" si="3"/>
         <v>-89.641975308641975</v>
       </c>
       <c r="G82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8035.6837372351774</v>
       </c>
       <c r="H82" t="s">
@@ -14188,7 +14230,7 @@
         <v>60</v>
       </c>
       <c r="L82" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M82" t="s">
         <v>29</v>
@@ -14226,82 +14268,142 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="9">
         <f>SUM(D2:D82)/COUNT(D2:D82)</f>
         <v>174.35802469135803</v>
       </c>
-      <c r="I86" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="J86">
-        <f>_xlfn.VAR.P(G2:G82)</f>
-        <v>5555621.222789621</v>
+      <c r="I86" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="J86" s="9">
+        <f>AVERAGE(G2:G82)</f>
+        <v>1194.0570035055634</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="9">
         <f>COUNT(D2:D82)/2</f>
         <v>40.5</v>
       </c>
+      <c r="I87" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="J87" s="9">
+        <f>_xlfn.VAR.P(F2:F82)</f>
+        <v>1194.0570035055632</v>
+      </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="9">
         <f>VLOOKUP(B87,C2:W82,2,TRUE)</f>
         <v>180</v>
       </c>
+      <c r="I88" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="J88" s="9">
+        <f>_xlfn.STDEV.P(F2:F82)</f>
+        <v>34.555129915912097</v>
+      </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="9">
         <v>183</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>294</v>
+      <c r="C89" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="I90" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="M90" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="J91" s="9">
+        <f>ROUNDUP(COUNT(B2:B82)*0.9,0)</f>
+        <v>73</v>
+      </c>
+      <c r="K91" s="9">
+        <f>VLOOKUP(J91,C2:W82,2)</f>
+        <v>206</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="N91" s="9">
+        <f>ROUNDUP(COUNT(B2:B82)*0.25,0)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="9">
         <f>AVERAGE(D2:D82)</f>
         <v>174.35802469135803</v>
       </c>
+      <c r="I92" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="J92" s="9">
+        <f>_xlfn.PERCENTILE.INC(C2:C82,0.9)</f>
+        <v>73</v>
+      </c>
+      <c r="M92" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="N92" s="9">
+        <f>_xlfn.QUARTILE.INC(C2:C82,1)</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="9">
         <f>MEDIAN(D2:D82)</f>
         <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="9">
         <f>_xlfn.MODE.SNGL(D2:D82)</f>
         <v>183</v>
       </c>

--- a/starwars_worked.xlsx
+++ b/starwars_worked.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcool\workspace\excel\data\starwars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D178B95A-CCDE-4821-8B30-8A8F58CC7F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D734E3CA-0EA9-450A-96D2-BDE67C2C0C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="starwars" sheetId="1" r:id="rId1"/>
     <sheet name="hasHeight" sheetId="3" r:id="rId2"/>
-    <sheet name="data_dictionary" sheetId="2" r:id="rId3"/>
+    <sheet name="Attack of the Clones" sheetId="4" r:id="rId3"/>
+    <sheet name="Return of the Jedi" sheetId="6" r:id="rId4"/>
+    <sheet name="Planet Naboo" sheetId="7" r:id="rId5"/>
+    <sheet name="data_dictionary" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="StarwarsData">starwars!$A$2,starwars!$A$2:$U$88</definedName>
@@ -37,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="310">
   <si>
     <t>name</t>
   </si>
@@ -947,13 +972,220 @@
   </si>
   <si>
     <t>vlookup height</t>
+  </si>
+  <si>
+    <t>filter starwars sheet table w/o headers. Iferror to catch not finding search text. Search for word Clones in films column on starwars sheet table</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>filter starwars sheet table w/o headers. Iferror to catch not finding search text. Search for word Return in films column on starwars sheet table</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(starwars!A2:T88, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IFERROR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SEARCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("Return",starwars!UT2:U88),0),0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(starwars!A2:T88, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IFERROR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SEARCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("Clones",starwars!U2:U88),0),0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(starwars!A2:T88, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IFERROR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SEARCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("Naboo",starwars!R2:R88),0),0)</t>
+    </r>
+  </si>
+  <si>
+    <t>filter starwars sheet table w/o headers. Iferror to catch not finding search text. Search for word Naboo in homeworld column on starwars sheet table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1097,6 +1329,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1493,7 +1740,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1506,6 +1753,7 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1874,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N93" sqref="N93"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8266,8 +8514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FA28E1-BAA3-4B8B-A303-A05FEE6F2B32}">
   <dimension ref="A1:W94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -14418,6 +14666,5286 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37ABB0DC-CE9E-41A7-A512-033428E127C2}">
+  <dimension ref="A1:T100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>1.67</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>167</v>
+      </c>
+      <c r="E5">
+        <v>65.5</v>
+      </c>
+      <c r="F5">
+        <v>75</v>
+      </c>
+      <c r="G5">
+        <v>165.25</v>
+      </c>
+      <c r="H5">
+        <v>26.892323138154829</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>291</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <v>112</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>40880</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0.96</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>96</v>
+      </c>
+      <c r="E6">
+        <v>37.5</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>70.5</v>
+      </c>
+      <c r="H6">
+        <v>34.722222222222221</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>290</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <v>33</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>12045</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>1.78</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>178</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>120</v>
+      </c>
+      <c r="G7">
+        <v>264.5</v>
+      </c>
+      <c r="H7">
+        <v>37.874005807347558</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>52</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>18980</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>1.65</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>165</v>
+      </c>
+      <c r="E8">
+        <v>64.5</v>
+      </c>
+      <c r="F8">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <v>165.25</v>
+      </c>
+      <c r="H8">
+        <v>27.548209366391188</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>291</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>47</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>17155</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>1.82</v>
+      </c>
+      <c r="C9">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>182</v>
+      </c>
+      <c r="E9">
+        <v>71.5</v>
+      </c>
+      <c r="F9">
+        <v>77</v>
+      </c>
+      <c r="G9">
+        <v>169.75</v>
+      </c>
+      <c r="H9">
+        <v>23.245984784446321</v>
+      </c>
+      <c r="I9">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>291</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9">
+        <v>57</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>20805</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>1.88</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>188</v>
+      </c>
+      <c r="E10">
+        <v>74</v>
+      </c>
+      <c r="F10">
+        <v>84</v>
+      </c>
+      <c r="G10">
+        <v>185</v>
+      </c>
+      <c r="H10">
+        <v>23.766410140334994</v>
+      </c>
+      <c r="I10">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>291</v>
+      </c>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <v>41.9</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>15293.5</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11">
+        <v>0.66</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>66</v>
+      </c>
+      <c r="E11">
+        <v>25.5</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>37.25</v>
+      </c>
+      <c r="H11">
+        <v>39.026629935720841</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>290</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11">
+        <v>896</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>327040</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" t="s">
+        <v>79</v>
+      </c>
+      <c r="T11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12">
+        <v>1.7</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>170</v>
+      </c>
+      <c r="E12">
+        <v>66.5</v>
+      </c>
+      <c r="F12">
+        <v>75</v>
+      </c>
+      <c r="G12">
+        <v>165.25</v>
+      </c>
+      <c r="H12">
+        <v>25.95155709342561</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>291</v>
+      </c>
+      <c r="K12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12">
+        <v>82</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>29930</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13">
+        <v>1.83</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>183</v>
+      </c>
+      <c r="E13">
+        <v>72</v>
+      </c>
+      <c r="F13">
+        <v>78.2</v>
+      </c>
+      <c r="G13">
+        <v>172.25</v>
+      </c>
+      <c r="H13">
+        <v>23.350951058556539</v>
+      </c>
+      <c r="I13">
+        <v>38</v>
+      </c>
+      <c r="J13" t="s">
+        <v>291</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13">
+        <v>31.5</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>11497.5</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" t="s">
+        <v>15</v>
+      </c>
+      <c r="T13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14">
+        <v>1.91</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>191</v>
+      </c>
+      <c r="E14">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>90</v>
+      </c>
+      <c r="G14">
+        <v>198.25</v>
+      </c>
+      <c r="H14">
+        <v>24.670376360297141</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
+        <v>291</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>120</v>
+      </c>
+      <c r="S14" t="s">
+        <v>121</v>
+      </c>
+      <c r="T14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15">
+        <v>1.96</v>
+      </c>
+      <c r="C15">
+        <v>66</v>
+      </c>
+      <c r="D15">
+        <v>196</v>
+      </c>
+      <c r="E15">
+        <v>77</v>
+      </c>
+      <c r="F15">
+        <v>66</v>
+      </c>
+      <c r="G15">
+        <v>145.5</v>
+      </c>
+      <c r="H15">
+        <v>17.180341524364849</v>
+      </c>
+      <c r="I15">
+        <v>53</v>
+      </c>
+      <c r="J15" t="s">
+        <v>291</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15">
+        <v>52</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>18980</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" t="s">
+        <v>125</v>
+      </c>
+      <c r="T15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16">
+        <v>1.37</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>137</v>
+      </c>
+      <c r="E16">
+        <v>53.5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>60</v>
+      </c>
+      <c r="J16" t="s">
+        <v>291</v>
+      </c>
+      <c r="K16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>132</v>
+      </c>
+      <c r="S16" t="s">
+        <v>133</v>
+      </c>
+      <c r="T16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17">
+        <v>1.63</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>163</v>
+      </c>
+      <c r="E17">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>60</v>
+      </c>
+      <c r="J17" t="s">
+        <v>291</v>
+      </c>
+      <c r="K17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17">
+        <v>72</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>26280</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S17" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18">
+        <v>1.78</v>
+      </c>
+      <c r="C18">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <v>178</v>
+      </c>
+      <c r="E18">
+        <v>70</v>
+      </c>
+      <c r="F18">
+        <v>55</v>
+      </c>
+      <c r="G18">
+        <v>121.25</v>
+      </c>
+      <c r="H18">
+        <v>17.35891932836763</v>
+      </c>
+      <c r="I18">
+        <v>52</v>
+      </c>
+      <c r="J18" t="s">
+        <v>291</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18">
+        <v>48</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>17520</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>146</v>
+      </c>
+      <c r="S18" t="s">
+        <v>147</v>
+      </c>
+      <c r="T18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19">
+        <v>1.88</v>
+      </c>
+      <c r="C19">
+        <v>54</v>
+      </c>
+      <c r="D19">
+        <v>188</v>
+      </c>
+      <c r="E19">
+        <v>74</v>
+      </c>
+      <c r="F19">
+        <v>84</v>
+      </c>
+      <c r="G19">
+        <v>185</v>
+      </c>
+      <c r="H19">
+        <v>23.766410140334994</v>
+      </c>
+      <c r="I19">
+        <v>35</v>
+      </c>
+      <c r="J19" t="s">
+        <v>291</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19">
+        <v>72</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>26280</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>161</v>
+      </c>
+      <c r="S19" t="s">
+        <v>15</v>
+      </c>
+      <c r="T19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20">
+        <v>1.98</v>
+      </c>
+      <c r="C20">
+        <v>69</v>
+      </c>
+      <c r="D20">
+        <v>198</v>
+      </c>
+      <c r="E20">
+        <v>77.5</v>
+      </c>
+      <c r="F20">
+        <v>82</v>
+      </c>
+      <c r="G20">
+        <v>180.75</v>
+      </c>
+      <c r="H20">
+        <v>20.91623303744516</v>
+      </c>
+      <c r="I20">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>291</v>
+      </c>
+      <c r="K20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20">
+        <v>92</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>33580</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>163</v>
+      </c>
+      <c r="S20" t="s">
+        <v>164</v>
+      </c>
+      <c r="T20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21">
+        <v>1.96</v>
+      </c>
+      <c r="C21">
+        <v>66</v>
+      </c>
+      <c r="D21">
+        <v>196</v>
+      </c>
+      <c r="E21">
+        <v>77</v>
+      </c>
+      <c r="F21">
+        <v>87</v>
+      </c>
+      <c r="G21">
+        <v>191.75</v>
+      </c>
+      <c r="H21">
+        <v>22.646813827571847</v>
+      </c>
+      <c r="I21">
+        <v>40</v>
+      </c>
+      <c r="J21" t="s">
+        <v>291</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>166</v>
+      </c>
+      <c r="S21" t="s">
+        <v>167</v>
+      </c>
+      <c r="T21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22">
+        <v>1.88</v>
+      </c>
+      <c r="C22">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>188</v>
+      </c>
+      <c r="E22">
+        <v>74</v>
+      </c>
+      <c r="F22">
+        <v>80</v>
+      </c>
+      <c r="G22">
+        <v>176.25</v>
+      </c>
+      <c r="H22">
+        <v>22.634676324128566</v>
+      </c>
+      <c r="I22">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>291</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22">
+        <v>22</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>8030</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>180</v>
+      </c>
+      <c r="S22" t="s">
+        <v>181</v>
+      </c>
+      <c r="T22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23">
+        <v>1.96</v>
+      </c>
+      <c r="C23">
+        <v>66</v>
+      </c>
+      <c r="D23">
+        <v>196</v>
+      </c>
+      <c r="E23">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>60</v>
+      </c>
+      <c r="J23" t="s">
+        <v>291</v>
+      </c>
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>183</v>
+      </c>
+      <c r="S23" t="s">
+        <v>184</v>
+      </c>
+      <c r="T23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24">
+        <v>1.85</v>
+      </c>
+      <c r="C24">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>185</v>
+      </c>
+      <c r="E24">
+        <v>72.5</v>
+      </c>
+      <c r="F24">
+        <v>85</v>
+      </c>
+      <c r="G24">
+        <v>187.25</v>
+      </c>
+      <c r="H24">
+        <v>24.835646457268076</v>
+      </c>
+      <c r="I24">
+        <v>27</v>
+      </c>
+      <c r="J24" t="s">
+        <v>291</v>
+      </c>
+      <c r="K24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" t="s">
+        <v>95</v>
+      </c>
+      <c r="M24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" t="s">
+        <v>15</v>
+      </c>
+      <c r="T24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25">
+        <v>1.57</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>157</v>
+      </c>
+      <c r="E25">
+        <v>61.5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>60</v>
+      </c>
+      <c r="J25" t="s">
+        <v>291</v>
+      </c>
+      <c r="K25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25" t="s">
+        <v>15</v>
+      </c>
+      <c r="T25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26">
+        <v>1.83</v>
+      </c>
+      <c r="C26">
+        <v>45</v>
+      </c>
+      <c r="D26">
+        <v>183</v>
+      </c>
+      <c r="E26">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>60</v>
+      </c>
+      <c r="J26" t="s">
+        <v>291</v>
+      </c>
+      <c r="K26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26">
+        <v>82</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>29930</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>14</v>
+      </c>
+      <c r="S26" t="s">
+        <v>15</v>
+      </c>
+      <c r="T26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27">
+        <v>1.83</v>
+      </c>
+      <c r="C27">
+        <v>45</v>
+      </c>
+      <c r="D27">
+        <v>183</v>
+      </c>
+      <c r="E27">
+        <v>72</v>
+      </c>
+      <c r="F27">
+        <v>80</v>
+      </c>
+      <c r="G27">
+        <v>176.25</v>
+      </c>
+      <c r="H27">
+        <v>23.888440980620498</v>
+      </c>
+      <c r="I27">
+        <v>34</v>
+      </c>
+      <c r="J27" t="s">
+        <v>291</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>190</v>
+      </c>
+      <c r="S27" t="s">
+        <v>191</v>
+      </c>
+      <c r="T27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28">
+        <v>1.7</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>170</v>
+      </c>
+      <c r="E28">
+        <v>66.5</v>
+      </c>
+      <c r="F28">
+        <v>56.2</v>
+      </c>
+      <c r="G28">
+        <v>123.75</v>
+      </c>
+      <c r="H28">
+        <v>19.446366782006923</v>
+      </c>
+      <c r="I28">
+        <v>48</v>
+      </c>
+      <c r="J28" t="s">
+        <v>291</v>
+      </c>
+      <c r="K28" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28">
+        <v>58</v>
+      </c>
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>21170</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>194</v>
+      </c>
+      <c r="S28" t="s">
+        <v>195</v>
+      </c>
+      <c r="T28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29">
+        <v>1.66</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>166</v>
+      </c>
+      <c r="E29">
+        <v>65</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>110</v>
+      </c>
+      <c r="H29">
+        <v>18.144868631151112</v>
+      </c>
+      <c r="I29">
+        <v>50</v>
+      </c>
+      <c r="J29" t="s">
+        <v>291</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29">
+        <v>40</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>14600</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
+        <v>194</v>
+      </c>
+      <c r="S29" t="s">
+        <v>195</v>
+      </c>
+      <c r="T29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30">
+        <v>1.65</v>
+      </c>
+      <c r="C30">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>165</v>
+      </c>
+      <c r="E30">
+        <v>64.5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>60</v>
+      </c>
+      <c r="J30" t="s">
+        <v>291</v>
+      </c>
+      <c r="K30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
+        <v>26</v>
+      </c>
+      <c r="S30" t="s">
+        <v>15</v>
+      </c>
+      <c r="T30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31">
+        <v>1.93</v>
+      </c>
+      <c r="C31">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>193</v>
+      </c>
+      <c r="E31">
+        <v>75.5</v>
+      </c>
+      <c r="F31">
+        <v>80</v>
+      </c>
+      <c r="G31">
+        <v>176.25</v>
+      </c>
+      <c r="H31">
+        <v>21.477086633198208</v>
+      </c>
+      <c r="I31">
+        <v>45</v>
+      </c>
+      <c r="J31" t="s">
+        <v>291</v>
+      </c>
+      <c r="K31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31">
+        <v>102</v>
+      </c>
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>37230</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" t="s">
+        <v>199</v>
+      </c>
+      <c r="S31" t="s">
+        <v>15</v>
+      </c>
+      <c r="T31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32">
+        <v>1.91</v>
+      </c>
+      <c r="C32">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <v>191</v>
+      </c>
+      <c r="E32">
+        <v>75</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>60</v>
+      </c>
+      <c r="J32" t="s">
+        <v>291</v>
+      </c>
+      <c r="K32" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" t="s">
+        <v>201</v>
+      </c>
+      <c r="M32" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32">
+        <v>67</v>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>24455</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32" t="s">
+        <v>35</v>
+      </c>
+      <c r="S32" t="s">
+        <v>15</v>
+      </c>
+      <c r="T32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33">
+        <v>1.83</v>
+      </c>
+      <c r="C33">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>183</v>
+      </c>
+      <c r="E33">
+        <v>72</v>
+      </c>
+      <c r="F33">
+        <v>79</v>
+      </c>
+      <c r="G33">
+        <v>174</v>
+      </c>
+      <c r="H33">
+        <v>23.589835468362743</v>
+      </c>
+      <c r="I33">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s">
+        <v>291</v>
+      </c>
+      <c r="K33" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" t="s">
+        <v>201</v>
+      </c>
+      <c r="M33" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33">
+        <v>66</v>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>24090</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33" t="s">
+        <v>203</v>
+      </c>
+      <c r="S33" t="s">
+        <v>15</v>
+      </c>
+      <c r="T33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34">
+        <v>1.68</v>
+      </c>
+      <c r="C34">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>168</v>
+      </c>
+      <c r="E34">
+        <v>66</v>
+      </c>
+      <c r="F34">
+        <v>55</v>
+      </c>
+      <c r="G34">
+        <v>121.25</v>
+      </c>
+      <c r="H34">
+        <v>19.486961451247168</v>
+      </c>
+      <c r="I34">
+        <v>47</v>
+      </c>
+      <c r="J34" t="s">
+        <v>291</v>
+      </c>
+      <c r="K34" t="s">
+        <v>205</v>
+      </c>
+      <c r="L34" t="s">
+        <v>206</v>
+      </c>
+      <c r="M34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34" t="s">
+        <v>207</v>
+      </c>
+      <c r="S34" t="s">
+        <v>208</v>
+      </c>
+      <c r="T34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35">
+        <v>1.98</v>
+      </c>
+      <c r="C35">
+        <v>69</v>
+      </c>
+      <c r="D35">
+        <v>198</v>
+      </c>
+      <c r="E35">
+        <v>77.5</v>
+      </c>
+      <c r="F35">
+        <v>102</v>
+      </c>
+      <c r="G35">
+        <v>224.75</v>
+      </c>
+      <c r="H35">
+        <v>26.017753290480563</v>
+      </c>
+      <c r="I35">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" t="s">
+        <v>33</v>
+      </c>
+      <c r="M35" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" t="s">
+        <v>18</v>
+      </c>
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35" t="s">
+        <v>210</v>
+      </c>
+      <c r="S35" t="s">
+        <v>211</v>
+      </c>
+      <c r="T35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36">
+        <v>2.29</v>
+      </c>
+      <c r="C36">
+        <v>79</v>
+      </c>
+      <c r="D36">
+        <v>229</v>
+      </c>
+      <c r="E36">
+        <v>90</v>
+      </c>
+      <c r="F36">
+        <v>88</v>
+      </c>
+      <c r="G36">
+        <v>194</v>
+      </c>
+      <c r="H36">
+        <v>16.780763143342039</v>
+      </c>
+      <c r="I36">
+        <v>54</v>
+      </c>
+      <c r="J36" t="s">
+        <v>291</v>
+      </c>
+      <c r="K36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" t="s">
+        <v>82</v>
+      </c>
+      <c r="M36" t="s">
+        <v>45</v>
+      </c>
+      <c r="N36" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36" t="s">
+        <v>86</v>
+      </c>
+      <c r="S36" t="s">
+        <v>213</v>
+      </c>
+      <c r="T36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37">
+        <v>2.13</v>
+      </c>
+      <c r="C37">
+        <v>75</v>
+      </c>
+      <c r="D37">
+        <v>213</v>
+      </c>
+      <c r="E37">
+        <v>83.5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>60</v>
+      </c>
+      <c r="J37" t="s">
+        <v>291</v>
+      </c>
+      <c r="K37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" t="s">
+        <v>82</v>
+      </c>
+      <c r="M37" t="s">
+        <v>45</v>
+      </c>
+      <c r="N37" t="s">
+        <v>18</v>
+      </c>
+      <c r="O37" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37" t="s">
+        <v>86</v>
+      </c>
+      <c r="S37" t="s">
+        <v>213</v>
+      </c>
+      <c r="T37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38">
+        <v>1.67</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>167</v>
+      </c>
+      <c r="E38">
+        <v>65.5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>60</v>
+      </c>
+      <c r="J38" t="s">
+        <v>291</v>
+      </c>
+      <c r="K38" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38" t="s">
+        <v>123</v>
+      </c>
+      <c r="S38" t="s">
+        <v>15</v>
+      </c>
+      <c r="T38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>220</v>
+      </c>
+      <c r="B39">
+        <v>0.96</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>96</v>
+      </c>
+      <c r="E39">
+        <v>37.5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>60</v>
+      </c>
+      <c r="J39" t="s">
+        <v>291</v>
+      </c>
+      <c r="K39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" t="s">
+        <v>221</v>
+      </c>
+      <c r="M39" t="s">
+        <v>222</v>
+      </c>
+      <c r="N39" t="s">
+        <v>18</v>
+      </c>
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
+        <v>18</v>
+      </c>
+      <c r="S39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40">
+        <v>1.93</v>
+      </c>
+      <c r="C40">
+        <v>63</v>
+      </c>
+      <c r="D40">
+        <v>193</v>
+      </c>
+      <c r="E40">
+        <v>75.5</v>
+      </c>
+      <c r="F40">
+        <v>48</v>
+      </c>
+      <c r="G40">
+        <v>105.75</v>
+      </c>
+      <c r="H40">
+        <v>12.886251979918924</v>
+      </c>
+      <c r="I40">
+        <v>59</v>
+      </c>
+      <c r="J40" t="s">
+        <v>291</v>
+      </c>
+      <c r="K40" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" t="s">
+        <v>57</v>
+      </c>
+      <c r="N40" t="s">
+        <v>18</v>
+      </c>
+      <c r="O40" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40" t="s">
+        <v>225</v>
+      </c>
+      <c r="S40" t="s">
+        <v>226</v>
+      </c>
+      <c r="T40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41">
+        <v>1.91</v>
+      </c>
+      <c r="C41">
+        <v>60</v>
+      </c>
+      <c r="D41">
+        <v>191</v>
+      </c>
+      <c r="E41">
+        <v>75</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>60</v>
+      </c>
+      <c r="J41" t="s">
+        <v>291</v>
+      </c>
+      <c r="K41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" t="s">
+        <v>82</v>
+      </c>
+      <c r="M41" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" t="s">
+        <v>18</v>
+      </c>
+      <c r="O41" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41" t="s">
+        <v>228</v>
+      </c>
+      <c r="S41" t="s">
+        <v>229</v>
+      </c>
+      <c r="T41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42">
+        <v>1.78</v>
+      </c>
+      <c r="C42">
+        <v>35</v>
+      </c>
+      <c r="D42">
+        <v>178</v>
+      </c>
+      <c r="E42">
+        <v>70</v>
+      </c>
+      <c r="F42">
+        <v>57</v>
+      </c>
+      <c r="G42">
+        <v>125.5</v>
+      </c>
+      <c r="H42">
+        <v>17.99015275849009</v>
+      </c>
+      <c r="I42">
+        <v>51</v>
+      </c>
+      <c r="J42" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" t="s">
+        <v>231</v>
+      </c>
+      <c r="M42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N42" t="s">
+        <v>18</v>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42" t="s">
+        <v>232</v>
+      </c>
+      <c r="S42" t="s">
+        <v>233</v>
+      </c>
+      <c r="T42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43">
+        <v>1.78</v>
+      </c>
+      <c r="C43">
+        <v>35</v>
+      </c>
+      <c r="D43">
+        <v>178</v>
+      </c>
+      <c r="E43">
+        <v>70</v>
+      </c>
+      <c r="F43">
+        <v>48</v>
+      </c>
+      <c r="G43">
+        <v>105.75</v>
+      </c>
+      <c r="H43">
+        <v>15.149602322939023</v>
+      </c>
+      <c r="I43">
+        <v>57</v>
+      </c>
+      <c r="J43" t="s">
+        <v>291</v>
+      </c>
+      <c r="K43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" t="s">
+        <v>83</v>
+      </c>
+      <c r="M43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" t="s">
+        <v>18</v>
+      </c>
+      <c r="O43" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
+        <v>243</v>
+      </c>
+      <c r="S43" t="s">
+        <v>18</v>
+      </c>
+      <c r="T43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44">
+        <v>1.65</v>
+      </c>
+      <c r="C44">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>165</v>
+      </c>
+      <c r="E44">
+        <v>64.5</v>
+      </c>
+      <c r="F44">
+        <v>45</v>
+      </c>
+      <c r="G44">
+        <v>99</v>
+      </c>
+      <c r="H44">
+        <v>16.528925619834713</v>
+      </c>
+      <c r="I44">
+        <v>55</v>
+      </c>
+      <c r="J44" t="s">
+        <v>291</v>
+      </c>
+      <c r="K44" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" t="s">
+        <v>33</v>
+      </c>
+      <c r="N44">
+        <v>46</v>
+      </c>
+      <c r="O44" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>16790</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>26</v>
+      </c>
+      <c r="S44" t="s">
+        <v>15</v>
+      </c>
+      <c r="T44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A98" t="str" cm="1">
+        <f t="array" ref="A98:T100">_xlfn._xlws.FILTER(starwars!A2:T88, starwars!U2:U88=starwars!T5,"")</f>
+        <v>Grievous</v>
+      </c>
+      <c r="B98">
+        <v>2.16</v>
+      </c>
+      <c r="C98">
+        <v>76</v>
+      </c>
+      <c r="D98">
+        <v>216</v>
+      </c>
+      <c r="E98">
+        <v>85</v>
+      </c>
+      <c r="F98">
+        <v>159</v>
+      </c>
+      <c r="G98">
+        <v>350.5</v>
+      </c>
+      <c r="H98">
+        <v>34.079218106995881</v>
+      </c>
+      <c r="I98">
+        <v>7</v>
+      </c>
+      <c r="J98" t="str">
+        <v>Heavier</v>
+      </c>
+      <c r="K98" t="str">
+        <v>none</v>
+      </c>
+      <c r="L98" t="str">
+        <v>brown, white</v>
+      </c>
+      <c r="M98" t="str">
+        <v>green, yellow</v>
+      </c>
+      <c r="N98" t="str">
+        <v>NA</v>
+      </c>
+      <c r="O98" t="b">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98" t="str">
+        <v>Kalee</v>
+      </c>
+      <c r="S98" t="str">
+        <v>Kaleesh</v>
+      </c>
+      <c r="T98" t="str">
+        <v>Revenge of the Sith</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
+        <v>Tarfful</v>
+      </c>
+      <c r="B99">
+        <v>2.34</v>
+      </c>
+      <c r="C99">
+        <v>80</v>
+      </c>
+      <c r="D99">
+        <v>234</v>
+      </c>
+      <c r="E99">
+        <v>92</v>
+      </c>
+      <c r="F99">
+        <v>136</v>
+      </c>
+      <c r="G99">
+        <v>299.75</v>
+      </c>
+      <c r="H99">
+        <v>24.837460734896638</v>
+      </c>
+      <c r="I99">
+        <v>26</v>
+      </c>
+      <c r="J99" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K99" t="str">
+        <v>brown</v>
+      </c>
+      <c r="L99" t="str">
+        <v>brown</v>
+      </c>
+      <c r="M99" t="str">
+        <v>blue</v>
+      </c>
+      <c r="N99" t="str">
+        <v>NA</v>
+      </c>
+      <c r="O99" t="b">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99" t="str">
+        <v>Kashyyyk</v>
+      </c>
+      <c r="S99" t="str">
+        <v>Wookiee</v>
+      </c>
+      <c r="T99" t="str">
+        <v>Revenge of the Sith</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
+        <v>Tion Medon</v>
+      </c>
+      <c r="B100">
+        <v>2.06</v>
+      </c>
+      <c r="C100">
+        <v>73</v>
+      </c>
+      <c r="D100">
+        <v>206</v>
+      </c>
+      <c r="E100">
+        <v>81</v>
+      </c>
+      <c r="F100">
+        <v>80</v>
+      </c>
+      <c r="G100">
+        <v>176.25</v>
+      </c>
+      <c r="H100">
+        <v>18.851918182675089</v>
+      </c>
+      <c r="I100">
+        <v>49</v>
+      </c>
+      <c r="J100" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K100" t="str">
+        <v>none</v>
+      </c>
+      <c r="L100" t="str">
+        <v>grey</v>
+      </c>
+      <c r="M100" t="str">
+        <v>black</v>
+      </c>
+      <c r="N100" t="str">
+        <v>NA</v>
+      </c>
+      <c r="O100" t="b">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100" t="str">
+        <v>Utapau</v>
+      </c>
+      <c r="S100" t="str">
+        <v>Pau'an</v>
+      </c>
+      <c r="T100" t="str">
+        <v>Revenge of the Sith</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFC16F2-0141-4BD4-9D26-C21BEF16C3D9}">
+  <dimension ref="A1:T100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="str" cm="1">
+        <f t="array" ref="A5:T24">_xlfn._xlws.FILTER(starwars!A2:T88, IFERROR(SEARCH("Return",starwars!U2:U88),0),0)</f>
+        <v>Luke Skywalker</v>
+      </c>
+      <c r="B5">
+        <v>1.72</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>172</v>
+      </c>
+      <c r="E5">
+        <v>67.5</v>
+      </c>
+      <c r="F5">
+        <v>77</v>
+      </c>
+      <c r="G5">
+        <v>169.75</v>
+      </c>
+      <c r="H5">
+        <v>26.027582477014604</v>
+      </c>
+      <c r="I5">
+        <v>18</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K5" t="str">
+        <v>blond</v>
+      </c>
+      <c r="L5" t="str">
+        <v>fair</v>
+      </c>
+      <c r="M5" t="str">
+        <v>blue</v>
+      </c>
+      <c r="N5">
+        <v>19</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>6935</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="str">
+        <v>Tatooine</v>
+      </c>
+      <c r="S5" t="str">
+        <v>Human</v>
+      </c>
+      <c r="T5" t="str">
+        <v>Revenge of the Sith</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <v>C-3PO</v>
+      </c>
+      <c r="B6">
+        <v>1.67</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>167</v>
+      </c>
+      <c r="E6">
+        <v>65.5</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>165.25</v>
+      </c>
+      <c r="H6">
+        <v>26.892323138154829</v>
+      </c>
+      <c r="I6">
+        <v>14</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K6" t="str">
+        <v>NA</v>
+      </c>
+      <c r="L6" t="str">
+        <v>gold</v>
+      </c>
+      <c r="M6" t="str">
+        <v>yellow</v>
+      </c>
+      <c r="N6">
+        <v>112</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>40880</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="str">
+        <v>Tatooine</v>
+      </c>
+      <c r="S6" t="str">
+        <v>Droid</v>
+      </c>
+      <c r="T6" t="str">
+        <v>Attack of the Clones</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <v>R2-D2</v>
+      </c>
+      <c r="B7">
+        <v>0.96</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>96</v>
+      </c>
+      <c r="E7">
+        <v>37.5</v>
+      </c>
+      <c r="F7">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>70.5</v>
+      </c>
+      <c r="H7">
+        <v>34.722222222222221</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Heavier</v>
+      </c>
+      <c r="K7" t="str">
+        <v>NA</v>
+      </c>
+      <c r="L7" t="str">
+        <v>white, blue</v>
+      </c>
+      <c r="M7" t="str">
+        <v>red</v>
+      </c>
+      <c r="N7">
+        <v>33</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>12045</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="str">
+        <v>Naboo</v>
+      </c>
+      <c r="S7" t="str">
+        <v>Droid</v>
+      </c>
+      <c r="T7" t="str">
+        <v>Attack of the Clones</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <v>Darth Vader</v>
+      </c>
+      <c r="B8">
+        <v>2.02</v>
+      </c>
+      <c r="C8">
+        <v>72</v>
+      </c>
+      <c r="D8">
+        <v>202</v>
+      </c>
+      <c r="E8">
+        <v>79.5</v>
+      </c>
+      <c r="F8">
+        <v>136</v>
+      </c>
+      <c r="G8">
+        <v>299.75</v>
+      </c>
+      <c r="H8">
+        <v>33.330065679835307</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Heavier</v>
+      </c>
+      <c r="K8" t="str">
+        <v>none</v>
+      </c>
+      <c r="L8" t="str">
+        <v>white</v>
+      </c>
+      <c r="M8" t="str">
+        <v>yellow</v>
+      </c>
+      <c r="N8">
+        <v>41.9</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>15293.5</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="str">
+        <v>Tatooine</v>
+      </c>
+      <c r="S8" t="str">
+        <v>Human</v>
+      </c>
+      <c r="T8" t="str">
+        <v>Revenge of the Sith</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <v>Leia Organa</v>
+      </c>
+      <c r="B9">
+        <v>1.5</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9">
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>49</v>
+      </c>
+      <c r="G9">
+        <v>108</v>
+      </c>
+      <c r="H9">
+        <v>21.777777777777779</v>
+      </c>
+      <c r="I9">
+        <v>43</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K9" t="str">
+        <v>brown</v>
+      </c>
+      <c r="L9" t="str">
+        <v>light</v>
+      </c>
+      <c r="M9" t="str">
+        <v>brown</v>
+      </c>
+      <c r="N9">
+        <v>19</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>6935</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="str">
+        <v>Alderaan</v>
+      </c>
+      <c r="S9" t="str">
+        <v>Human</v>
+      </c>
+      <c r="T9" t="str">
+        <v>Revenge of the Sith</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <v>Obi-Wan Kenobi</v>
+      </c>
+      <c r="B10">
+        <v>1.82</v>
+      </c>
+      <c r="C10">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>182</v>
+      </c>
+      <c r="E10">
+        <v>71.5</v>
+      </c>
+      <c r="F10">
+        <v>77</v>
+      </c>
+      <c r="G10">
+        <v>169.75</v>
+      </c>
+      <c r="H10">
+        <v>23.245984784446321</v>
+      </c>
+      <c r="I10">
+        <v>39</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K10" t="str">
+        <v>auburn, white</v>
+      </c>
+      <c r="L10" t="str">
+        <v>fair</v>
+      </c>
+      <c r="M10" t="str">
+        <v>blue-gray</v>
+      </c>
+      <c r="N10">
+        <v>57</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>20805</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="str">
+        <v>Stewjon</v>
+      </c>
+      <c r="S10" t="str">
+        <v>Human</v>
+      </c>
+      <c r="T10" t="str">
+        <v>Attack of the Clones</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <v>Chewbacca</v>
+      </c>
+      <c r="B11">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C11">
+        <v>78</v>
+      </c>
+      <c r="D11">
+        <v>228</v>
+      </c>
+      <c r="E11">
+        <v>89.5</v>
+      </c>
+      <c r="F11">
+        <v>112</v>
+      </c>
+      <c r="G11">
+        <v>246.75</v>
+      </c>
+      <c r="H11">
+        <v>21.545090797168363</v>
+      </c>
+      <c r="I11">
+        <v>44</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K11" t="str">
+        <v>brown</v>
+      </c>
+      <c r="L11" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="M11" t="str">
+        <v>blue</v>
+      </c>
+      <c r="N11">
+        <v>200</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>73000</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="str">
+        <v>Kashyyyk</v>
+      </c>
+      <c r="S11" t="str">
+        <v>Wookiee</v>
+      </c>
+      <c r="T11" t="str">
+        <v>Revenge of the Sith</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <v>Han Solo</v>
+      </c>
+      <c r="B12">
+        <v>1.8</v>
+      </c>
+      <c r="C12">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <v>180</v>
+      </c>
+      <c r="E12">
+        <v>70.5</v>
+      </c>
+      <c r="F12">
+        <v>80</v>
+      </c>
+      <c r="G12">
+        <v>176.25</v>
+      </c>
+      <c r="H12">
+        <v>24.691358024691358</v>
+      </c>
+      <c r="I12">
+        <v>29</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K12" t="str">
+        <v>brown</v>
+      </c>
+      <c r="L12" t="str">
+        <v>fair</v>
+      </c>
+      <c r="M12" t="str">
+        <v>brown</v>
+      </c>
+      <c r="N12">
+        <v>29</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>10585</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="str">
+        <v>Corellia</v>
+      </c>
+      <c r="S12" t="str">
+        <v>Human</v>
+      </c>
+      <c r="T12" t="str">
+        <v>Return of the Jedi</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <v>Jabba Desilijic Tiure</v>
+      </c>
+      <c r="B13">
+        <v>1.75</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>175</v>
+      </c>
+      <c r="E13">
+        <v>68.5</v>
+      </c>
+      <c r="F13">
+        <v>1358</v>
+      </c>
+      <c r="G13">
+        <v>2993.75</v>
+      </c>
+      <c r="H13">
+        <v>443.42857142857144</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Heavier</v>
+      </c>
+      <c r="K13" t="str">
+        <v>NA</v>
+      </c>
+      <c r="L13" t="str">
+        <v>green-tan, brown</v>
+      </c>
+      <c r="M13" t="str">
+        <v>orange</v>
+      </c>
+      <c r="N13">
+        <v>600</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>219000</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="str">
+        <v>Nal Hutta</v>
+      </c>
+      <c r="S13" t="str">
+        <v>Hutt</v>
+      </c>
+      <c r="T13" t="str">
+        <v>The Phantom Menace</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <v>Wedge Antilles</v>
+      </c>
+      <c r="B14">
+        <v>1.7</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>170</v>
+      </c>
+      <c r="E14">
+        <v>66.5</v>
+      </c>
+      <c r="F14">
+        <v>77</v>
+      </c>
+      <c r="G14">
+        <v>169.75</v>
+      </c>
+      <c r="H14">
+        <v>26.643598615916957</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K14" t="str">
+        <v>brown</v>
+      </c>
+      <c r="L14" t="str">
+        <v>fair</v>
+      </c>
+      <c r="M14" t="str">
+        <v>hazel</v>
+      </c>
+      <c r="N14">
+        <v>21</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>7665</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="str">
+        <v>Corellia</v>
+      </c>
+      <c r="S14" t="str">
+        <v>Human</v>
+      </c>
+      <c r="T14" t="str">
+        <v>Return of the Jedi</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <v>Yoda</v>
+      </c>
+      <c r="B15">
+        <v>0.66</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>66</v>
+      </c>
+      <c r="E15">
+        <v>25.5</v>
+      </c>
+      <c r="F15">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>37.25</v>
+      </c>
+      <c r="H15">
+        <v>39.026629935720841</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Heavier</v>
+      </c>
+      <c r="K15" t="str">
+        <v>white</v>
+      </c>
+      <c r="L15" t="str">
+        <v>green</v>
+      </c>
+      <c r="M15" t="str">
+        <v>brown</v>
+      </c>
+      <c r="N15">
+        <v>896</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>327040</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="str">
+        <v>NA</v>
+      </c>
+      <c r="S15" t="str">
+        <v>Yoda's species</v>
+      </c>
+      <c r="T15" t="str">
+        <v>Attack of the Clones</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <v>Palpatine</v>
+      </c>
+      <c r="B16">
+        <v>1.7</v>
+      </c>
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>170</v>
+      </c>
+      <c r="E16">
+        <v>66.5</v>
+      </c>
+      <c r="F16">
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <v>165.25</v>
+      </c>
+      <c r="H16">
+        <v>25.95155709342561</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K16" t="str">
+        <v>grey</v>
+      </c>
+      <c r="L16" t="str">
+        <v>pale</v>
+      </c>
+      <c r="M16" t="str">
+        <v>yellow</v>
+      </c>
+      <c r="N16">
+        <v>82</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>29930</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="str">
+        <v>Naboo</v>
+      </c>
+      <c r="S16" t="str">
+        <v>Human</v>
+      </c>
+      <c r="T16" t="str">
+        <v>Attack of the Clones</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <v>Boba Fett</v>
+      </c>
+      <c r="B17">
+        <v>1.83</v>
+      </c>
+      <c r="C17">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>183</v>
+      </c>
+      <c r="E17">
+        <v>72</v>
+      </c>
+      <c r="F17">
+        <v>78.2</v>
+      </c>
+      <c r="G17">
+        <v>172.25</v>
+      </c>
+      <c r="H17">
+        <v>23.350951058556539</v>
+      </c>
+      <c r="I17">
+        <v>38</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K17" t="str">
+        <v>black</v>
+      </c>
+      <c r="L17" t="str">
+        <v>fair</v>
+      </c>
+      <c r="M17" t="str">
+        <v>brown</v>
+      </c>
+      <c r="N17">
+        <v>31.5</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>11497.5</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="str">
+        <v>Kamino</v>
+      </c>
+      <c r="S17" t="str">
+        <v>Human</v>
+      </c>
+      <c r="T17" t="str">
+        <v>Attack of the Clones</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <v>Lando Calrissian</v>
+      </c>
+      <c r="B18">
+        <v>1.77</v>
+      </c>
+      <c r="C18">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>177</v>
+      </c>
+      <c r="E18">
+        <v>69.5</v>
+      </c>
+      <c r="F18">
+        <v>79</v>
+      </c>
+      <c r="G18">
+        <v>174</v>
+      </c>
+      <c r="H18">
+        <v>25.216253311628201</v>
+      </c>
+      <c r="I18">
+        <v>24</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K18" t="str">
+        <v>black</v>
+      </c>
+      <c r="L18" t="str">
+        <v>dark</v>
+      </c>
+      <c r="M18" t="str">
+        <v>brown</v>
+      </c>
+      <c r="N18">
+        <v>31</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>11315</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="str">
+        <v>Socorro</v>
+      </c>
+      <c r="S18" t="str">
+        <v>Human</v>
+      </c>
+      <c r="T18" t="str">
+        <v>Return of the Jedi</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <v>Ackbar</v>
+      </c>
+      <c r="B19">
+        <v>1.8</v>
+      </c>
+      <c r="C19">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>180</v>
+      </c>
+      <c r="E19">
+        <v>70.5</v>
+      </c>
+      <c r="F19">
+        <v>83</v>
+      </c>
+      <c r="G19">
+        <v>182.75</v>
+      </c>
+      <c r="H19">
+        <v>25.617283950617281</v>
+      </c>
+      <c r="I19">
+        <v>23</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K19" t="str">
+        <v>none</v>
+      </c>
+      <c r="L19" t="str">
+        <v>brown mottle</v>
+      </c>
+      <c r="M19" t="str">
+        <v>orange</v>
+      </c>
+      <c r="N19">
+        <v>41</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>14965</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="str">
+        <v>Mon Cala</v>
+      </c>
+      <c r="S19" t="str">
+        <v>Mon Calamari</v>
+      </c>
+      <c r="T19" t="str">
+        <v>Return of the Jedi</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <v>Mon Mothma</v>
+      </c>
+      <c r="B20">
+        <v>1.5</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>150</v>
+      </c>
+      <c r="E20">
+        <v>59</v>
+      </c>
+      <c r="F20" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G20" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>60</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K20" t="str">
+        <v>auburn</v>
+      </c>
+      <c r="L20" t="str">
+        <v>fair</v>
+      </c>
+      <c r="M20" t="str">
+        <v>blue</v>
+      </c>
+      <c r="N20">
+        <v>48</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>17520</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="str">
+        <v>Chandrila</v>
+      </c>
+      <c r="S20" t="str">
+        <v>Human</v>
+      </c>
+      <c r="T20" t="str">
+        <v>Return of the Jedi</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <v>Arvel Crynyd</v>
+      </c>
+      <c r="B21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C21" t="str">
+        <v>No Info</v>
+      </c>
+      <c r="D21" t="str">
+        <v>NA</v>
+      </c>
+      <c r="E21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>60</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K21" t="str">
+        <v>brown</v>
+      </c>
+      <c r="L21" t="str">
+        <v>fair</v>
+      </c>
+      <c r="M21" t="str">
+        <v>brown</v>
+      </c>
+      <c r="N21" t="str">
+        <v>NA</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="str">
+        <v>NA</v>
+      </c>
+      <c r="S21" t="str">
+        <v>Human</v>
+      </c>
+      <c r="T21" t="str">
+        <v>Return of the Jedi</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <v>Wicket Systri Warrick</v>
+      </c>
+      <c r="B22">
+        <v>0.88</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>88</v>
+      </c>
+      <c r="E22">
+        <v>34.5</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>44</v>
+      </c>
+      <c r="H22">
+        <v>25.826446280991735</v>
+      </c>
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K22" t="str">
+        <v>brown</v>
+      </c>
+      <c r="L22" t="str">
+        <v>brown</v>
+      </c>
+      <c r="M22" t="str">
+        <v>brown</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>2920</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="str">
+        <v>Endor</v>
+      </c>
+      <c r="S22" t="str">
+        <v>Ewok</v>
+      </c>
+      <c r="T22" t="str">
+        <v>Return of the Jedi</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <v>Nien Nunb</v>
+      </c>
+      <c r="B23">
+        <v>1.6</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>160</v>
+      </c>
+      <c r="E23">
+        <v>62.5</v>
+      </c>
+      <c r="F23">
+        <v>68</v>
+      </c>
+      <c r="G23">
+        <v>149.75</v>
+      </c>
+      <c r="H23">
+        <v>26.562499999999996</v>
+      </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K23" t="str">
+        <v>none</v>
+      </c>
+      <c r="L23" t="str">
+        <v>grey</v>
+      </c>
+      <c r="M23" t="str">
+        <v>black</v>
+      </c>
+      <c r="N23" t="str">
+        <v>NA</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="str">
+        <v>Sullust</v>
+      </c>
+      <c r="S23" t="str">
+        <v>Sullustan</v>
+      </c>
+      <c r="T23" t="str">
+        <v>Return of the Jedi</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <v>Bib Fortuna</v>
+      </c>
+      <c r="B24">
+        <v>1.8</v>
+      </c>
+      <c r="C24">
+        <v>39</v>
+      </c>
+      <c r="D24">
+        <v>180</v>
+      </c>
+      <c r="E24">
+        <v>70.5</v>
+      </c>
+      <c r="F24" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G24" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>60</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K24" t="str">
+        <v>none</v>
+      </c>
+      <c r="L24" t="str">
+        <v>pale</v>
+      </c>
+      <c r="M24" t="str">
+        <v>pink</v>
+      </c>
+      <c r="N24" t="str">
+        <v>NA</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="str">
+        <v>Ryloth</v>
+      </c>
+      <c r="S24" t="str">
+        <v>Twi'lek</v>
+      </c>
+      <c r="T24" t="str">
+        <v>Return of the Jedi</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A98" t="str" cm="1">
+        <f t="array" ref="A98:T100">_xlfn._xlws.FILTER(starwars!A2:T88, starwars!U2:U88=starwars!T5,"")</f>
+        <v>Grievous</v>
+      </c>
+      <c r="B98">
+        <v>2.16</v>
+      </c>
+      <c r="C98">
+        <v>76</v>
+      </c>
+      <c r="D98">
+        <v>216</v>
+      </c>
+      <c r="E98">
+        <v>85</v>
+      </c>
+      <c r="F98">
+        <v>159</v>
+      </c>
+      <c r="G98">
+        <v>350.5</v>
+      </c>
+      <c r="H98">
+        <v>34.079218106995881</v>
+      </c>
+      <c r="I98">
+        <v>7</v>
+      </c>
+      <c r="J98" t="str">
+        <v>Heavier</v>
+      </c>
+      <c r="K98" t="str">
+        <v>none</v>
+      </c>
+      <c r="L98" t="str">
+        <v>brown, white</v>
+      </c>
+      <c r="M98" t="str">
+        <v>green, yellow</v>
+      </c>
+      <c r="N98" t="str">
+        <v>NA</v>
+      </c>
+      <c r="O98" t="b">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98" t="str">
+        <v>Kalee</v>
+      </c>
+      <c r="S98" t="str">
+        <v>Kaleesh</v>
+      </c>
+      <c r="T98" t="str">
+        <v>Revenge of the Sith</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
+        <v>Tarfful</v>
+      </c>
+      <c r="B99">
+        <v>2.34</v>
+      </c>
+      <c r="C99">
+        <v>80</v>
+      </c>
+      <c r="D99">
+        <v>234</v>
+      </c>
+      <c r="E99">
+        <v>92</v>
+      </c>
+      <c r="F99">
+        <v>136</v>
+      </c>
+      <c r="G99">
+        <v>299.75</v>
+      </c>
+      <c r="H99">
+        <v>24.837460734896638</v>
+      </c>
+      <c r="I99">
+        <v>26</v>
+      </c>
+      <c r="J99" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K99" t="str">
+        <v>brown</v>
+      </c>
+      <c r="L99" t="str">
+        <v>brown</v>
+      </c>
+      <c r="M99" t="str">
+        <v>blue</v>
+      </c>
+      <c r="N99" t="str">
+        <v>NA</v>
+      </c>
+      <c r="O99" t="b">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99" t="str">
+        <v>Kashyyyk</v>
+      </c>
+      <c r="S99" t="str">
+        <v>Wookiee</v>
+      </c>
+      <c r="T99" t="str">
+        <v>Revenge of the Sith</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
+        <v>Tion Medon</v>
+      </c>
+      <c r="B100">
+        <v>2.06</v>
+      </c>
+      <c r="C100">
+        <v>73</v>
+      </c>
+      <c r="D100">
+        <v>206</v>
+      </c>
+      <c r="E100">
+        <v>81</v>
+      </c>
+      <c r="F100">
+        <v>80</v>
+      </c>
+      <c r="G100">
+        <v>176.25</v>
+      </c>
+      <c r="H100">
+        <v>18.851918182675089</v>
+      </c>
+      <c r="I100">
+        <v>49</v>
+      </c>
+      <c r="J100" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K100" t="str">
+        <v>none</v>
+      </c>
+      <c r="L100" t="str">
+        <v>grey</v>
+      </c>
+      <c r="M100" t="str">
+        <v>black</v>
+      </c>
+      <c r="N100" t="str">
+        <v>NA</v>
+      </c>
+      <c r="O100" t="b">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100" t="str">
+        <v>Utapau</v>
+      </c>
+      <c r="S100" t="str">
+        <v>Pau'an</v>
+      </c>
+      <c r="T100" t="str">
+        <v>Revenge of the Sith</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62B5D73-CC46-44B7-8077-A4563917C84D}">
+  <dimension ref="A1:U100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="128.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0.96</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>96</v>
+      </c>
+      <c r="E5">
+        <v>37.5</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>70.5</v>
+      </c>
+      <c r="H5">
+        <v>34.722222222222221</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>290</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>33</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>12045</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" t="s">
+        <v>186</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>1.7</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>170</v>
+      </c>
+      <c r="E6">
+        <v>66.5</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>165.25</v>
+      </c>
+      <c r="H6">
+        <v>25.95155709342561</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>291</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6">
+        <v>82</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>29930</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" t="s">
+        <v>186</v>
+      </c>
+      <c r="U6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7">
+        <v>1.96</v>
+      </c>
+      <c r="C7">
+        <v>66</v>
+      </c>
+      <c r="D7">
+        <v>196</v>
+      </c>
+      <c r="E7">
+        <v>77</v>
+      </c>
+      <c r="F7">
+        <v>66</v>
+      </c>
+      <c r="G7">
+        <v>145.5</v>
+      </c>
+      <c r="H7">
+        <v>17.180341524364849</v>
+      </c>
+      <c r="I7">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7">
+        <v>52</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>18980</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" t="s">
+        <v>125</v>
+      </c>
+      <c r="T7" t="s">
+        <v>186</v>
+      </c>
+      <c r="U7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C8">
+        <v>77</v>
+      </c>
+      <c r="D8">
+        <v>224</v>
+      </c>
+      <c r="E8">
+        <v>88</v>
+      </c>
+      <c r="F8">
+        <v>82</v>
+      </c>
+      <c r="G8">
+        <v>180.75</v>
+      </c>
+      <c r="H8">
+        <v>16.342474489795915</v>
+      </c>
+      <c r="I8">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>291</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" t="s">
+        <v>125</v>
+      </c>
+      <c r="T8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>2.06</v>
+      </c>
+      <c r="C9">
+        <v>73</v>
+      </c>
+      <c r="D9">
+        <v>206</v>
+      </c>
+      <c r="E9">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>291</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" t="s">
+        <v>125</v>
+      </c>
+      <c r="T9" t="s">
+        <v>117</v>
+      </c>
+      <c r="U9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10">
+        <v>1.83</v>
+      </c>
+      <c r="C10">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>183</v>
+      </c>
+      <c r="E10">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>291</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" t="s">
+        <v>117</v>
+      </c>
+      <c r="U10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11">
+        <v>1.83</v>
+      </c>
+      <c r="C11">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>183</v>
+      </c>
+      <c r="E11">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>291</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11">
+        <v>62</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>22630</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" t="s">
+        <v>117</v>
+      </c>
+      <c r="U11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12">
+        <v>1.85</v>
+      </c>
+      <c r="C12">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>185</v>
+      </c>
+      <c r="E12">
+        <v>72.5</v>
+      </c>
+      <c r="F12">
+        <v>85</v>
+      </c>
+      <c r="G12">
+        <v>187.25</v>
+      </c>
+      <c r="H12">
+        <v>24.835646457268076</v>
+      </c>
+      <c r="I12">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>291</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" t="s">
+        <v>186</v>
+      </c>
+      <c r="U12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13">
+        <v>1.57</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>157</v>
+      </c>
+      <c r="E13">
+        <v>61.5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+      <c r="J13" t="s">
+        <v>291</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" t="s">
+        <v>15</v>
+      </c>
+      <c r="T13" t="s">
+        <v>186</v>
+      </c>
+      <c r="U13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14">
+        <v>1.65</v>
+      </c>
+      <c r="C14">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>165</v>
+      </c>
+      <c r="E14">
+        <v>64.5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
+      </c>
+      <c r="J14" t="s">
+        <v>291</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" t="s">
+        <v>186</v>
+      </c>
+      <c r="U14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15">
+        <v>1.65</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>165</v>
+      </c>
+      <c r="E15">
+        <v>64.5</v>
+      </c>
+      <c r="F15">
+        <v>45</v>
+      </c>
+      <c r="G15">
+        <v>99</v>
+      </c>
+      <c r="H15">
+        <v>16.528925619834713</v>
+      </c>
+      <c r="I15">
+        <v>55</v>
+      </c>
+      <c r="J15" t="s">
+        <v>291</v>
+      </c>
+      <c r="K15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15">
+        <v>46</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>16790</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" t="s">
+        <v>186</v>
+      </c>
+      <c r="U15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A98" t="str" cm="1">
+        <f t="array" ref="A98:T100">_xlfn._xlws.FILTER(starwars!A2:T88, starwars!U2:U88=starwars!T5,"")</f>
+        <v>Grievous</v>
+      </c>
+      <c r="B98">
+        <v>2.16</v>
+      </c>
+      <c r="C98">
+        <v>76</v>
+      </c>
+      <c r="D98">
+        <v>216</v>
+      </c>
+      <c r="E98">
+        <v>85</v>
+      </c>
+      <c r="F98">
+        <v>159</v>
+      </c>
+      <c r="G98">
+        <v>350.5</v>
+      </c>
+      <c r="H98">
+        <v>34.079218106995881</v>
+      </c>
+      <c r="I98">
+        <v>7</v>
+      </c>
+      <c r="J98" t="str">
+        <v>Heavier</v>
+      </c>
+      <c r="K98" t="str">
+        <v>none</v>
+      </c>
+      <c r="L98" t="str">
+        <v>brown, white</v>
+      </c>
+      <c r="M98" t="str">
+        <v>green, yellow</v>
+      </c>
+      <c r="N98" t="str">
+        <v>NA</v>
+      </c>
+      <c r="O98" t="b">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98" t="str">
+        <v>Kalee</v>
+      </c>
+      <c r="S98" t="str">
+        <v>Kaleesh</v>
+      </c>
+      <c r="T98" t="str">
+        <v>Revenge of the Sith</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
+        <v>Tarfful</v>
+      </c>
+      <c r="B99">
+        <v>2.34</v>
+      </c>
+      <c r="C99">
+        <v>80</v>
+      </c>
+      <c r="D99">
+        <v>234</v>
+      </c>
+      <c r="E99">
+        <v>92</v>
+      </c>
+      <c r="F99">
+        <v>136</v>
+      </c>
+      <c r="G99">
+        <v>299.75</v>
+      </c>
+      <c r="H99">
+        <v>24.837460734896638</v>
+      </c>
+      <c r="I99">
+        <v>26</v>
+      </c>
+      <c r="J99" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K99" t="str">
+        <v>brown</v>
+      </c>
+      <c r="L99" t="str">
+        <v>brown</v>
+      </c>
+      <c r="M99" t="str">
+        <v>blue</v>
+      </c>
+      <c r="N99" t="str">
+        <v>NA</v>
+      </c>
+      <c r="O99" t="b">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99" t="str">
+        <v>Kashyyyk</v>
+      </c>
+      <c r="S99" t="str">
+        <v>Wookiee</v>
+      </c>
+      <c r="T99" t="str">
+        <v>Revenge of the Sith</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
+        <v>Tion Medon</v>
+      </c>
+      <c r="B100">
+        <v>2.06</v>
+      </c>
+      <c r="C100">
+        <v>73</v>
+      </c>
+      <c r="D100">
+        <v>206</v>
+      </c>
+      <c r="E100">
+        <v>81</v>
+      </c>
+      <c r="F100">
+        <v>80</v>
+      </c>
+      <c r="G100">
+        <v>176.25</v>
+      </c>
+      <c r="H100">
+        <v>18.851918182675089</v>
+      </c>
+      <c r="I100">
+        <v>49</v>
+      </c>
+      <c r="J100" t="str">
+        <v>Lighter</v>
+      </c>
+      <c r="K100" t="str">
+        <v>none</v>
+      </c>
+      <c r="L100" t="str">
+        <v>grey</v>
+      </c>
+      <c r="M100" t="str">
+        <v>black</v>
+      </c>
+      <c r="N100" t="str">
+        <v>NA</v>
+      </c>
+      <c r="O100" t="b">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100" t="str">
+        <v>Utapau</v>
+      </c>
+      <c r="S100" t="str">
+        <v>Pau'an</v>
+      </c>
+      <c r="T100" t="str">
+        <v>Revenge of the Sith</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C9AD6C-192F-4898-AF47-D19C02D8C3A5}">
   <dimension ref="A1:B18"/>
   <sheetViews>

--- a/starwars_worked.xlsx
+++ b/starwars_worked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcool\workspace\excel\data\starwars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CF2C09-B4C3-488B-9E98-DB346D5E8A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA939E98-14FB-4906-B681-34D5BB504A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/starwars_worked.xlsx
+++ b/starwars_worked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcool\workspace\excel\data\starwars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA939E98-14FB-4906-B681-34D5BB504A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8A5D7B-5A9B-448B-BE1F-366076C1492A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="starwars" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="311">
   <si>
     <t>name</t>
   </si>
@@ -2283,7 +2283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -8675,8 +8675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FA28E1-BAA3-4B8B-A303-A05FEE6F2B32}">
   <dimension ref="A1:W96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8689,6 +8689,7 @@
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.09765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -14757,6 +14758,9 @@
       <c r="M92" s="10" t="s">
         <v>300</v>
       </c>
+      <c r="O92" s="10" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
@@ -14766,7 +14770,7 @@
         <v>295</v>
       </c>
       <c r="J93" s="9">
-        <f>ROUNDUP(COUNT(B4:B84)*0.9,0)</f>
+        <f>ROUND(COUNT(B4:B84)*0.9,0)</f>
         <v>73</v>
       </c>
       <c r="K93" s="9">
@@ -14779,6 +14783,10 @@
       <c r="N93" s="9">
         <f>ROUNDUP(COUNT(B4:B84)*0.25,0)</f>
         <v>21</v>
+      </c>
+      <c r="O93" s="9">
+        <f>VLOOKUP(N93,C4:W84,2)</f>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.3">
